--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_459.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_459.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32848-d79130-Reviews-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>193</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Lancaster-Hotels-Knights-Inn-Palmdale-Lancaster-Area.h41603.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_459.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_459.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="634">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1780 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r537255152-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>32848</t>
+  </si>
+  <si>
+    <t>79130</t>
+  </si>
+  <si>
+    <t>537255152</t>
+  </si>
+  <si>
+    <t>10/30/2017</t>
+  </si>
+  <si>
+    <t>One night Oct 27th</t>
+  </si>
+  <si>
+    <t>Hotel room needs a lot of work. Room needs to be modernized. Tiny towels for shower. Noise at night I think there's long term guest there.  Not many choices in the Palmdale area to stay.  Room needs to be repainted. $60 deposit for incidental charges for what there's nothing there. I wasn't impressed with this place. My wife booked it on Booking.com since we were passing through the area. The only thing I'll say positive the young woman at check in was friendly and the lady the next morning at checkout was friendly.  Didn't eat breakfast there went across the street to McDonald's .</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r537021359-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>537021359</t>
+  </si>
+  <si>
+    <t>10/29/2017</t>
+  </si>
+  <si>
+    <t>Run Run Run Away from this Hotel as you will regret everything!!!!!!</t>
+  </si>
+  <si>
+    <t>so we wanted to book a hotel on the way home after Magic Mtn. so we Booked and prepaid Hotel.com and even got the Guaranteed stay from them. well that all ended as we arrived after midnight and went to the night window, and while waiting for a women to come to night window. some customer who was leaving told us to not get a room as they have roaches. well me and another guy look at each other and I'm thinking OK what kind of night are we looking at here! so she talks to the other customer and then helps me and I tell her we have a paid reservation and just need to get our room. she replies you need to give me a credit card for $60 for incidentals and I asked her as we prepaid and wont be using anything can we skip it, she yells at me thru the window NO!!! at this point I say wait a min and go talk to my wife in the car and we come back and she opened the door for the other guy who decides he's going elsewhere. at this point it 12:30 am and we prepaid and see no way to get a refund and tell her Ok. she replies that she cancelled our room and will issue a refund to Hotels.com and I say Really? and she replies I don't want your business and...so we wanted to book a hotel on the way home after Magic Mtn. so we Booked and prepaid Hotel.com and even got the Guaranteed stay from them. well that all ended as we arrived after midnight and went to the night window, and while waiting for a women to come to night window. some customer who was leaving told us to not get a room as they have roaches. well me and another guy look at each other and I'm thinking OK what kind of night are we looking at here! so she talks to the other customer and then helps me and I tell her we have a paid reservation and just need to get our room. she replies you need to give me a credit card for $60 for incidentals and I asked her as we prepaid and wont be using anything can we skip it, she yells at me thru the window NO!!! at this point I say wait a min and go talk to my wife in the car and we come back and she opened the door for the other guy who decides he's going elsewhere. at this point it 12:30 am and we prepaid and see no way to get a refund and tell her Ok. she replies that she cancelled our room and will issue a refund to Hotels.com and I say Really? and she replies I don't want your business and we leave after I tell her she is a piece of work! Run very fast away from any reservation at this HOTEL!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>so we wanted to book a hotel on the way home after Magic Mtn. so we Booked and prepaid Hotel.com and even got the Guaranteed stay from them. well that all ended as we arrived after midnight and went to the night window, and while waiting for a women to come to night window. some customer who was leaving told us to not get a room as they have roaches. well me and another guy look at each other and I'm thinking OK what kind of night are we looking at here! so she talks to the other customer and then helps me and I tell her we have a paid reservation and just need to get our room. she replies you need to give me a credit card for $60 for incidentals and I asked her as we prepaid and wont be using anything can we skip it, she yells at me thru the window NO!!! at this point I say wait a min and go talk to my wife in the car and we come back and she opened the door for the other guy who decides he's going elsewhere. at this point it 12:30 am and we prepaid and see no way to get a refund and tell her Ok. she replies that she cancelled our room and will issue a refund to Hotels.com and I say Really? and she replies I don't want your business and...so we wanted to book a hotel on the way home after Magic Mtn. so we Booked and prepaid Hotel.com and even got the Guaranteed stay from them. well that all ended as we arrived after midnight and went to the night window, and while waiting for a women to come to night window. some customer who was leaving told us to not get a room as they have roaches. well me and another guy look at each other and I'm thinking OK what kind of night are we looking at here! so she talks to the other customer and then helps me and I tell her we have a paid reservation and just need to get our room. she replies you need to give me a credit card for $60 for incidentals and I asked her as we prepaid and wont be using anything can we skip it, she yells at me thru the window NO!!! at this point I say wait a min and go talk to my wife in the car and we come back and she opened the door for the other guy who decides he's going elsewhere. at this point it 12:30 am and we prepaid and see no way to get a refund and tell her Ok. she replies that she cancelled our room and will issue a refund to Hotels.com and I say Really? and she replies I don't want your business and we leave after I tell her she is a piece of work! Run very fast away from any reservation at this HOTEL!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r536674944-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>536674944</t>
+  </si>
+  <si>
+    <t>10/28/2017</t>
+  </si>
+  <si>
+    <t>used for an overnight</t>
+  </si>
+  <si>
+    <t>pros. the bed was comfortable, the room was passably clean, also they had a laminate floor for the room much cleaner than the usual carpeting. Cons 60$ deposit for our therapy dog even-though we have stayed there before, there was 1 bath towel no face cloths, and there was a used cloth hanging from the shower curtain. the "free" breakfast was basically non existent</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r485359936-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>485359936</t>
+  </si>
+  <si>
+    <t>05/18/2017</t>
+  </si>
+  <si>
+    <t>Poor condition of property and rooms - Sheets as thin as tissue paper and worn out towels.</t>
+  </si>
+  <si>
+    <t>Rooms need serious updating.  Easy access to freeway, however, was skeptical as to cleanliness of room, sheets and towels were so thin -- long since needing to be replaced.  Room sparcely furnished, pillows were substandard.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r469103865-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>469103865</t>
+  </si>
+  <si>
+    <t>03/21/2017</t>
+  </si>
+  <si>
+    <t>Nobody on Duty to check in</t>
+  </si>
+  <si>
+    <t>I do not advise ANYONE to stay at the Knights Inn in Palmdale, California.  I had a confirmed reservation to stay there in the first week of February 2017. I arrived at 1:25AM. The door was lock for the office, I rang the buzzer and banged on the door for 30 mins and NOBODY answered.  People were sitting outdoors across from the office partying. I left and had to check into another motel for a higher price which affected my budget for my one week stay there in the area!Their rating should not even be one star!  I would give them 0 stars!</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r466362380-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>466362380</t>
+  </si>
+  <si>
+    <t>03/11/2017</t>
+  </si>
+  <si>
+    <t>Overnight stay</t>
+  </si>
+  <si>
+    <t>Stopped there with my family for an overnight stay during a long trip. Location is just off the highway i.e. you're not staying there for the view. Staff seems overworked and not particularly helpful. The rooms are small and very noisy. Odd people walking around. I won't come back.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r438383417-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>438383417</t>
+  </si>
+  <si>
+    <t>11/18/2016</t>
+  </si>
+  <si>
+    <t>Very comfortable stay.</t>
+  </si>
+  <si>
+    <t>Hotel personnel were very nice, helpful and accommodating. Room smelled clean and fresh. The bed was comfortable and I slept soundly. I woke up ready to go to work each day. Thank you for a good stay.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r434144685-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>434144685</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>vey quiet, reasonable, clean</t>
+  </si>
+  <si>
+    <t>Very nice pool area, very clean and quiet. We have a therapy dog and they accept him however regular pets are not allowed. easy on and off of the 138 freeway. multitude of fast food restaurants walking distance.  very comfortable bed.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r413282873-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>413282873</t>
+  </si>
+  <si>
+    <t>08/31/2016</t>
+  </si>
+  <si>
+    <t>This place is kinda scummy :-(</t>
+  </si>
+  <si>
+    <t>Very shady characters hanging out at this hotel. There is security, but only on the weekends in the night time. I found this hotel to be very unsettling with the shady people hanging around in the parking lot, outside various rooms, and walking up n down the hallway. If they spent half the energy getting rid of the rift raff as they do enforcing their breakfast policy, this might be a good hotel.Also, no internet when I was there for 5 days. yuck!!</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r373462866-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>373462866</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>Terrible services</t>
+  </si>
+  <si>
+    <t>when I made check out on April 17/2016, the "manager" Ana was rude she insulted me, she is unprofessional, practically she kicked me out of the hotel, just because I told her "could you be kind and gentle with guest " I don't recommend this hotel.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r367911487-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>367911487</t>
+  </si>
+  <si>
+    <t>04/26/2016</t>
+  </si>
+  <si>
+    <t>RIP OFF</t>
+  </si>
+  <si>
+    <t>DO NOT stay at this hotel!  Complete rip off!  We were in Palmdale to take care of the affairs of the death of a family member.  We asked that we did not get maid service as we had important papers and other items in the room.  The maid came anyway.  Nothing was taken but I don't like that she could have gone through the confidential papers and rummaged through the belongings.  Then, due to an emergency medical issue, we had to leave a day early.  They said they couldn't refund us for leaving a day early.  We asked to speak to the manager but she wasn't in the office.  My sister has been calling for 2 weeks and the manager is never in the office and has yet to return her phone call.  Don't waste your time or money!MoreShow less</t>
+  </si>
+  <si>
+    <t>DO NOT stay at this hotel!  Complete rip off!  We were in Palmdale to take care of the affairs of the death of a family member.  We asked that we did not get maid service as we had important papers and other items in the room.  The maid came anyway.  Nothing was taken but I don't like that she could have gone through the confidential papers and rummaged through the belongings.  Then, due to an emergency medical issue, we had to leave a day early.  They said they couldn't refund us for leaving a day early.  We asked to speak to the manager but she wasn't in the office.  My sister has been calling for 2 weeks and the manager is never in the office and has yet to return her phone call.  Don't waste your time or money!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r351730485-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>351730485</t>
+  </si>
+  <si>
+    <t>02/28/2016</t>
+  </si>
+  <si>
+    <t>Stolen items</t>
+  </si>
+  <si>
+    <t>The maid stole a gold watch, bath &amp; body works products and $40 out of our room. We filed a police report. Nothing happened to the maid. Beware. The room had mold and bed bugs. The hotel is in a bad drug infested area.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r327734999-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>327734999</t>
+  </si>
+  <si>
+    <t>11/18/2015</t>
+  </si>
+  <si>
+    <t>Perfectly Okay for a short visit</t>
+  </si>
+  <si>
+    <t>My husband and I stayed 1 nite to break up our drive to Vegas so this was a good halfway point. After getting it on Priceline Express deal for $35, I told my husband that if it's really bad we'll just go to the other side of the freeway to the Ramada or the John Jay Inn. Because we were staying at an upscale resort in Vegas we wanted to keep it cheap in Palmdale. We only needed a bed, TV and shower. We arrived at 7 pm mid week. Front desk clerk was friendly, surroundings were pleasant, average. Room was painted ugly green on one wall. Room was dated, very average. Bathroom was fine, perfectly acceptable. seeing other quests, I would guess they were traveling on business. No sight of riff raff or questionable types. Quite. If it had been really awful or felt dangerous, I would have left. But it fit our needs for a short stay. I would not hesitate to stay here again as it would be silly to pay $90 and up just to sleep, watch some tv and shower and leave the very next morning. Other people leave alarming reviews but really, nothing dramatic here, just inexpensive , average lodging. 3 stars for average.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>My husband and I stayed 1 nite to break up our drive to Vegas so this was a good halfway point. After getting it on Priceline Express deal for $35, I told my husband that if it's really bad we'll just go to the other side of the freeway to the Ramada or the John Jay Inn. Because we were staying at an upscale resort in Vegas we wanted to keep it cheap in Palmdale. We only needed a bed, TV and shower. We arrived at 7 pm mid week. Front desk clerk was friendly, surroundings were pleasant, average. Room was painted ugly green on one wall. Room was dated, very average. Bathroom was fine, perfectly acceptable. seeing other quests, I would guess they were traveling on business. No sight of riff raff or questionable types. Quite. If it had been really awful or felt dangerous, I would have left. But it fit our needs for a short stay. I would not hesitate to stay here again as it would be silly to pay $90 and up just to sleep, watch some tv and shower and leave the very next morning. Other people leave alarming reviews but really, nothing dramatic here, just inexpensive , average lodging. 3 stars for average.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r326114373-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>326114373</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>Better than Expected</t>
+  </si>
+  <si>
+    <t>I read some negative reviews, so I wasn't expecting much. It was much better than I expected. It is a fairly big place, and I think they put me away from other occupied rooms, so it was very quiet. The carpet was pretty old, but other than that, the room seamed very clean. It had a flat screen television that worked good. The water ran hot, and there was good water pressure in the shower. The Wifi worked fine. Quick check in and they charged me a $50 cash deposit, since I paid by cash. I got the deposit back the next morning, no problem. I would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I read some negative reviews, so I wasn't expecting much. It was much better than I expected. It is a fairly big place, and I think they put me away from other occupied rooms, so it was very quiet. The carpet was pretty old, but other than that, the room seamed very clean. It had a flat screen television that worked good. The water ran hot, and there was good water pressure in the shower. The Wifi worked fine. Quick check in and they charged me a $50 cash deposit, since I paid by cash. I got the deposit back the next morning, no problem. I would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r321018070-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>321018070</t>
+  </si>
+  <si>
+    <t>10/22/2015</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>Very good experience for two day stay. The room is very clean, new artificial wood floor, flat screen tv with good programs,  very fast wifi, Big yard and pool. Ok breakfast. For the price, I am very happy,  no complain.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r302697054-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>302697054</t>
+  </si>
+  <si>
+    <t>08/23/2015</t>
+  </si>
+  <si>
+    <t>Very good stay with just a few minors</t>
+  </si>
+  <si>
+    <t>This motel is perfect for a thru/longer stay: free and fast wifi, Many movies, fridge, coffee maker, microwave and a very big courtyard, with green and pool.Minors: neigbourhood is a little dodgy and bathroom is a little off, with over-used towels. But for the cheap price they ask this is your best choice!!All the big shops and cinema close by!!</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r299288334-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>299288334</t>
+  </si>
+  <si>
+    <t>08/14/2015</t>
+  </si>
+  <si>
+    <t>Not as bad as some reviewers made it out to be</t>
+  </si>
+  <si>
+    <t>Firstly understand that Palmdale is not a destination location: people don't come here for vacation, they come here for business or to see family. (We were out to see family). Some of the reviewers said this was a "bad part of town" or called it "sketchy", and while I could see that if you have never traveled anywhere, I don't think it's a fair label here. Not once did I feel unsafe. This part of town this is right off a highway, and its in an older section of town. But that doesn't make it a bad area. There is a Starbucks just a couple doors down, which we really enjoyed being the caffeine addicts we are. It is also close to a gas station, a grocery store and a discount store, which we also found useful, since we were traveling with kids and had to replace a couple lost/forgotten items. As for the rooms themselves, it is obviously an old building, out of date and not well decorated. In terms of functionality, its not bad! The beds were comfortable, the a/c was powerful, there was a microwave and a mini fridge in the rooms, and it was clean. The only 2 things that I would do if I were the owner, is to put the sheer curtain in on the windows also (they only have the room darkening ones, which most people like, but I like natural light AND...Firstly understand that Palmdale is not a destination location: people don't come here for vacation, they come here for business or to see family. (We were out to see family). Some of the reviewers said this was a "bad part of town" or called it "sketchy", and while I could see that if you have never traveled anywhere, I don't think it's a fair label here. Not once did I feel unsafe. This part of town this is right off a highway, and its in an older section of town. But that doesn't make it a bad area. There is a Starbucks just a couple doors down, which we really enjoyed being the caffeine addicts we are. It is also close to a gas station, a grocery store and a discount store, which we also found useful, since we were traveling with kids and had to replace a couple lost/forgotten items. As for the rooms themselves, it is obviously an old building, out of date and not well decorated. In terms of functionality, its not bad! The beds were comfortable, the a/c was powerful, there was a microwave and a mini fridge in the rooms, and it was clean. The only 2 things that I would do if I were the owner, is to put the sheer curtain in on the windows also (they only have the room darkening ones, which most people like, but I like natural light AND privacy at the same time) and I would have the carpets shampooed. They don't look super old, just stained and a bit tacky in some spots. Overall, you can't beat $40 a night, (but you also can't update much, as an owner, with those rates either). You get what you pay for, guys.MoreShow less</t>
+  </si>
+  <si>
+    <t>Firstly understand that Palmdale is not a destination location: people don't come here for vacation, they come here for business or to see family. (We were out to see family). Some of the reviewers said this was a "bad part of town" or called it "sketchy", and while I could see that if you have never traveled anywhere, I don't think it's a fair label here. Not once did I feel unsafe. This part of town this is right off a highway, and its in an older section of town. But that doesn't make it a bad area. There is a Starbucks just a couple doors down, which we really enjoyed being the caffeine addicts we are. It is also close to a gas station, a grocery store and a discount store, which we also found useful, since we were traveling with kids and had to replace a couple lost/forgotten items. As for the rooms themselves, it is obviously an old building, out of date and not well decorated. In terms of functionality, its not bad! The beds were comfortable, the a/c was powerful, there was a microwave and a mini fridge in the rooms, and it was clean. The only 2 things that I would do if I were the owner, is to put the sheer curtain in on the windows also (they only have the room darkening ones, which most people like, but I like natural light AND...Firstly understand that Palmdale is not a destination location: people don't come here for vacation, they come here for business or to see family. (We were out to see family). Some of the reviewers said this was a "bad part of town" or called it "sketchy", and while I could see that if you have never traveled anywhere, I don't think it's a fair label here. Not once did I feel unsafe. This part of town this is right off a highway, and its in an older section of town. But that doesn't make it a bad area. There is a Starbucks just a couple doors down, which we really enjoyed being the caffeine addicts we are. It is also close to a gas station, a grocery store and a discount store, which we also found useful, since we were traveling with kids and had to replace a couple lost/forgotten items. As for the rooms themselves, it is obviously an old building, out of date and not well decorated. In terms of functionality, its not bad! The beds were comfortable, the a/c was powerful, there was a microwave and a mini fridge in the rooms, and it was clean. The only 2 things that I would do if I were the owner, is to put the sheer curtain in on the windows also (they only have the room darkening ones, which most people like, but I like natural light AND privacy at the same time) and I would have the carpets shampooed. They don't look super old, just stained and a bit tacky in some spots. Overall, you can't beat $40 a night, (but you also can't update much, as an owner, with those rates either). You get what you pay for, guys.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r291649541-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>291649541</t>
+  </si>
+  <si>
+    <t>07/22/2015</t>
+  </si>
+  <si>
+    <t>Disaster</t>
+  </si>
+  <si>
+    <t>Dirty covers, nasty room smelled of smoke. I was bitten by bugs.  People walking around all night. Fighting in the next room. Police activity on site. Don't stay here.front office personnel was extremely rude, too many people walking around appearing to be under the influence of drugs.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r268392766-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>268392766</t>
+  </si>
+  <si>
+    <t>04/27/2015</t>
+  </si>
+  <si>
+    <t>Pastor Gwendolyn Price</t>
+  </si>
+  <si>
+    <t>I was comfortable and slept well. My only problem was that towels for were limited. There were two guests in room 250 but only one set of towels. On our last morning we had a total of four towels - floor towel, bath towel, and two hand towel. The rate for the room was quite reasonable. I plan to stay there again when I return. So except for the shortage of towels the stay was acceptable.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r264946436-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>264946436</t>
+  </si>
+  <si>
+    <t>04/10/2015</t>
+  </si>
+  <si>
+    <t>PLACE NEEDS TO BE CONDEMNED!!</t>
+  </si>
+  <si>
+    <t>We were forced to stay at this "hotel" after getting 2 flat tires on the way home from Las Vegas.  The second flat happened while we were eating dinner at the Pizza Hut one door down from this "hotel".  When we walked out to our car, we saw that the tire that had just been changed was completely flat.  My fiancé moved the car to the Meineke's in back of Pizza Hut and we walked to this "hotel", about 50 yards away.
+First of all, the reason I put the word "hotel" in quotation marks when referring to this dump is because there is no way they should be charging people to spend the night in their establishment.  What this place is is extended stay housing for homeless, drug addicts and prostitutes.  We were approached by a drug dealer outside of our room who asked my fiancé if we did lines or wanted to blaze.  When he responded, "No, I'm clean...", he then asked, "What about your lady?!"
+We did not have high hopes for our stay, but at a minimum, expected that for $55.00 a night we would receive a clean room with an operable toilet where we could have a good night's sleep prior to getting our tire replaced and heading home.  After all, we were in Palmdale, which is not exactly a premiere luxury destination and doesn't command inflated hotel room rates.  Both my fiance and I...We were forced to stay at this "hotel" after getting 2 flat tires on the way home from Las Vegas.  The second flat happened while we were eating dinner at the Pizza Hut one door down from this "hotel".  When we walked out to our car, we saw that the tire that had just been changed was completely flat.  My fiancé moved the car to the Meineke's in back of Pizza Hut and we walked to this "hotel", about 50 yards away.First of all, the reason I put the word "hotel" in quotation marks when referring to this dump is because there is no way they should be charging people to spend the night in their establishment.  What this place is is extended stay housing for homeless, drug addicts and prostitutes.  We were approached by a drug dealer outside of our room who asked my fiancé if we did lines or wanted to blaze.  When he responded, "No, I'm clean...", he then asked, "What about your lady?!" We did not have high hopes for our stay, but at a minimum, expected that for $55.00 a night we would receive a clean room with an operable toilet where we could have a good night's sleep prior to getting our tire replaced and heading home.  After all, we were in Palmdale, which is not exactly a premiere luxury destination and doesn't command inflated hotel room rates.  Both my fiance and I were exhausted after enduring the "Get Out Of Vegas" traffic all afternoon and having 2 flat tires to boot.  All we wanted was to fall asleep so we could get up the next morning and go home.The first thing that happened is my fiancé tried to use the toilet and found it wouldn't flush.  We then attempted to call the front desk, but the phone didn't work.  We then decided to walk to the lobby and notify the desk clerk.  As we stepped outside, a group of 8 people, all in various stages of inebriation, were sitting on the stairs leading up to the 2nd floor, hanging out, drinking beer, smoking and laughing loudly.  We knew we would not be able to get any sleep with them right outside our room, so when we spoke to the desk clerk, we asked to be moved to a quieter part of the hotel. (This first room we were given was Room #116, which is directly under the stairs leading up to the 2nd floor).Desk clerk was extremely skeptical of our story and said she would accompany us back to the room to verify what we were telling her.  She walked back to the room with us and by the time we got there, the group of partiers had swelled even more.  She did not say a word to them, but once we were in the room, she tried the toilet, saw it wouldn't flush, then tried the phone and saw it didn't work.  At that point I noticed that one of the chairs that was pushed under the table had a big knife slash in it.  The clerk noticed me looking at it and said she would move us to another room.We then were moved to room 138.  This room was in the back of the hotel and at first glance, seemed cleaner than Room 116.  We put down our bags, lay on the bed, started going through our phones (by now it was close to midnight) and then I went to use the toilet.Upon flushing the toilet, all of the water in the bowl overflowed and got all over the floor.  I began screaming for my fiancé to get me towels and he brought me all the towels in the room.  I threw them down on the floor and they were so threadbare and thin that they would not soak up all the water.  We then called the front desk on my cellphone (since the room phone also did not work) and said that the toilet overflowed.  The desk clerk (apparently shifts had changed and now a male was on duty) said in a very rude voice, "We can't be moving you from room to room all night!"I asked him, "You can't move us out of a room that has a nonoperational toilet?!!" and he said, "I'll send 'security' to your room to go check it out.Twenty minutes later, we heard a knock on the door.  A handyman who was not dressed in any type of uniform stated that he was there to look at the toilet.  I let him in and he went into the bathroom.  He came back out and said, "I'll be back.  I need to get a plunger."  I said, 'Can you bring us back some more towels too?  I had to use the ones we had to try to clean up the mess."  He said very sarcastically, "I saw that." and left.He came back awhile later (about 10-15 minutes) with a plunger and 3 towels.  No mop, no bucket, nothing to clean up the unsanitary mess.  He put the towels down on top of the microwave and went into the restroom.  We heard him plunge the toilet for a total of about 15 seconds.  He then came out, said, "It's fixed" and left. I went into the restroom, put down the towels he had left behind, and tried to sop up the rest of the water.  I could not believe that they would not move us to another room or clean up the mess from the overflowed toilet with dirty water.  I had to disinfect my hands and feet and then went and laid down, exhausted.During the night both my fiancé and I got up to use the restroom.  We observed that the toilet was still not fixed - although it did not overflow, the water in the bowl did not drain all the way and so the bowl stayed full of urine.The next morning, when my fiancé went to get out of bed, he put his feet down on the carpet between the bed and the bathroom wall.  He was appalled to find that the carpet was soaking wet.  Apparently, the disgusting dirty toilet water that had flooded the bathroom had seeped through the wall and gotten the carpet wet!  TOTALLY GROSS AND COMPLETELY UNSANITARY!!!My fiance then went to Meineke's to talk to them about the tire, and on his way back to the room, stopped at the front office and had a conversation with the infamous "Anna" (see other reviews).  I don't even know how to begin describing this lady.  She is like the poster child for Poor Customer Service Workers.  It's not even like she doesn't have a clue about how to provide anything approaching a minimal amount of customer service.  It's like she has made it her life's mission to be mentioned on every single negative review for her horrible customer service skills.During my first visit to the office, she deflected my complaints by stating she was not the person I needed to talk to - that the Hotel Manager (Bindu) would be in at 10:00 am and she was the person I needed to talk to.At 10:00 I went back to the office to speak to Bindu.  Anna kept me waiting 10 minutes.  When Bindu came out, she immediately stated that she could not speak to me because I was not a "registered guest".  I asked her, "What do you mean I'm not a registered guest?  My fiancé and I checked in last night!"  She said, "Well, the room was not paid for by you, it was paid for by a MAN.  For all I know, he just picked you up on the street.  You are not authorized to talk to us about this room."Furious, I told her, "I'm going to get my fiancé so he can come in here and talk to you.  We want a refund! You guys have some kind of plumbing problem here and the toilets don't work!" She waved her hand dismissively at me and I went out the door.  My fiancé was still at Meinecke's waiting for them to put on the tire, and I asked him to come back to the hotel lobby with me.  He came back and said that the room was unacceptable.  Bindu told him that the best she could do was offer him a discount on a future night's stay!!My fiancé told her, "I guarantee you we will NEVER stay at this hotel again!  In fact, we will be going out of our way to avoid Palmdale in the future because this hotel is nothing more than a drug den!"We started walking out the door and as we did so, an elderly Filipino gentlemen was walking in.  I am Filipino myself and I immediately started wondering whether I should warn him about what type of hotel it was.  My conscience wouldn't allow me to keep on walking, so I turned around and went back into the lobby.  I told him that I would stay at any other hotel in Palmdale before this one.  I told him that the toilets didn't work, the phones didn't work, there were drug addicts partying outside of their rooms all night long...I would have gone on, but Bindu and Anna both began screaming at me.  They told me to get out!!  I said, "This is a free country and I can express my honest opinion..." and then Anna picked up the phone and dialed 911.  She told the dispatcher that they wanted me arrested for trespassing!!  I asked her, "How are you gonna arrest me for trespassing when we paid to stay here and you're not giving us a refund?  Give me the money back and I'll leave!!"  They both went absolutely nuts yelling at me. When the elderly Filipino man refused to listen to me and checked in anyway, I decided to leave so I wouldn't have to spend another moment in Anna and Bindu's company.  I was walking towards Meinecke's and saw a sheriff's patrol vehicle parked in front of the In-&amp;-Out next door.  Thinking he might have been responding to the call from the hotel, I approached him and talked to him.  I mentioned the drug dealing and prostitution, and he stated that they were "very much aware" of what was going on at that hotel, and it was just our "bad luck" that we happened to break down in that area of town.  If you are even considering staying at this dump, RUN... do not walk.... AWAY!!  I would rather sleep in my car than ever come back to this place again.  Bindu and Anna are the rudest, shiftiest people you could imagine, and they do not deserve anyone's business.I have filed complaints with the City of Palmdale Building &amp; Safety Division as well as the L.A. County Department of Public Health - Institutions and Dwellings Division. This place needs to be shut down!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>We were forced to stay at this "hotel" after getting 2 flat tires on the way home from Las Vegas.  The second flat happened while we were eating dinner at the Pizza Hut one door down from this "hotel".  When we walked out to our car, we saw that the tire that had just been changed was completely flat.  My fiancé moved the car to the Meineke's in back of Pizza Hut and we walked to this "hotel", about 50 yards away.
+First of all, the reason I put the word "hotel" in quotation marks when referring to this dump is because there is no way they should be charging people to spend the night in their establishment.  What this place is is extended stay housing for homeless, drug addicts and prostitutes.  We were approached by a drug dealer outside of our room who asked my fiancé if we did lines or wanted to blaze.  When he responded, "No, I'm clean...", he then asked, "What about your lady?!"
+We did not have high hopes for our stay, but at a minimum, expected that for $55.00 a night we would receive a clean room with an operable toilet where we could have a good night's sleep prior to getting our tire replaced and heading home.  After all, we were in Palmdale, which is not exactly a premiere luxury destination and doesn't command inflated hotel room rates.  Both my fiance and I...We were forced to stay at this "hotel" after getting 2 flat tires on the way home from Las Vegas.  The second flat happened while we were eating dinner at the Pizza Hut one door down from this "hotel".  When we walked out to our car, we saw that the tire that had just been changed was completely flat.  My fiancé moved the car to the Meineke's in back of Pizza Hut and we walked to this "hotel", about 50 yards away.First of all, the reason I put the word "hotel" in quotation marks when referring to this dump is because there is no way they should be charging people to spend the night in their establishment.  What this place is is extended stay housing for homeless, drug addicts and prostitutes.  We were approached by a drug dealer outside of our room who asked my fiancé if we did lines or wanted to blaze.  When he responded, "No, I'm clean...", he then asked, "What about your lady?!" We did not have high hopes for our stay, but at a minimum, expected that for $55.00 a night we would receive a clean room with an operable toilet where we could have a good night's sleep prior to getting our tire replaced and heading home.  After all, we were in Palmdale, which is not exactly a premiere luxury destination and doesn't command inflated hotel room rates.  Both my fiance and I were exhausted after enduring the "Get Out Of Vegas" traffic all afternoon and having 2 flat tires to boot.  All we wanted was to fall asleep so we could get up the next morning and go home.The first thing that happened is my fiancé tried to use the toilet and found it wouldn't flush.  We then attempted to call the front desk, but the phone didn't work.  We then decided to walk to the lobby and notify the desk clerk.  As we stepped outside, a group of 8 people, all in various stages of inebriation, were sitting on the stairs leading up to the 2nd floor, hanging out, drinking beer, smoking and laughing loudly.  We knew we would not be able to get any sleep with them right outside our room, so when we spoke to the desk clerk, we asked to be moved to a quieter part of the hotel. (This first room we were given was Room #116, which is directly under the stairs leading up to the 2nd floor).Desk clerk was extremely skeptical of our story and said she would accompany us back to the room to verify what we were telling her.  She walked back to the room with us and by the time we got there, the group of partiers had swelled even more.  She did not say a word to them, but once we were in the room, she tried the toilet, saw it wouldn't flush, then tried the phone and saw it didn't work.  At that point I noticed that one of the chairs that was pushed under the table had a big knife slash in it.  The clerk noticed me looking at it and said she would move us to another room.We then were moved to room 138.  This room was in the back of the hotel and at first glance, seemed cleaner than Room 116.  We put down our bags, lay on the bed, started going through our phones (by now it was close to midnight) and then I went to use the toilet.Upon flushing the toilet, all of the water in the bowl overflowed and got all over the floor.  I began screaming for my fiancé to get me towels and he brought me all the towels in the room.  I threw them down on the floor and they were so threadbare and thin that they would not soak up all the water.  We then called the front desk on my cellphone (since the room phone also did not work) and said that the toilet overflowed.  The desk clerk (apparently shifts had changed and now a male was on duty) said in a very rude voice, "We can't be moving you from room to room all night!"I asked him, "You can't move us out of a room that has a nonoperational toilet?!!" and he said, "I'll send 'security' to your room to go check it out.Twenty minutes later, we heard a knock on the door.  A handyman who was not dressed in any type of uniform stated that he was there to look at the toilet.  I let him in and he went into the bathroom.  He came back out and said, "I'll be back.  I need to get a plunger."  I said, 'Can you bring us back some more towels too?  I had to use the ones we had to try to clean up the mess."  He said very sarcastically, "I saw that." and left.He came back awhile later (about 10-15 minutes) with a plunger and 3 towels.  No mop, no bucket, nothing to clean up the unsanitary mess.  He put the towels down on top of the microwave and went into the restroom.  We heard him plunge the toilet for a total of about 15 seconds.  He then came out, said, "It's fixed" and left. I went into the restroom, put down the towels he had left behind, and tried to sop up the rest of the water.  I could not believe that they would not move us to another room or clean up the mess from the overflowed toilet with dirty water.  I had to disinfect my hands and feet and then went and laid down, exhausted.During the night both my fiancé and I got up to use the restroom.  We observed that the toilet was still not fixed - although it did not overflow, the water in the bowl did not drain all the way and so the bowl stayed full of urine.The next morning, when my fiancé went to get out of bed, he put his feet down on the carpet between the bed and the bathroom wall.  He was appalled to find that the carpet was soaking wet.  Apparently, the disgusting dirty toilet water that had flooded the bathroom had seeped through the wall and gotten the carpet wet!  TOTALLY GROSS AND COMPLETELY UNSANITARY!!!My fiance then went to Meineke's to talk to them about the tire, and on his way back to the room, stopped at the front office and had a conversation with the infamous "Anna" (see other reviews).  I don't even know how to begin describing this lady.  She is like the poster child for Poor Customer Service Workers.  It's not even like she doesn't have a clue about how to provide anything approaching a minimal amount of customer service.  It's like she has made it her life's mission to be mentioned on every single negative review for her horrible customer service skills.During my first visit to the office, she deflected my complaints by stating she was not the person I needed to talk to - that the Hotel Manager (Bindu) would be in at 10:00 am and she was the person I needed to talk to.At 10:00 I went back to the office to speak to Bindu.  Anna kept me waiting 10 minutes.  When Bindu came out, she immediately stated that she could not speak to me because I was not a "registered guest".  I asked her, "What do you mean I'm not a registered guest?  My fiancé and I checked in last night!"  She said, "Well, the room was not paid for by you, it was paid for by a MAN.  For all I know, he just picked you up on the street.  You are not authorized to talk to us about this room."Furious, I told her, "I'm going to get my fiancé so he can come in here and talk to you.  We want a refund! You guys have some kind of plumbing problem here and the toilets don't work!" She waved her hand dismissively at me and I went out the door.  My fiancé was still at Meinecke's waiting for them to put on the tire, and I asked him to come back to the hotel lobby with me.  He came back and said that the room was unacceptable.  Bindu told him that the best she could do was offer him a discount on a future night's stay!!My fiancé told her, "I guarantee you we will NEVER stay at this hotel again!  In fact, we will be going out of our way to avoid Palmdale in the future because this hotel is nothing more than a drug den!"We started walking out the door and as we did so, an elderly Filipino gentlemen was walking in.  I am Filipino myself and I immediately started wondering whether I should warn him about what type of hotel it was.  My conscience wouldn't allow me to keep on walking, so I turned around and went back into the lobby.  I told him that I would stay at any other hotel in Palmdale before this one.  I told him that the toilets didn't work, the phones didn't work, there were drug addicts partying outside of their rooms all night long...I would have gone on, but Bindu and Anna both began screaming at me.  They told me to get out!!  I said, "This is a free country and I can express my honest opinion..." and then Anna picked up the phone and dialed 911.  She told the dispatcher that they wanted me arrested for trespassing!!  I asked her, "How are you gonna arrest me for trespassing when we paid to stay here and you're not giving us a refund?  Give me the money back and I'll leave!!"  They both went absolutely nuts yelling at me. When the elderly Filipino man refused to listen to me and checked in anyway, I decided to leave so I wouldn't have to spend another moment in Anna and Bindu's company.  I was walking towards Meinecke's and saw a sheriff's patrol vehicle parked in front of the In-&amp;-Out next door.  Thinking he might have been responding to the call from the hotel, I approached him and talked to him.  I mentioned the drug dealing and prostitution, and he stated that they were "very much aware" of what was going on at that hotel, and it was just our "bad luck" that we happened to break down in that area of town.  If you are even considering staying at this dump, RUN... do not walk.... AWAY!!  I would rather sleep in my car than ever come back to this place again.  Bindu and Anna are the rudest, shiftiest people you could imagine, and they do not deserve anyone's business.I have filed complaints with the City of Palmdale Building &amp; Safety Division as well as the L.A. County Department of Public Health - Institutions and Dwellings Division. This place needs to be shut down!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r253106430-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>253106430</t>
+  </si>
+  <si>
+    <t>02/07/2015</t>
+  </si>
+  <si>
+    <t>Bad Manager and Office Help</t>
+  </si>
+  <si>
+    <t>They do not care if you stay there or not. They will harrass you and speak to you as if you stay for free. They also abuse the sign "We can refuse service to anyone". They cut off the internet and do things to get you upset. No respect! Even if you have a do not disturb sign on your door, they will act like they want to break the door down. I think they hate people. I am told that new owners are planning to get rid of Anna and Bindu and it SERVES THEM RIGHT!</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r238766039-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>238766039</t>
+  </si>
+  <si>
+    <t>11/08/2014</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>Bed bug infestation. Carpets and room filthy. Mold in the bathroom and obvious roof leaks with mold. Came here for travel team tournament from northern ca at midnight to immediately have to find another place. Totally should not stay here with the bugs and filth</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r233699475-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>233699475</t>
+  </si>
+  <si>
+    <t>10/10/2014</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r232977298-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>232977298</t>
+  </si>
+  <si>
+    <t>10/06/2014</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r229527405-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>229527405</t>
+  </si>
+  <si>
+    <t>09/17/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r229305571-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>229305571</t>
+  </si>
+  <si>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>great stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice motel. Right off highway. Clean room and comfortable bed. Great pool.  Bad reviews are without merit.If you want, better go pay 100 bucks or more a night at holiday inn and see if they treat you any better!  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r228212567-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>228212567</t>
+  </si>
+  <si>
+    <t>09/10/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r226761015-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>226761015</t>
+  </si>
+  <si>
+    <t>09/03/2014</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r226180863-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>226180863</t>
+  </si>
+  <si>
+    <t>09/01/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r224905248-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>224905248</t>
+  </si>
+  <si>
+    <t>08/27/2014</t>
+  </si>
+  <si>
+    <t>Horrible Experience</t>
+  </si>
+  <si>
+    <t>The entire experience was bad. I originally booked a group of thirteen and requested to be together, but none where. Everyone was scattered all over the place, granted I plan this trip months ahead so the hotel had plenty of time to make the appropriate accommodations. Second. once we checked in, the staff was rude. I had booked a room separate from the rest of the rooms, and once I checked in they desk clerk told me all they had was smoking rooms. The room was nasty, it was very smelly and I had to go buy spray to try to mask the smell. The beds where uncomfortable, and squeaky. To top it all off, an alarm kept me up all night. The entire experience was awfully. The group was part of a softball tournament, therefore we had many girls that were attempting to have some fun after a long day of playing, instead they were reprimanded for running and being loud. We attempted to have a snack on the table provided, but failed miserably since the table had a broken leg. Never again will I stay in a Days Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>The entire experience was bad. I originally booked a group of thirteen and requested to be together, but none where. Everyone was scattered all over the place, granted I plan this trip months ahead so the hotel had plenty of time to make the appropriate accommodations. Second. once we checked in, the staff was rude. I had booked a room separate from the rest of the rooms, and once I checked in they desk clerk told me all they had was smoking rooms. The room was nasty, it was very smelly and I had to go buy spray to try to mask the smell. The beds where uncomfortable, and squeaky. To top it all off, an alarm kept me up all night. The entire experience was awfully. The group was part of a softball tournament, therefore we had many girls that were attempting to have some fun after a long day of playing, instead they were reprimanded for running and being loud. We attempted to have a snack on the table provided, but failed miserably since the table had a broken leg. Never again will I stay in a Days Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r218792693-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>218792693</t>
+  </si>
+  <si>
+    <t>07/31/2014</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r217518984-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>217518984</t>
+  </si>
+  <si>
+    <t>07/25/2014</t>
+  </si>
+  <si>
+    <t>Reservations do not mean a thing!!</t>
+  </si>
+  <si>
+    <t>My granddaughter and her softball team traveled all the way from Washington state to Palmdale, California for softball tournament. When they arrived, they had put them into smoking rooms when they we had requested and triple checked the reservation as a non-smoking room. They had to fight for their money back and find a different hotel. The front desk person was terrible and the employees need serious training customer service</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r211013266-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>211013266</t>
+  </si>
+  <si>
+    <t>06/18/2014</t>
+  </si>
+  <si>
+    <t>Wyndham properties are not like this.</t>
+  </si>
+  <si>
+    <t>This review covers two seperate chances in June 2014.   Booked very late all they had was a dual queen at the very back of the lot.  The bed linnens were clean.  Bathroom was clean.  Walls had stains on the wallpaper and carpet was worn.   The door jamb looked like it had been kicked in.  It was repaired with screws and painted.  The door didnot feel secure.  Desperate for sleep I stayed the night.Wyndham usually has nice properties so I decided to try it again with a early reservation.  I reserved a NS King room.   Showed up a little before 8pm.   They acknowledged the reservation but failed to set the room aside.   All they could do was a queen in the back.   I wasn't doing that mistake again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>This review covers two seperate chances in June 2014.   Booked very late all they had was a dual queen at the very back of the lot.  The bed linnens were clean.  Bathroom was clean.  Walls had stains on the wallpaper and carpet was worn.   The door jamb looked like it had been kicked in.  It was repaired with screws and painted.  The door didnot feel secure.  Desperate for sleep I stayed the night.Wyndham usually has nice properties so I decided to try it again with a early reservation.  I reserved a NS King room.   Showed up a little before 8pm.   They acknowledged the reservation but failed to set the room aside.   All they could do was a queen in the back.   I wasn't doing that mistake again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r210648335-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>210648335</t>
+  </si>
+  <si>
+    <t>06/16/2014</t>
+  </si>
+  <si>
+    <t>great price, but just a room, comfortable, very affordable, however continental breakfast was very, very limited.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r210604982-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>210604982</t>
+  </si>
+  <si>
+    <t>Lesson Learned</t>
+  </si>
+  <si>
+    <t>Door had been kicked in so many times that when you engaged the dead bolt there was a misalignement between the door and the frame letting light and wind through. Door ratteled all night in the wind and coupled with the poor air conditioning the room never fully cooled off. And the remote for the 19" tube television which looked like it had been dropped, didn't work.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r209673511-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>209673511</t>
+  </si>
+  <si>
+    <t>06/09/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r207573985-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>207573985</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r206787628-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>206787628</t>
+  </si>
+  <si>
+    <t>05/23/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r206614992-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>206614992</t>
+  </si>
+  <si>
+    <t>05/22/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r203391989-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>203391989</t>
+  </si>
+  <si>
+    <t>04/29/2014</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r203370738-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>203370738</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>Would not stay here again!  I signed up for non smoking and was given a smoking room  Room floor was nasty.  I went to local 99 cent store and purchased various sprays.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r201600451-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>201600451</t>
+  </si>
+  <si>
+    <t>04/17/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r197079620-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>197079620</t>
+  </si>
+  <si>
+    <t>03/11/2014</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r196896962-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>196896962</t>
+  </si>
+  <si>
+    <t>03/10/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r196685245-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>196685245</t>
+  </si>
+  <si>
+    <t>03/08/2014</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Some guests in other rooms were loud. People standing in the halls 2- 3AM. Not sure why. No facial tissue in rooms. Otherwise OK. I like the free continental breakfast.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r195395332-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>195395332</t>
+  </si>
+  <si>
+    <t>02/25/2014</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r190671604-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>190671604</t>
+  </si>
+  <si>
+    <t>01/12/2014</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Laxmiji, Manager at Knights Inn Palmdale Lancaster Area, responded to this reviewResponded January 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r188464640-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>188464640</t>
+  </si>
+  <si>
+    <t>12/24/2013</t>
+  </si>
+  <si>
+    <t>Laxmiji, Manager at Knights Inn Palmdale Lancaster Area, responded to this reviewResponded January 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 12, 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r186078503-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>186078503</t>
+  </si>
+  <si>
+    <t>11/27/2013</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r185251913-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>185251913</t>
+  </si>
+  <si>
+    <t>11/19/2013</t>
+  </si>
+  <si>
+    <t>The absolute worse Hotel I have ever seen</t>
+  </si>
+  <si>
+    <t>I booked a room for two nights at this hotel. The person behind the counter was nice when we checked in, but when we arrived at the room, I was shocked at what I saw. The room was on the lower floor. The floor looked as if it had just been put down, it was a wood laminant, the best part of the room. There was no baseboards, the trash can had no liner, and the bathtub was so moldy, I would not allow my dog to take a bath in it. There was no telephone in the room, and the bedspread looked as if it was very old, and in need of a good burning. There was a carwash nearby, and the noise from it was almost like be extremely close to the freeway. The remote control to the television had some nasy sticky tape holding the battery in place. I was afraid to even shower in that tub. This place desperately needs to be updated. We had our own blankets, so we just threw the spread on the floor in the corner. I would not stay there againMoreShow less</t>
+  </si>
+  <si>
+    <t>I booked a room for two nights at this hotel. The person behind the counter was nice when we checked in, but when we arrived at the room, I was shocked at what I saw. The room was on the lower floor. The floor looked as if it had just been put down, it was a wood laminant, the best part of the room. There was no baseboards, the trash can had no liner, and the bathtub was so moldy, I would not allow my dog to take a bath in it. There was no telephone in the room, and the bedspread looked as if it was very old, and in need of a good burning. There was a carwash nearby, and the noise from it was almost like be extremely close to the freeway. The remote control to the television had some nasy sticky tape holding the battery in place. I was afraid to even shower in that tub. This place desperately needs to be updated. We had our own blankets, so we just threw the spread on the floor in the corner. I would not stay there againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r184361176-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>184361176</t>
+  </si>
+  <si>
+    <t>11/11/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r183835035-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>183835035</t>
+  </si>
+  <si>
+    <t>11/06/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r183678551-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>183678551</t>
+  </si>
+  <si>
+    <t>11/05/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r183669957-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>183669957</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r181253051-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>181253051</t>
+  </si>
+  <si>
+    <t>10/16/2013</t>
+  </si>
+  <si>
+    <t>In their defense the lobby was under construction so the...</t>
+  </si>
+  <si>
+    <t>In their defense the lobby was under construction so the initial impression was poor. Had to go out for breakfast as the choices were not good.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>In their defense the lobby was under construction so the initial impression was poor. Had to go out for breakfast as the choices were not good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r181097048-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>181097048</t>
+  </si>
+  <si>
+    <t>10/15/2013</t>
+  </si>
+  <si>
+    <t>It's perfectly fine not to be impressed by these guys...</t>
+  </si>
+  <si>
+    <t>After a less than hospitable check-in (BTW, don't even think about asking for a late check out, the lady behind the counter rolled her eyes and answered "NO, NO late checkouts, 12 pm is late enough"... also pre-book through TripAdvisor for the discounted rate... I didn't, as I wanted to take a look at the property before committing as some parts of Palmdale are seriously sketchy). Checked out the room, it was clean and comfortable looking. Left for the day and returned later that night to find that the door keycard no longer worked, dragged my stuff to the front desk and was lectured "NO, DO NOT put the key card in your wallet as your credit cards and wallet were demagnetizing the strip!"... Received a new card, walked back what seemed like 100 yards pulling suitcase to my room, all the while holding the keycard IN MY HAND, door opened, placed bag in room, went back to the car for more luggage and my Tommy's burger and fries for dinner, all the while holding the keycard IN MY HAND, once again the door would not unlock. Dragged luggage and food back to front desk, now asked for two keycards, the extra one as a backup. Clerk was pretty much indifferent, thought I'd try my luck asking how much additional would a late check out cost (the reason that I kept asking was that I had a meeting in LA...After a less than hospitable check-in (BTW, don't even think about asking for a late check out, the lady behind the counter rolled her eyes and answered "NO, NO late checkouts, 12 pm is late enough"... also pre-book through TripAdvisor for the discounted rate... I didn't, as I wanted to take a look at the property before committing as some parts of Palmdale are seriously sketchy). Checked out the room, it was clean and comfortable looking. Left for the day and returned later that night to find that the door keycard no longer worked, dragged my stuff to the front desk and was lectured "NO, DO NOT put the key card in your wallet as your credit cards and wallet were demagnetizing the strip!"... Received a new card, walked back what seemed like 100 yards pulling suitcase to my room, all the while holding the keycard IN MY HAND, door opened, placed bag in room, went back to the car for more luggage and my Tommy's burger and fries for dinner, all the while holding the keycard IN MY HAND, once again the door would not unlock. Dragged luggage and food back to front desk, now asked for two keycards, the extra one as a backup. Clerk was pretty much indifferent, thought I'd try my luck asking how much additional would a late check out cost (the reason that I kept asking was that I had a meeting in LA at around 4 pm next day and thought I'd just kick it by the pool). Oh no, no, no, NO sir, we cannot allow late check-outs. Alrightey then. Dragged my luggage and dinner back to my room and luckily the door opened, stayed put for the rest of the night and made a couple of Skype calls using their free in room WiFi. Next morning tried calling out via Skype and the motel's WiFi connection was now working intermittently when trying to make a call to LA (310 area code). Figured I'd then try the in-room old school landline phone, followed the instructions on the phone, couldn't get through, called the front desk and it was the same lady from the day before when I originally checked in, she said "NO, NO, NO... we DO NOT allow long distance calls!" I said I didn't think calling Palmdale to Los Angeles was long distance... oh well. Was able to get an email sent out via WiFi to tell the person I was trying to call what room I was in and to call me back. Five minutes later he emails me and says some rude woman said there's no one there by your name checked into that room and then hung up on him, even after him spelling my last name for her. I called the front desk again, and she said someone had called asking for "'Lori,' I said well, my name is 'Mauri,' which I'll admit could sound like Lori to someone, but since I had just spoken to you a little while ago about trying to call out, that you might of been able to put two and two together that there was someone in room 113 trying to reach someone by phone... maybe you just don't hear very well?" She said that she hears VERY well. Then I said I'm pretty much not at all impressed with you guys (actually I wanted to say something else, but...). She said "That is perfectly fine." Anyway, to make a long story short, housekeeping deserves a 5 as they do a great job considering the age of the property (also, no bugs or homeless panhandlers there, like in some of the other Palmdale properties reviewed here). However, the duo in the front office deserve a double zero, but since 1 is the lowest possible rating... my stay averages out to a 3.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>After a less than hospitable check-in (BTW, don't even think about asking for a late check out, the lady behind the counter rolled her eyes and answered "NO, NO late checkouts, 12 pm is late enough"... also pre-book through TripAdvisor for the discounted rate... I didn't, as I wanted to take a look at the property before committing as some parts of Palmdale are seriously sketchy). Checked out the room, it was clean and comfortable looking. Left for the day and returned later that night to find that the door keycard no longer worked, dragged my stuff to the front desk and was lectured "NO, DO NOT put the key card in your wallet as your credit cards and wallet were demagnetizing the strip!"... Received a new card, walked back what seemed like 100 yards pulling suitcase to my room, all the while holding the keycard IN MY HAND, door opened, placed bag in room, went back to the car for more luggage and my Tommy's burger and fries for dinner, all the while holding the keycard IN MY HAND, once again the door would not unlock. Dragged luggage and food back to front desk, now asked for two keycards, the extra one as a backup. Clerk was pretty much indifferent, thought I'd try my luck asking how much additional would a late check out cost (the reason that I kept asking was that I had a meeting in LA...After a less than hospitable check-in (BTW, don't even think about asking for a late check out, the lady behind the counter rolled her eyes and answered "NO, NO late checkouts, 12 pm is late enough"... also pre-book through TripAdvisor for the discounted rate... I didn't, as I wanted to take a look at the property before committing as some parts of Palmdale are seriously sketchy). Checked out the room, it was clean and comfortable looking. Left for the day and returned later that night to find that the door keycard no longer worked, dragged my stuff to the front desk and was lectured "NO, DO NOT put the key card in your wallet as your credit cards and wallet were demagnetizing the strip!"... Received a new card, walked back what seemed like 100 yards pulling suitcase to my room, all the while holding the keycard IN MY HAND, door opened, placed bag in room, went back to the car for more luggage and my Tommy's burger and fries for dinner, all the while holding the keycard IN MY HAND, once again the door would not unlock. Dragged luggage and food back to front desk, now asked for two keycards, the extra one as a backup. Clerk was pretty much indifferent, thought I'd try my luck asking how much additional would a late check out cost (the reason that I kept asking was that I had a meeting in LA at around 4 pm next day and thought I'd just kick it by the pool). Oh no, no, no, NO sir, we cannot allow late check-outs. Alrightey then. Dragged my luggage and dinner back to my room and luckily the door opened, stayed put for the rest of the night and made a couple of Skype calls using their free in room WiFi. Next morning tried calling out via Skype and the motel's WiFi connection was now working intermittently when trying to make a call to LA (310 area code). Figured I'd then try the in-room old school landline phone, followed the instructions on the phone, couldn't get through, called the front desk and it was the same lady from the day before when I originally checked in, she said "NO, NO, NO... we DO NOT allow long distance calls!" I said I didn't think calling Palmdale to Los Angeles was long distance... oh well. Was able to get an email sent out via WiFi to tell the person I was trying to call what room I was in and to call me back. Five minutes later he emails me and says some rude woman said there's no one there by your name checked into that room and then hung up on him, even after him spelling my last name for her. I called the front desk again, and she said someone had called asking for "'Lori,' I said well, my name is 'Mauri,' which I'll admit could sound like Lori to someone, but since I had just spoken to you a little while ago about trying to call out, that you might of been able to put two and two together that there was someone in room 113 trying to reach someone by phone... maybe you just don't hear very well?" She said that she hears VERY well. Then I said I'm pretty much not at all impressed with you guys (actually I wanted to say something else, but...). She said "That is perfectly fine." Anyway, to make a long story short, housekeeping deserves a 5 as they do a great job considering the age of the property (also, no bugs or homeless panhandlers there, like in some of the other Palmdale properties reviewed here). However, the duo in the front office deserve a double zero, but since 1 is the lowest possible rating... my stay averages out to a 3.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r180258801-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>180258801</t>
+  </si>
+  <si>
+    <t>10/08/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r179453638-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>179453638</t>
+  </si>
+  <si>
+    <t>10/02/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r179276746-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>179276746</t>
+  </si>
+  <si>
+    <t>09/30/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r176820737-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>176820737</t>
+  </si>
+  <si>
+    <t>09/11/2013</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r172581343-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>172581343</t>
+  </si>
+  <si>
+    <t>08/16/2013</t>
+  </si>
+  <si>
+    <t>Mike C, Manager at Knights Inn Palmdale Lancaster Area, responded to this reviewResponded August 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r172456310-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>172456310</t>
+  </si>
+  <si>
+    <t>08/15/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r172292409-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>172292409</t>
+  </si>
+  <si>
+    <t>08/14/2013</t>
+  </si>
+  <si>
+    <t>Terrible customer service.</t>
+  </si>
+  <si>
+    <t>Hotel has decent prices, but you get what you pay for. Property is run down especially pool area. Our room (108) had an awful curry smell to it. The lady at the front desk was extremely rude and not helpful at all when it came to checking in or out, if it weren't for the 10 hour drive I would of gone somewhere else. I highly recommend not staying at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mike C, Manager at Knights Inn Palmdale Lancaster Area, responded to this reviewResponded August 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2013</t>
+  </si>
+  <si>
+    <t>Hotel has decent prices, but you get what you pay for. Property is run down especially pool area. Our room (108) had an awful curry smell to it. The lady at the front desk was extremely rude and not helpful at all when it came to checking in or out, if it weren't for the 10 hour drive I would of gone somewhere else. I highly recommend not staying at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r170066629-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>170066629</t>
+  </si>
+  <si>
+    <t>07/30/2013</t>
+  </si>
+  <si>
+    <t>Days Inn Palmdale</t>
+  </si>
+  <si>
+    <t>This property is simply run down.  Our room had broken chairs, old tv with poor reception.  Loud A/C and squeaky beds.  Even the hair dryer did not work.  It was not thoroughly cleaned as the drawers had hair and crumbs and the carpet was also questionable.  This place scared my kids.  The pool area had many broken chairs as well and a gate that would not open with key.  I could go on and on.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Mike C, General Manager at Knights Inn Palmdale Lancaster Area, responded to this reviewResponded August 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2013</t>
+  </si>
+  <si>
+    <t>This property is simply run down.  Our room had broken chairs, old tv with poor reception.  Loud A/C and squeaky beds.  Even the hair dryer did not work.  It was not thoroughly cleaned as the drawers had hair and crumbs and the carpet was also questionable.  This place scared my kids.  The pool area had many broken chairs as well and a gate that would not open with key.  I could go on and on.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r170064901-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>170064901</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r169056608-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>169056608</t>
+  </si>
+  <si>
+    <t>07/25/2013</t>
+  </si>
+  <si>
+    <t>mediocre</t>
+  </si>
+  <si>
+    <t>I reserved a queen, nonsmoking room. The first room I was was offered had a strong smell of cleaning spray, so I requested a change. Next I was put in a nice room with a wooden floor, so there wasn't much odor. Unfortunately, the AC didn't work. Then I was offered a third room similar to the first. I asked if there were any other rooms with wooden floors, but none were available. The receptionist offered to give me a refund, but I know that cleaning spray is used in most motel rooms, so I just kept the third room. Later, I discovered that the remote for the TV didn't work, but I could change channels and volume by using the buttons on the TV. The room itself was spacious and clean. The breakfast was an OK continental one. My key didn't open the gate to the pool. A couple young men who were staying at the motel and also trying to get in climbed over the gate and opened it from inside.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mike C, General Manager at Knights Inn Palmdale Lancaster Area, responded to this reviewResponded July 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2013</t>
+  </si>
+  <si>
+    <t>I reserved a queen, nonsmoking room. The first room I was was offered had a strong smell of cleaning spray, so I requested a change. Next I was put in a nice room with a wooden floor, so there wasn't much odor. Unfortunately, the AC didn't work. Then I was offered a third room similar to the first. I asked if there were any other rooms with wooden floors, but none were available. The receptionist offered to give me a refund, but I know that cleaning spray is used in most motel rooms, so I just kept the third room. Later, I discovered that the remote for the TV didn't work, but I could change channels and volume by using the buttons on the TV. The room itself was spacious and clean. The breakfast was an OK continental one. My key didn't open the gate to the pool. A couple young men who were staying at the motel and also trying to get in climbed over the gate and opened it from inside.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r166992807-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>166992807</t>
+  </si>
+  <si>
+    <t>07/09/2013</t>
+  </si>
+  <si>
+    <t>Never again in life</t>
+  </si>
+  <si>
+    <t>Unfortunately, I had to experience two nights at the days Inn in Palmdale, California.  I knew I was not going to be happy because the reviews were horrible but I had no other options, so I bit the bullet and made the reservations. We all know this is not a 4-5 star hotel but you do expect the accommodations to be OK. The linen on the bed was clean, the rugs need cleaning, the bathtub had a nasty mat in it so i put a towel on it and took my shower. A little paint would have help, the window was locked but it had a gaping hole in it so anything could have crawled into the room.  the best thing about this hotel is that it had a lot of tv channels to choose from to distract from all the ugliness of the room.  Never again.  I might add the manager is a great guy, Mike is his name.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mike C, General Manager at Knights Inn Palmdale Lancaster Area, responded to this reviewResponded July 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2013</t>
+  </si>
+  <si>
+    <t>Unfortunately, I had to experience two nights at the days Inn in Palmdale, California.  I knew I was not going to be happy because the reviews were horrible but I had no other options, so I bit the bullet and made the reservations. We all know this is not a 4-5 star hotel but you do expect the accommodations to be OK. The linen on the bed was clean, the rugs need cleaning, the bathtub had a nasty mat in it so i put a towel on it and took my shower. A little paint would have help, the window was locked but it had a gaping hole in it so anything could have crawled into the room.  the best thing about this hotel is that it had a lot of tv channels to choose from to distract from all the ugliness of the room.  Never again.  I might add the manager is a great guy, Mike is his name.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r166835581-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>166835581</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>run down &amp; scary area</t>
+  </si>
+  <si>
+    <t>First off lady at the front desk, very rude !!  Breakfast area, what a joke, right there at the check in area.  Nice pool, but very run down &amp; disgusting patio furniture.  Pool towels, forget about it. Looked like subsidized housing right next door, very shady people looking over at the motel. Strange characters walking around the motel looking in room windows.  We were afraid to go outside or leave valuables in the room. Also worried our cars would be vandalized in this very open/easy access motel parking lot.  A picture fell off the wall while we were sleeping and hit my husband in the face. The picture had profanities written all over the back of it. My kids were afraid to sleep by the window in the room. The Room also had an odd smell.  Restaurant in the parking lot was closed and deserted, run down.  We will never stay there ever again and will spend more for a better hotel in a better part of town.  We weren't expecting a five star hotel, but we weren't expecting this horrible experience either.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mike C, Manager at Knights Inn Palmdale Lancaster Area, responded to this reviewResponded July 11, 2013</t>
+  </si>
+  <si>
+    <t>First off lady at the front desk, very rude !!  Breakfast area, what a joke, right there at the check in area.  Nice pool, but very run down &amp; disgusting patio furniture.  Pool towels, forget about it. Looked like subsidized housing right next door, very shady people looking over at the motel. Strange characters walking around the motel looking in room windows.  We were afraid to go outside or leave valuables in the room. Also worried our cars would be vandalized in this very open/easy access motel parking lot.  A picture fell off the wall while we were sleeping and hit my husband in the face. The picture had profanities written all over the back of it. My kids were afraid to sleep by the window in the room. The Room also had an odd smell.  Restaurant in the parking lot was closed and deserted, run down.  We will never stay there ever again and will spend more for a better hotel in a better part of town.  We weren't expecting a five star hotel, but we weren't expecting this horrible experience either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r166083362-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>166083362</t>
+  </si>
+  <si>
+    <t>07/02/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Mike C, General Manager at Knights Inn Palmdale Lancaster Area, responded to this reviewResponded July 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r165372360-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>165372360</t>
+  </si>
+  <si>
+    <t>06/26/2013</t>
+  </si>
+  <si>
+    <t>Mike C, Manager at Knights Inn Palmdale Lancaster Area, responded to this reviewResponded July 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r164075912-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>164075912</t>
+  </si>
+  <si>
+    <t>06/15/2013</t>
+  </si>
+  <si>
+    <t>My home away from home</t>
+  </si>
+  <si>
+    <t>I consider this hotel my as my home away from home because the room that I had was spacious enough for all my stuff and I needed to stay there for a month.  The staff was very nice and accommodating to my needs.  I felt I got what I exactly paid for. :-)MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Mike C, General Manager at Knights Inn Palmdale Lancaster Area, responded to this reviewResponded June 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2013</t>
+  </si>
+  <si>
+    <t>I consider this hotel my as my home away from home because the room that I had was spacious enough for all my stuff and I needed to stay there for a month.  The staff was very nice and accommodating to my needs.  I felt I got what I exactly paid for. :-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r162863847-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>162863847</t>
+  </si>
+  <si>
+    <t>06/03/2013</t>
+  </si>
+  <si>
+    <t>Mike C, General Manager at Knights Inn Palmdale Lancaster Area, responded to this reviewResponded June 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r160015842-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>160015842</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>Very friendly staff and nice motel</t>
+  </si>
+  <si>
+    <t>Very very nice staff, pointed us to a wonderful dinner place. The hotel is showing it's age, but our room was nice and great value for the money. The only hickup was the door handle, which needed some trickery to get open. It's no five star hotel but I would definitely go back!MoreShow less</t>
+  </si>
+  <si>
+    <t>Mike C, General Manager at Knights Inn Palmdale Lancaster Area, responded to this reviewResponded May 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2013</t>
+  </si>
+  <si>
+    <t>Very very nice staff, pointed us to a wonderful dinner place. The hotel is showing it's age, but our room was nice and great value for the money. The only hickup was the door handle, which needed some trickery to get open. It's no five star hotel but I would definitely go back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r158810396-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>158810396</t>
+  </si>
+  <si>
+    <t>04/25/2013</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>Very friendly, helpful staff. An older hotel that is showing it's age. Management doing it's best to update. Bottom line, not a 5 star hotel, but GREAT value for you money. This was my 4th stay in the last 6 months.  I will go back.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Very friendly, helpful staff. An older hotel that is showing it's age. Management doing it's best to update. Bottom line, not a 5 star hotel, but GREAT value for you money. This was my 4th stay in the last 6 months.  I will go back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r158287781-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>158287781</t>
+  </si>
+  <si>
+    <t>04/20/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Mike C, General Manager at Knights Inn Palmdale Lancaster Area, responded to this reviewResponded April 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r157263606-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>157263606</t>
+  </si>
+  <si>
+    <t>04/09/2013</t>
+  </si>
+  <si>
+    <t>Smoked filled and dirty</t>
+  </si>
+  <si>
+    <t>Location was good, but the hotel room said it was non smoking but clearly they where wrong. No smoke detectors and it was dirty! One of the outlets looked like blood was splattered all over it! I took a picture!Bad rating!Sorry!MoreShow less</t>
+  </si>
+  <si>
+    <t>Mike C, General Manager at Knights Inn Palmdale Lancaster Area, responded to this reviewResponded April 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2013</t>
+  </si>
+  <si>
+    <t>Location was good, but the hotel room said it was non smoking but clearly they where wrong. No smoke detectors and it was dirty! One of the outlets looked like blood was splattered all over it! I took a picture!Bad rating!Sorry!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r157240799-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>157240799</t>
+  </si>
+  <si>
+    <t>I love this place</t>
+  </si>
+  <si>
+    <t>I stay here whenever my my business travels bring me nearby this hotel.The management,Bin and her staff have always been so friendly and helpful and the price is very reasonable.It is an older hotel but it is kept clean and is in a great location....walking distance to lots of stores and restaurants.I will keep coming backMoreShow less</t>
+  </si>
+  <si>
+    <t>I stay here whenever my my business travels bring me nearby this hotel.The management,Bin and her staff have always been so friendly and helpful and the price is very reasonable.It is an older hotel but it is kept clean and is in a great location....walking distance to lots of stores and restaurants.I will keep coming backMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r156545232-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>156545232</t>
+  </si>
+  <si>
+    <t>04/03/2013</t>
+  </si>
+  <si>
+    <t>Mike C, Manager at Knights Inn Palmdale Lancaster Area, responded to this reviewResponded April 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r153897532-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>153897532</t>
+  </si>
+  <si>
+    <t>03/06/2013</t>
+  </si>
+  <si>
+    <t>Mike C, Manager at Knights Inn Palmdale Lancaster Area, responded to this reviewResponded March 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r153315075-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>153315075</t>
+  </si>
+  <si>
+    <t>02/27/2013</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Mike C, Manager at Knights Inn Palmdale Lancaster Area, responded to this reviewResponded March 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r151542228-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>151542228</t>
+  </si>
+  <si>
+    <t>02/06/2013</t>
+  </si>
+  <si>
+    <t>Modest stay at outrageous price</t>
+  </si>
+  <si>
+    <t>It is a small modest room.  It was generally clean but the bed, pillows, towels, and general condition were just not of the quality of nicer hotels.  I mean, the ceiling actually leaked during a light rain storm.  Unfortunately, the hotel made the decision to charge an outrageous rate (more than double the regular rate) because of high demand over this particular weekend (youth soccer tournament).  With such a rate, expectations were higher than the Inn could deliver.  Perhaps the hotel should factor in the bad experiences of the guests and the future loss of business when tempted to extort such exorbitant rates for a mediocre stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>Mike C, Manager at Knights Inn Palmdale Lancaster Area, responded to this reviewResponded February 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2013</t>
+  </si>
+  <si>
+    <t>It is a small modest room.  It was generally clean but the bed, pillows, towels, and general condition were just not of the quality of nicer hotels.  I mean, the ceiling actually leaked during a light rain storm.  Unfortunately, the hotel made the decision to charge an outrageous rate (more than double the regular rate) because of high demand over this particular weekend (youth soccer tournament).  With such a rate, expectations were higher than the Inn could deliver.  Perhaps the hotel should factor in the bad experiences of the guests and the future loss of business when tempted to extort such exorbitant rates for a mediocre stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r149454680-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>149454680</t>
+  </si>
+  <si>
+    <t>01/11/2013</t>
+  </si>
+  <si>
+    <t>Worst hotel ever.</t>
+  </si>
+  <si>
+    <t>Multiple rooms on a business trip. Dirty sheets. Toilet not working. Filthy everything. Showers with only cold water. Showers with no water at all. Did not risk our lives with breakfast. Escaped unharmed after one night.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Multiple rooms on a business trip. Dirty sheets. Toilet not working. Filthy everything. Showers with only cold water. Showers with no water at all. Did not risk our lives with breakfast. Escaped unharmed after one night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r147035388-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>147035388</t>
+  </si>
+  <si>
+    <t>12/08/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r146454214-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>146454214</t>
+  </si>
+  <si>
+    <t>11/29/2012</t>
+  </si>
+  <si>
+    <t>The carpet and the chairs in the room were not clean; there...</t>
+  </si>
+  <si>
+    <t>The carpet and the chairs in the room were not clean; there were stains on them.  There was also barking from a dog in the room next to me.  No iron was in the room and was not told whether one was available on request.  Other than th things noted, the stay was pleasant.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r145085691-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>145085691</t>
+  </si>
+  <si>
+    <t>11/10/2012</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r144922030-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>144922030</t>
+  </si>
+  <si>
+    <t>11/08/2012</t>
+  </si>
+  <si>
+    <t>Excellent For Price</t>
+  </si>
+  <si>
+    <t>Comfortable and fully-equipped room.  Microwave and refrigerator.  Well furnished.  Clean.  Lower rate than most Days Inn.  Friendly and informative folks at front desk.  I had stayed here before, over the past couple of years, but they seem to have made a sincere effort to improve the quality - especially the Wi-Fi reception.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r144799397-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>144799397</t>
+  </si>
+  <si>
+    <t>11/06/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r144237040-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>144237040</t>
+  </si>
+  <si>
+    <t>11/01/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r144110838-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>144110838</t>
+  </si>
+  <si>
+    <t>10/30/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r143603393-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>143603393</t>
+  </si>
+  <si>
+    <t>10/24/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r142739863-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>142739863</t>
+  </si>
+  <si>
+    <t>10/13/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r142662203-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>142662203</t>
+  </si>
+  <si>
+    <t>10/12/2012</t>
+  </si>
+  <si>
+    <t>very good</t>
+  </si>
+  <si>
+    <t>service was good i have no complants i done remember seeing pool and i didnt need to use a business room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r142484956-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>142484956</t>
+  </si>
+  <si>
+    <t>10/10/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r134954993-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>134954993</t>
+  </si>
+  <si>
+    <t>07/20/2012</t>
+  </si>
+  <si>
+    <t>Greedy Franchise! Tried to Cheat Me Out of $150!</t>
+  </si>
+  <si>
+    <t>I made reservations online for about $168.28 including tax and called multiple times to confirm this price and reservation for me and my kids. When I got there, they tried to cancel my online reservation and charge me $300, obviously because they were full and trying to make extra money. Only after causing a scene did they finally drop the price but still charged me an extra $40 above the online rate. This location is obviously a franchise owned by foreigners who don't value or respect the American dream. I understand that to them this might just be business but to me and my family this is supposed to be a summer vacation to get away from the normal day to day stress of life. Shame on these people!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>I made reservations online for about $168.28 including tax and called multiple times to confirm this price and reservation for me and my kids. When I got there, they tried to cancel my online reservation and charge me $300, obviously because they were full and trying to make extra money. Only after causing a scene did they finally drop the price but still charged me an extra $40 above the online rate. This location is obviously a franchise owned by foreigners who don't value or respect the American dream. I understand that to them this might just be business but to me and my family this is supposed to be a summer vacation to get away from the normal day to day stress of life. Shame on these people!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r133794099-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>133794099</t>
+  </si>
+  <si>
+    <t>07/08/2012</t>
+  </si>
+  <si>
+    <t>Stay away!</t>
+  </si>
+  <si>
+    <t>First off the room was pretty dirty. The lights worked intermittently. The first night I stayed I was watching tv on my iPad and a cockroach literally crawled right by my face. I called the front desk and it was like no big deal. The owner didn't care at all. Didn't offer me money back even though I deserved it! The pool area is pretty run down, the patio chairs are all broken and pretty much unuseable. Wouldn't ever stay here again!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r131940201-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>131940201</t>
+  </si>
+  <si>
+    <t>06/13/2012</t>
+  </si>
+  <si>
+    <t>Cheap for a reason</t>
+  </si>
+  <si>
+    <t>Showed up and the guy gave us the wrong room . Ok no problem but I was in the middle of a shower ,that didn't drain, when he called to ask us to move asked for a few minutes and in 5 minutes there was a guy rushing me out of the room hadn't even got a chance to get all my stuff together . I get to my new room and find hair all over the pillows and , untucked, sheets. Then I put my drinks in the fridge and find a rotten half gallon of milk in it... Worst hotel I have ever stayed at ... Rude serves terrible rooms  bad side of town . Keep driving don't stop here MoreShow less</t>
+  </si>
+  <si>
+    <t>Showed up and the guy gave us the wrong room . Ok no problem but I was in the middle of a shower ,that didn't drain, when he called to ask us to move asked for a few minutes and in 5 minutes there was a guy rushing me out of the room hadn't even got a chance to get all my stuff together . I get to my new room and find hair all over the pillows and , untucked, sheets. Then I put my drinks in the fridge and find a rotten half gallon of milk in it... Worst hotel I have ever stayed at ... Rude serves terrible rooms  bad side of town . Keep driving don't stop here More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r127436248-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>127436248</t>
+  </si>
+  <si>
+    <t>04/07/2012</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>I stayed there was horrible, bed bugs, dirty romms with stains, kids crying so much. no one told me where the room was and I was looking everywhere for it.  would not stay here ever again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r121682240-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>121682240</t>
+  </si>
+  <si>
+    <t>12/12/2011</t>
+  </si>
+  <si>
+    <t>Most Comfortable Stay</t>
+  </si>
+  <si>
+    <t>I was in search of good stay for my business trip &amp; my brother recommended this hotel. This is an excellent property with excellent friendly staff, most convenient location, in the heart of city where you can find everything in 2 mile area. With excellent staff &amp; very good service, clean room I never feel that I am away from home. I would visit this property again &amp; again when needed.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r121329798-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>121329798</t>
+  </si>
+  <si>
+    <t>12/02/2011</t>
+  </si>
+  <si>
+    <t>Comfortable Stay</t>
+  </si>
+  <si>
+    <t>We were travelling from Death Valley to Los Angeles and needed somewhere for an overnight stay within an hours drive of LAX.  We chose Days Inn Palmdale and I'm so glad we did - very polite and friendly staff, clean and comfortable room, good WiFi, simple but adequate breakfast all at a great price.  We spent the afternoon relaxing at the attractive pool area. The location was good and was just a short drive to a large shopping mall.  Many fast food restaurants within walking distance.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r115153742-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>115153742</t>
+  </si>
+  <si>
+    <t>07/08/2011</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>Wonderful attractive, clean room at VERY reasonable price. Good TV and Wi-Fi. All sorts of amenities and friendly staff. A credit to their chain.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r103711661-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>103711661</t>
+  </si>
+  <si>
+    <t>04/11/2011</t>
+  </si>
+  <si>
+    <t>Very good location!</t>
+  </si>
+  <si>
+    <t>Usually the cheaper motel chains are located very close by highways and therefore are usually quite noisy. This Days Inn however is only so far away from the road that it could almost be described as 'quiet'. In addition, the individual buildings are set around a beautifully small park with a pool. The stay was very pleasant. The staff is motivated and courteous. Restaurants are located close by.</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r95246052-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>95246052</t>
+  </si>
+  <si>
+    <t>02/01/2011</t>
+  </si>
+  <si>
+    <t>Worst motel ever</t>
+  </si>
+  <si>
+    <t>The manager/ owner is completely unprofessional.  He charged me an extra night of stay when I did not actually stay in the hotel.  Every time I call to correct the issue he either yells and hangs up, or ignores my calls.  Yes this place is cheap to stay, but BE PREPARED TO PAY DOUBLE THE RATE WHEN YOU ARRIVE due to the staff being thieves.  Seriously, I am pretty darn sure the only way this place gets business is by deceiving people into staying with a low rate and then billing for extra nights stays.  I am not the only person this has happened to as you can see from the other reviews.About the room...ghetto, dirty, unsafe, and the breakfast is a joke (stale packaged bear claws from the minimart). Take this as a warning...DO NOT STAY HERE!..  Days Inn if you are reading this, please take your corporate affiliation away from this place because after this experience I will never stay at another Days Inn again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>The manager/ owner is completely unprofessional.  He charged me an extra night of stay when I did not actually stay in the hotel.  Every time I call to correct the issue he either yells and hangs up, or ignores my calls.  Yes this place is cheap to stay, but BE PREPARED TO PAY DOUBLE THE RATE WHEN YOU ARRIVE due to the staff being thieves.  Seriously, I am pretty darn sure the only way this place gets business is by deceiving people into staying with a low rate and then billing for extra nights stays.  I am not the only person this has happened to as you can see from the other reviews.About the room...ghetto, dirty, unsafe, and the breakfast is a joke (stale packaged bear claws from the minimart). Take this as a warning...DO NOT STAY HERE!..  Days Inn if you are reading this, please take your corporate affiliation away from this place because after this experience I will never stay at another Days Inn again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r42955356-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>42955356</t>
+  </si>
+  <si>
+    <t>09/19/2009</t>
+  </si>
+  <si>
+    <t>EXCELLENT SERVICE SHOULD BE COMMENDED</t>
+  </si>
+  <si>
+    <t>I was put in a precarious position on the evening of 9/19/2009 and had to find a motel as quickly as I could.  I went into the Days Inn and was greeted by a very fine Front Desk Agent.  I inquired as to what I wanted and needed and the young lady went over and above the accommodations I requested.  I checked in at approximately 6:15pm to 6:30pm on said evening.  I cannot say enough good about this motel.  I did talk to the owner next morning and had a very wonderful conversation with him.  I would go back to this motel anytime I am in Palmdale.</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r36932025-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>36932025</t>
+  </si>
+  <si>
+    <t>08/06/2009</t>
+  </si>
+  <si>
+    <t>hotel nice, manager not so nice</t>
+  </si>
+  <si>
+    <t>Hotel has been cleaned up. Pool nice. Jacuzzi was nasty. So was the manager. He hung up on me after yelling that he did not have to talk to me about moving my reservation up one day. He would have not lost any money and would have gained an extra days stay if he had been dec ent. Breakfast kind of skimpy. Will never stay there again if it is the same manager. There are lots of complaints about him on various sites. Lots of signs in office mis-spelled. Each sign is a threat of how you will be charged terrific sums of money if you don't follow the rules.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>Hotel has been cleaned up. Pool nice. Jacuzzi was nasty. So was the manager. He hung up on me after yelling that he did not have to talk to me about moving my reservation up one day. He would have not lost any money and would have gained an extra days stay if he had been dec ent. Breakfast kind of skimpy. Will never stay there again if it is the same manager. There are lots of complaints about him on various sites. Lots of signs in office mis-spelled. Each sign is a threat of how you will be charged terrific sums of money if you don't follow the rules.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r32647985-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>32647985</t>
+  </si>
+  <si>
+    <t>06/18/2009</t>
+  </si>
+  <si>
+    <t>Lovely little getto part of town... NOT</t>
+  </si>
+  <si>
+    <t>We came to the Days Inn for the Western Regional Soccer Tournament. When we arrived and checked in the young lady at the front desk was nice and helpful. when we arrived to our room I immediately went to the store I saw down the street and bought lysol. I completely sprayed the whole room down. The walls are very thin. but the housekeepers/maintainance man very nice. However I am appalled that Days Inn keeps "Paul" the general manager still on. He is the most unprofessional rude disgusting clerk I have ever encountered.  the other issue I have is that Paul knew that he had a couple of soccer teams staying.  the hotel was booked. with all that business I would think he would have been more accommadating for those teams that did not win and were leaving early.  Now I was forced to pay for the entire week.  the  tournament starts early on a monday morning. If your team makes it to the quarter finals it is a must win to advance.  our team made it to quarterfinals, when I asked paul about a late check out friday for just in case they lost, I was told that I HAD to let him know by 4 pm the day before that we were leaving.. I HAVE NEVER HEARD OF THAT.  I would also like to say that the breakfast is a joke.  good thing the store was close.  ps...We came to the Days Inn for the Western Regional Soccer Tournament. When we arrived and checked in the young lady at the front desk was nice and helpful. when we arrived to our room I immediately went to the store I saw down the street and bought lysol. I completely sprayed the whole room down. The walls are very thin. but the housekeepers/maintainance man very nice. However I am appalled that Days Inn keeps "Paul" the general manager still on. He is the most unprofessional rude disgusting clerk I have ever encountered.  the other issue I have is that Paul knew that he had a couple of soccer teams staying.  the hotel was booked. with all that business I would think he would have been more accommadating for those teams that did not win and were leaving early.  Now I was forced to pay for the entire week.  the  tournament starts early on a monday morning. If your team makes it to the quarter finals it is a must win to advance.  our team made it to quarterfinals, when I asked paul about a late check out friday for just in case they lost, I was told that I HAD to let him know by 4 pm the day before that we were leaving.. I HAVE NEVER HEARD OF THAT.  I would also like to say that the breakfast is a joke.  good thing the store was close.  ps days inn up date your web page.. there is no japanese resturant on site.  and please get rid of Paul.. I am sure there are many folks out there far more qualified then him.MoreShow less</t>
+  </si>
+  <si>
+    <t>We came to the Days Inn for the Western Regional Soccer Tournament. When we arrived and checked in the young lady at the front desk was nice and helpful. when we arrived to our room I immediately went to the store I saw down the street and bought lysol. I completely sprayed the whole room down. The walls are very thin. but the housekeepers/maintainance man very nice. However I am appalled that Days Inn keeps "Paul" the general manager still on. He is the most unprofessional rude disgusting clerk I have ever encountered.  the other issue I have is that Paul knew that he had a couple of soccer teams staying.  the hotel was booked. with all that business I would think he would have been more accommadating for those teams that did not win and were leaving early.  Now I was forced to pay for the entire week.  the  tournament starts early on a monday morning. If your team makes it to the quarter finals it is a must win to advance.  our team made it to quarterfinals, when I asked paul about a late check out friday for just in case they lost, I was told that I HAD to let him know by 4 pm the day before that we were leaving.. I HAVE NEVER HEARD OF THAT.  I would also like to say that the breakfast is a joke.  good thing the store was close.  ps...We came to the Days Inn for the Western Regional Soccer Tournament. When we arrived and checked in the young lady at the front desk was nice and helpful. when we arrived to our room I immediately went to the store I saw down the street and bought lysol. I completely sprayed the whole room down. The walls are very thin. but the housekeepers/maintainance man very nice. However I am appalled that Days Inn keeps "Paul" the general manager still on. He is the most unprofessional rude disgusting clerk I have ever encountered.  the other issue I have is that Paul knew that he had a couple of soccer teams staying.  the hotel was booked. with all that business I would think he would have been more accommadating for those teams that did not win and were leaving early.  Now I was forced to pay for the entire week.  the  tournament starts early on a monday morning. If your team makes it to the quarter finals it is a must win to advance.  our team made it to quarterfinals, when I asked paul about a late check out friday for just in case they lost, I was told that I HAD to let him know by 4 pm the day before that we were leaving.. I HAVE NEVER HEARD OF THAT.  I would also like to say that the breakfast is a joke.  good thing the store was close.  ps days inn up date your web page.. there is no japanese resturant on site.  and please get rid of Paul.. I am sure there are many folks out there far more qualified then him.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r29552798-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>29552798</t>
+  </si>
+  <si>
+    <t>05/07/2009</t>
+  </si>
+  <si>
+    <t>On Par with Other Day's Inn</t>
+  </si>
+  <si>
+    <t>We try to avoid Day's Inn because they are like one step up from Motel 6.  This Day's Inn proved us right again.  We were there for an event at LACR.We got there about 9:30 pm.  A Security Guard directed us to park.  He then escorted us to our room.  This of course made us a little nervous.   Then...it got worse!  He went into the room and looked around...checked the bathroom and put our luggage on the luggage rack!!!  WHAT???  What is he looking for???   He noticed a picture was off the wall and lying on the bed so he took that with him and said "Have a nice stay".    The room was old and tired.  The beds were sunken.  The carpet had a dirty film on it and looked like it could have been vacuumed better.   Towels were thin and rough.  It was just run down.  You get what you pay for though.  Used to be a room for over 80 a night was a luxury room...not these days!    I don't think we'll return to this hotel.  It was really creepy to have the parking security guard come into our room and look around like that.  Doesn't make for restful sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>We try to avoid Day's Inn because they are like one step up from Motel 6.  This Day's Inn proved us right again.  We were there for an event at LACR.We got there about 9:30 pm.  A Security Guard directed us to park.  He then escorted us to our room.  This of course made us a little nervous.   Then...it got worse!  He went into the room and looked around...checked the bathroom and put our luggage on the luggage rack!!!  WHAT???  What is he looking for???   He noticed a picture was off the wall and lying on the bed so he took that with him and said "Have a nice stay".    The room was old and tired.  The beds were sunken.  The carpet had a dirty film on it and looked like it could have been vacuumed better.   Towels were thin and rough.  It was just run down.  You get what you pay for though.  Used to be a room for over 80 a night was a luxury room...not these days!    I don't think we'll return to this hotel.  It was really creepy to have the parking security guard come into our room and look around like that.  Doesn't make for restful sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r25205627-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>25205627</t>
+  </si>
+  <si>
+    <t>02/26/2009</t>
+  </si>
+  <si>
+    <t>Would NOT stay here ever again!!!</t>
+  </si>
+  <si>
+    <t>My husband and I tried to check in early and the front desk receptionist said that our room wasn't ready. When looking around the parking lot I saw about four cars parked. Then I wondered why the room wasn't ready. We decided to leave and come back later. When we checked in the staff did not disclose that the hot water was not working. We did not find out until I tried to wash my hands and let the water run and hot water did not return. I called the front desk to have the clerk say she didn't know when the water will be fixed, but that it will be fixed tonight. I told her your assuming it is going to be fixed, but how could she be 100% since it had already been out most of the day. I had an interview to go to so we decided to request for a refund and book another hotel. The latter of the two happened. Do you know the money hungry, greedy manager would only refund half our money because we checked in an hour early. We checked in early to leave our bags there. We had only been in the room 30 minutes before we discovered the hot water was out. This place is a dump, dirty, dark, and not a place to rest and relax. I will never stay at a Days Inn again. Oh, did I mention...My husband and I tried to check in early and the front desk receptionist said that our room wasn't ready. When looking around the parking lot I saw about four cars parked. Then I wondered why the room wasn't ready. We decided to leave and come back later. When we checked in the staff did not disclose that the hot water was not working. We did not find out until I tried to wash my hands and let the water run and hot water did not return. I called the front desk to have the clerk say she didn't know when the water will be fixed, but that it will be fixed tonight. I told her your assuming it is going to be fixed, but how could she be 100% since it had already been out most of the day. I had an interview to go to so we decided to request for a refund and book another hotel. The latter of the two happened. Do you know the money hungry, greedy manager would only refund half our money because we checked in an hour early. We checked in early to leave our bags there. We had only been in the room 30 minutes before we discovered the hot water was out. This place is a dump, dirty, dark, and not a place to rest and relax. I will never stay at a Days Inn again. Oh, did I mention the breakfast bar is located at the front desk where everything is dirty and nasty. Some people just don't care about cleanliness. This place should be closed down for sure!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>My husband and I tried to check in early and the front desk receptionist said that our room wasn't ready. When looking around the parking lot I saw about four cars parked. Then I wondered why the room wasn't ready. We decided to leave and come back later. When we checked in the staff did not disclose that the hot water was not working. We did not find out until I tried to wash my hands and let the water run and hot water did not return. I called the front desk to have the clerk say she didn't know when the water will be fixed, but that it will be fixed tonight. I told her your assuming it is going to be fixed, but how could she be 100% since it had already been out most of the day. I had an interview to go to so we decided to request for a refund and book another hotel. The latter of the two happened. Do you know the money hungry, greedy manager would only refund half our money because we checked in an hour early. We checked in early to leave our bags there. We had only been in the room 30 minutes before we discovered the hot water was out. This place is a dump, dirty, dark, and not a place to rest and relax. I will never stay at a Days Inn again. Oh, did I mention...My husband and I tried to check in early and the front desk receptionist said that our room wasn't ready. When looking around the parking lot I saw about four cars parked. Then I wondered why the room wasn't ready. We decided to leave and come back later. When we checked in the staff did not disclose that the hot water was not working. We did not find out until I tried to wash my hands and let the water run and hot water did not return. I called the front desk to have the clerk say she didn't know when the water will be fixed, but that it will be fixed tonight. I told her your assuming it is going to be fixed, but how could she be 100% since it had already been out most of the day. I had an interview to go to so we decided to request for a refund and book another hotel. The latter of the two happened. Do you know the money hungry, greedy manager would only refund half our money because we checked in an hour early. We checked in early to leave our bags there. We had only been in the room 30 minutes before we discovered the hot water was out. This place is a dump, dirty, dark, and not a place to rest and relax. I will never stay at a Days Inn again. Oh, did I mention the breakfast bar is located at the front desk where everything is dirty and nasty. Some people just don't care about cleanliness. This place should be closed down for sure!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r21856952-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>21856952</t>
+  </si>
+  <si>
+    <t>11/14/2008</t>
+  </si>
+  <si>
+    <t>Clean and comfortable !  Great Value !</t>
+  </si>
+  <si>
+    <t>I just completed a 5 night stay and was pleasantly surprised.  The rooms were clean and comfortable and the staff were friendly and efficient.  Towels and room supplies were plentiful.Great stay for a very low price!</t>
+  </si>
+  <si>
+    <t>November 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r17826201-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>17826201</t>
+  </si>
+  <si>
+    <t>07/12/2008</t>
+  </si>
+  <si>
+    <t>BEDBUGS</t>
+  </si>
+  <si>
+    <t>Found bedbugs on bed owner states we brought them! Condom found  by child in spa we placed their! Very bad experince never will recommend days inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>paulpatel, manager at Knights Inn Palmdale Lancaster Area, responded to this reviewResponded July 22, 2008</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2008</t>
+  </si>
+  <si>
+    <t>Found bedbugs on bed owner states we brought them! Condom found  by child in spa we placed their! Very bad experince never will recommend days inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r15665676-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>15665676</t>
+  </si>
+  <si>
+    <t>05/05/2008</t>
+  </si>
+  <si>
+    <t>Awful</t>
+  </si>
+  <si>
+    <t>Staff was not friendly and the room was quite disappointing. Although the rating was only a 2 star it should've been a half star, just nasty. The carpet was filthy, the bed was terribly uncomfortable, the comforter should be thrown out, the pillows should be replaced. The area wasn't the greatest, due to police helicopters flying overhead for an hour or more. Overall the motel needs a real makeover. Thank goodness the stay was for just one night and I would never stay there again.</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r7935310-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>7935310</t>
+  </si>
+  <si>
+    <t>06/18/2007</t>
+  </si>
+  <si>
+    <t>Pleasant surprise</t>
+  </si>
+  <si>
+    <t>Rooms were clean, AC worked wonderfully, bathrooms upgraded and clean, had microwave and ref in our room. We had to reserve 13 rooms in a very short time and this hotel came through for us. They even found an adjoining one for us. We had to take the single bed rooms as that was all that was available. Front desk staff were so-so, not the friendliest, but not negative in any way. Pool was nice, cute shape, clean, and goes up to 8 feet. Free continental breakfast. Only thing that did not work were some of the ice machines--had to search for one around the building. Overall this was really a nice surprise for a 2-star place.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rooms were clean, AC worked wonderfully, bathrooms upgraded and clean, had microwave and ref in our room. We had to reserve 13 rooms in a very short time and this hotel came through for us. They even found an adjoining one for us. We had to take the single bed rooms as that was all that was available. Front desk staff were so-so, not the friendliest, but not negative in any way. Pool was nice, cute shape, clean, and goes up to 8 feet. Free continental breakfast. Only thing that did not work were some of the ice machines--had to search for one around the building. Overall this was really a nice surprise for a 2-star place.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2422,7199 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>91</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" t="s">
+        <v>120</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>127</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>127</v>
+      </c>
+      <c r="O15" t="s">
+        <v>91</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>140</v>
+      </c>
+      <c r="O16" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" t="s">
+        <v>145</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>146</v>
+      </c>
+      <c r="O17" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>148</v>
+      </c>
+      <c r="J18" t="s">
+        <v>149</v>
+      </c>
+      <c r="K18" t="s">
+        <v>150</v>
+      </c>
+      <c r="L18" t="s">
+        <v>151</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>146</v>
+      </c>
+      <c r="O18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J19" t="s">
+        <v>155</v>
+      </c>
+      <c r="K19" t="s">
+        <v>156</v>
+      </c>
+      <c r="L19" t="s">
+        <v>157</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>158</v>
+      </c>
+      <c r="O19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>160</v>
+      </c>
+      <c r="J20" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" t="s">
+        <v>162</v>
+      </c>
+      <c r="L20" t="s">
+        <v>163</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>164</v>
+      </c>
+      <c r="O20" t="s">
+        <v>91</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>166</v>
+      </c>
+      <c r="J21" t="s">
+        <v>167</v>
+      </c>
+      <c r="K21" t="s">
+        <v>168</v>
+      </c>
+      <c r="L21" t="s">
+        <v>169</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>170</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>173</v>
+      </c>
+      <c r="J22" t="s">
+        <v>174</v>
+      </c>
+      <c r="K22" t="s">
+        <v>175</v>
+      </c>
+      <c r="L22" t="s">
+        <v>176</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>177</v>
+      </c>
+      <c r="O22" t="s">
+        <v>78</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>179</v>
+      </c>
+      <c r="J23" t="s">
+        <v>180</v>
+      </c>
+      <c r="K23" t="s">
+        <v>181</v>
+      </c>
+      <c r="L23" t="s">
+        <v>182</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>183</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>184</v>
+      </c>
+      <c r="J24" t="s">
+        <v>185</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s">
+        <v>186</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>187</v>
+      </c>
+      <c r="O24" t="s">
+        <v>59</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>190</v>
+      </c>
+      <c r="J25" t="s">
+        <v>191</v>
+      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s"/>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>192</v>
+      </c>
+      <c r="O25" t="s">
+        <v>59</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>194</v>
+      </c>
+      <c r="J26" t="s">
+        <v>195</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>192</v>
+      </c>
+      <c r="O26" t="s">
+        <v>91</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>196</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>197</v>
+      </c>
+      <c r="J27" t="s">
+        <v>198</v>
+      </c>
+      <c r="K27" t="s">
+        <v>199</v>
+      </c>
+      <c r="L27" t="s">
+        <v>200</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>192</v>
+      </c>
+      <c r="O27" t="s">
+        <v>91</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>201</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>202</v>
+      </c>
+      <c r="J28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>192</v>
+      </c>
+      <c r="O28" t="s">
+        <v>78</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>204</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>205</v>
+      </c>
+      <c r="J29" t="s">
+        <v>206</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>207</v>
+      </c>
+      <c r="O29" t="s">
+        <v>91</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>208</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>209</v>
+      </c>
+      <c r="J30" t="s">
+        <v>210</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>207</v>
+      </c>
+      <c r="O30" t="s">
+        <v>78</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>211</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>212</v>
+      </c>
+      <c r="J31" t="s">
+        <v>213</v>
+      </c>
+      <c r="K31" t="s">
+        <v>214</v>
+      </c>
+      <c r="L31" t="s">
+        <v>215</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>207</v>
+      </c>
+      <c r="O31" t="s">
+        <v>216</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>218</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>219</v>
+      </c>
+      <c r="J32" t="s">
+        <v>220</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s"/>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>221</v>
+      </c>
+      <c r="O32" t="s">
+        <v>59</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>222</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>223</v>
+      </c>
+      <c r="J33" t="s">
+        <v>224</v>
+      </c>
+      <c r="K33" t="s">
+        <v>225</v>
+      </c>
+      <c r="L33" t="s">
+        <v>226</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>227</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>228</v>
+      </c>
+      <c r="J34" t="s">
+        <v>229</v>
+      </c>
+      <c r="K34" t="s">
+        <v>230</v>
+      </c>
+      <c r="L34" t="s">
+        <v>231</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>232</v>
+      </c>
+      <c r="O34" t="s">
+        <v>91</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>234</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>235</v>
+      </c>
+      <c r="J35" t="s">
+        <v>236</v>
+      </c>
+      <c r="K35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35" t="s">
+        <v>237</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>232</v>
+      </c>
+      <c r="O35" t="s">
+        <v>91</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>238</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>239</v>
+      </c>
+      <c r="J36" t="s">
+        <v>236</v>
+      </c>
+      <c r="K36" t="s">
+        <v>240</v>
+      </c>
+      <c r="L36" t="s">
+        <v>241</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>232</v>
+      </c>
+      <c r="O36" t="s">
+        <v>91</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>242</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>243</v>
+      </c>
+      <c r="J37" t="s">
+        <v>244</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s"/>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>232</v>
+      </c>
+      <c r="O37" t="s">
+        <v>59</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>245</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>246</v>
+      </c>
+      <c r="J38" t="s">
+        <v>247</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s"/>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>248</v>
+      </c>
+      <c r="O38" t="s">
+        <v>91</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>249</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>250</v>
+      </c>
+      <c r="J39" t="s">
+        <v>251</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s"/>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>248</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>252</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>253</v>
+      </c>
+      <c r="J40" t="s">
+        <v>254</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>248</v>
+      </c>
+      <c r="O40" t="s">
+        <v>59</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>255</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>256</v>
+      </c>
+      <c r="J41" t="s">
+        <v>257</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>258</v>
+      </c>
+      <c r="O41" t="s">
+        <v>91</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>259</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>260</v>
+      </c>
+      <c r="J42" t="s">
+        <v>257</v>
+      </c>
+      <c r="K42" t="s">
+        <v>261</v>
+      </c>
+      <c r="L42" t="s">
+        <v>262</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>258</v>
+      </c>
+      <c r="O42" t="s">
+        <v>91</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>263</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>264</v>
+      </c>
+      <c r="J43" t="s">
+        <v>265</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s"/>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>258</v>
+      </c>
+      <c r="O43" t="s">
+        <v>59</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>266</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>267</v>
+      </c>
+      <c r="J44" t="s">
+        <v>268</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>269</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>270</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>271</v>
+      </c>
+      <c r="J45" t="s">
+        <v>272</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>269</v>
+      </c>
+      <c r="O45" t="s">
+        <v>91</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>273</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>274</v>
+      </c>
+      <c r="J46" t="s">
+        <v>275</v>
+      </c>
+      <c r="K46" t="s">
+        <v>276</v>
+      </c>
+      <c r="L46" t="s">
+        <v>277</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>269</v>
+      </c>
+      <c r="O46" t="s">
+        <v>91</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>278</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>279</v>
+      </c>
+      <c r="J47" t="s">
+        <v>280</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s"/>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>281</v>
+      </c>
+      <c r="O47" t="s">
+        <v>59</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>2</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>282</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>283</v>
+      </c>
+      <c r="J48" t="s">
+        <v>284</v>
+      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s">
+        <v>186</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>285</v>
+      </c>
+      <c r="O48" t="s">
+        <v>59</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>286</v>
+      </c>
+      <c r="X48" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>288</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>289</v>
+      </c>
+      <c r="J49" t="s">
+        <v>290</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s">
+        <v>186</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>285</v>
+      </c>
+      <c r="O49" t="s">
+        <v>91</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>2</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>291</v>
+      </c>
+      <c r="X49" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>293</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>294</v>
+      </c>
+      <c r="J50" t="s">
+        <v>295</v>
+      </c>
+      <c r="K50" t="s"/>
+      <c r="L50" t="s">
+        <v>186</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>296</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>291</v>
+      </c>
+      <c r="X50" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>297</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>298</v>
+      </c>
+      <c r="J51" t="s">
+        <v>299</v>
+      </c>
+      <c r="K51" t="s">
+        <v>300</v>
+      </c>
+      <c r="L51" t="s">
+        <v>301</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>296</v>
+      </c>
+      <c r="O51" t="s">
+        <v>91</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>291</v>
+      </c>
+      <c r="X51" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>303</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>304</v>
+      </c>
+      <c r="J52" t="s">
+        <v>305</v>
+      </c>
+      <c r="K52" t="s"/>
+      <c r="L52" t="s">
+        <v>186</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>296</v>
+      </c>
+      <c r="O52" t="s">
+        <v>91</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>291</v>
+      </c>
+      <c r="X52" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>306</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>307</v>
+      </c>
+      <c r="J53" t="s">
+        <v>308</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s">
+        <v>186</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>296</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>291</v>
+      </c>
+      <c r="X53" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>309</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>310</v>
+      </c>
+      <c r="J54" t="s">
+        <v>311</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s">
+        <v>186</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>296</v>
+      </c>
+      <c r="O54" t="s">
+        <v>216</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>291</v>
+      </c>
+      <c r="X54" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>312</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>313</v>
+      </c>
+      <c r="J55" t="s">
+        <v>311</v>
+      </c>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s">
+        <v>186</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>296</v>
+      </c>
+      <c r="O55" t="s">
+        <v>216</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>291</v>
+      </c>
+      <c r="X55" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>314</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>315</v>
+      </c>
+      <c r="J56" t="s">
+        <v>316</v>
+      </c>
+      <c r="K56" t="s">
+        <v>317</v>
+      </c>
+      <c r="L56" t="s">
+        <v>318</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>319</v>
+      </c>
+      <c r="O56" t="s">
+        <v>91</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>291</v>
+      </c>
+      <c r="X56" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>321</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>322</v>
+      </c>
+      <c r="J57" t="s">
+        <v>323</v>
+      </c>
+      <c r="K57" t="s">
+        <v>324</v>
+      </c>
+      <c r="L57" t="s">
+        <v>325</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>326</v>
+      </c>
+      <c r="O57" t="s">
+        <v>91</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>291</v>
+      </c>
+      <c r="X57" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>328</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>329</v>
+      </c>
+      <c r="J58" t="s">
+        <v>330</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s">
+        <v>186</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>319</v>
+      </c>
+      <c r="O58" t="s">
+        <v>91</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>291</v>
+      </c>
+      <c r="X58" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>331</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>332</v>
+      </c>
+      <c r="J59" t="s">
+        <v>333</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s">
+        <v>186</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>326</v>
+      </c>
+      <c r="O59" t="s">
+        <v>78</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>291</v>
+      </c>
+      <c r="X59" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>334</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>335</v>
+      </c>
+      <c r="J60" t="s">
+        <v>336</v>
+      </c>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s"/>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>326</v>
+      </c>
+      <c r="O60" t="s">
+        <v>59</v>
+      </c>
+      <c r="P60" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>337</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>338</v>
+      </c>
+      <c r="J61" t="s">
+        <v>339</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s"/>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>340</v>
+      </c>
+      <c r="O61" t="s">
+        <v>59</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>341</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>342</v>
+      </c>
+      <c r="J62" t="s">
+        <v>343</v>
+      </c>
+      <c r="K62" t="s"/>
+      <c r="L62" t="s">
+        <v>186</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>340</v>
+      </c>
+      <c r="O62" t="s">
+        <v>59</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>344</v>
+      </c>
+      <c r="X62" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>346</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>347</v>
+      </c>
+      <c r="J63" t="s">
+        <v>348</v>
+      </c>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s"/>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>340</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>349</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>350</v>
+      </c>
+      <c r="J64" t="s">
+        <v>351</v>
+      </c>
+      <c r="K64" t="s">
+        <v>352</v>
+      </c>
+      <c r="L64" t="s">
+        <v>353</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>354</v>
+      </c>
+      <c r="X64" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>357</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>358</v>
+      </c>
+      <c r="J65" t="s">
+        <v>359</v>
+      </c>
+      <c r="K65" t="s">
+        <v>360</v>
+      </c>
+      <c r="L65" t="s">
+        <v>361</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>362</v>
+      </c>
+      <c r="O65" t="s">
+        <v>59</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>363</v>
+      </c>
+      <c r="X65" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>366</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>367</v>
+      </c>
+      <c r="J66" t="s">
+        <v>359</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s">
+        <v>186</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>362</v>
+      </c>
+      <c r="O66" t="s">
+        <v>59</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>363</v>
+      </c>
+      <c r="X66" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>368</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>369</v>
+      </c>
+      <c r="J67" t="s">
+        <v>370</v>
+      </c>
+      <c r="K67" t="s">
+        <v>371</v>
+      </c>
+      <c r="L67" t="s">
+        <v>372</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>362</v>
+      </c>
+      <c r="O67" t="s">
+        <v>78</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>373</v>
+      </c>
+      <c r="X67" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>376</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>377</v>
+      </c>
+      <c r="J68" t="s">
+        <v>378</v>
+      </c>
+      <c r="K68" t="s">
+        <v>379</v>
+      </c>
+      <c r="L68" t="s">
+        <v>380</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>362</v>
+      </c>
+      <c r="O68" t="s">
+        <v>216</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>2</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>381</v>
+      </c>
+      <c r="X68" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>384</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>385</v>
+      </c>
+      <c r="J69" t="s">
+        <v>386</v>
+      </c>
+      <c r="K69" t="s">
+        <v>387</v>
+      </c>
+      <c r="L69" t="s">
+        <v>388</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="s">
+        <v>362</v>
+      </c>
+      <c r="O69" t="s">
+        <v>216</v>
+      </c>
+      <c r="P69" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>2</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>389</v>
+      </c>
+      <c r="X69" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>391</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>392</v>
+      </c>
+      <c r="J70" t="s">
+        <v>393</v>
+      </c>
+      <c r="K70" t="s"/>
+      <c r="L70" t="s">
+        <v>186</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s">
+        <v>394</v>
+      </c>
+      <c r="O70" t="s">
+        <v>59</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>2</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>395</v>
+      </c>
+      <c r="X70" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>397</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>398</v>
+      </c>
+      <c r="J71" t="s">
+        <v>399</v>
+      </c>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s">
+        <v>186</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>394</v>
+      </c>
+      <c r="O71" t="s">
+        <v>91</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>400</v>
+      </c>
+      <c r="X71" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>402</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>403</v>
+      </c>
+      <c r="J72" t="s">
+        <v>404</v>
+      </c>
+      <c r="K72" t="s">
+        <v>405</v>
+      </c>
+      <c r="L72" t="s">
+        <v>406</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>407</v>
+      </c>
+      <c r="O72" t="s">
+        <v>78</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>408</v>
+      </c>
+      <c r="X72" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>411</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>412</v>
+      </c>
+      <c r="J73" t="s">
+        <v>413</v>
+      </c>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s">
+        <v>186</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>407</v>
+      </c>
+      <c r="O73" t="s">
+        <v>59</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>414</v>
+      </c>
+      <c r="X73" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>416</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>417</v>
+      </c>
+      <c r="J74" t="s">
+        <v>418</v>
+      </c>
+      <c r="K74" t="s">
+        <v>419</v>
+      </c>
+      <c r="L74" t="s">
+        <v>420</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>407</v>
+      </c>
+      <c r="O74" t="s">
+        <v>91</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>421</v>
+      </c>
+      <c r="X74" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>424</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>425</v>
+      </c>
+      <c r="J75" t="s">
+        <v>426</v>
+      </c>
+      <c r="K75" t="s">
+        <v>427</v>
+      </c>
+      <c r="L75" t="s">
+        <v>428</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>429</v>
+      </c>
+      <c r="O75" t="s">
+        <v>78</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>421</v>
+      </c>
+      <c r="X75" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>431</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>432</v>
+      </c>
+      <c r="J76" t="s">
+        <v>433</v>
+      </c>
+      <c r="K76" t="s"/>
+      <c r="L76" t="s">
+        <v>186</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>434</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>435</v>
+      </c>
+      <c r="X76" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>437</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>438</v>
+      </c>
+      <c r="J77" t="s">
+        <v>439</v>
+      </c>
+      <c r="K77" t="s">
+        <v>440</v>
+      </c>
+      <c r="L77" t="s">
+        <v>441</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>429</v>
+      </c>
+      <c r="O77" t="s">
+        <v>59</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>2</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>442</v>
+      </c>
+      <c r="X77" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>445</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>446</v>
+      </c>
+      <c r="J78" t="s">
+        <v>439</v>
+      </c>
+      <c r="K78" t="s">
+        <v>447</v>
+      </c>
+      <c r="L78" t="s">
+        <v>448</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>434</v>
+      </c>
+      <c r="O78" t="s">
+        <v>91</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>442</v>
+      </c>
+      <c r="X78" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>450</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>451</v>
+      </c>
+      <c r="J79" t="s">
+        <v>452</v>
+      </c>
+      <c r="K79" t="s"/>
+      <c r="L79" t="s">
+        <v>186</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>434</v>
+      </c>
+      <c r="O79" t="s">
+        <v>91</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>453</v>
+      </c>
+      <c r="X79" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>455</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>456</v>
+      </c>
+      <c r="J80" t="s">
+        <v>457</v>
+      </c>
+      <c r="K80" t="s"/>
+      <c r="L80" t="s">
+        <v>186</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>434</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>458</v>
+      </c>
+      <c r="X80" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>460</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>461</v>
+      </c>
+      <c r="J81" t="s">
+        <v>462</v>
+      </c>
+      <c r="K81" t="s"/>
+      <c r="L81" t="s">
+        <v>186</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="s">
+        <v>463</v>
+      </c>
+      <c r="O81" t="s">
+        <v>59</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>464</v>
+      </c>
+      <c r="X81" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>466</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>467</v>
+      </c>
+      <c r="J82" t="s">
+        <v>468</v>
+      </c>
+      <c r="K82" t="s">
+        <v>469</v>
+      </c>
+      <c r="L82" t="s">
+        <v>470</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="s">
+        <v>463</v>
+      </c>
+      <c r="O82" t="s">
+        <v>59</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>471</v>
+      </c>
+      <c r="X82" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>474</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>475</v>
+      </c>
+      <c r="J83" t="s">
+        <v>476</v>
+      </c>
+      <c r="K83" t="s">
+        <v>477</v>
+      </c>
+      <c r="L83" t="s">
+        <v>478</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>479</v>
+      </c>
+      <c r="O83" t="s">
+        <v>91</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>1</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>471</v>
+      </c>
+      <c r="X83" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>481</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>482</v>
+      </c>
+      <c r="J84" t="s">
+        <v>483</v>
+      </c>
+      <c r="K84" t="s"/>
+      <c r="L84" t="s">
+        <v>186</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>479</v>
+      </c>
+      <c r="O84" t="s">
+        <v>59</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1</v>
+      </c>
+      <c r="R84" t="n">
+        <v>1</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>484</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>485</v>
+      </c>
+      <c r="J85" t="s">
+        <v>486</v>
+      </c>
+      <c r="K85" t="s">
+        <v>487</v>
+      </c>
+      <c r="L85" t="s">
+        <v>488</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>489</v>
+      </c>
+      <c r="O85" t="s">
+        <v>78</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>490</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>491</v>
+      </c>
+      <c r="J86" t="s">
+        <v>492</v>
+      </c>
+      <c r="K86" t="s"/>
+      <c r="L86" t="s"/>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>493</v>
+      </c>
+      <c r="O86" t="s">
+        <v>91</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>494</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>495</v>
+      </c>
+      <c r="J87" t="s">
+        <v>496</v>
+      </c>
+      <c r="K87" t="s">
+        <v>497</v>
+      </c>
+      <c r="L87" t="s">
+        <v>498</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>489</v>
+      </c>
+      <c r="O87" t="s">
+        <v>91</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>499</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>500</v>
+      </c>
+      <c r="J88" t="s">
+        <v>501</v>
+      </c>
+      <c r="K88" t="s"/>
+      <c r="L88" t="s"/>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>489</v>
+      </c>
+      <c r="O88" t="s">
+        <v>91</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>502</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>503</v>
+      </c>
+      <c r="J89" t="s">
+        <v>504</v>
+      </c>
+      <c r="K89" t="s"/>
+      <c r="L89" t="s">
+        <v>186</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
+        <v>493</v>
+      </c>
+      <c r="O89" t="s">
+        <v>59</v>
+      </c>
+      <c r="P89" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1</v>
+      </c>
+      <c r="R89" t="n">
+        <v>1</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>505</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>506</v>
+      </c>
+      <c r="J90" t="s">
+        <v>507</v>
+      </c>
+      <c r="K90" t="s"/>
+      <c r="L90" t="s"/>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s">
+        <v>493</v>
+      </c>
+      <c r="O90" t="s">
+        <v>91</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>508</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>509</v>
+      </c>
+      <c r="J91" t="s">
+        <v>510</v>
+      </c>
+      <c r="K91" t="s"/>
+      <c r="L91" t="s"/>
+      <c r="M91" t="n">
+        <v>2</v>
+      </c>
+      <c r="N91" t="s">
+        <v>493</v>
+      </c>
+      <c r="O91" t="s">
+        <v>59</v>
+      </c>
+      <c r="P91" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>1</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>2</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>511</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>512</v>
+      </c>
+      <c r="J92" t="s">
+        <v>513</v>
+      </c>
+      <c r="K92" t="s"/>
+      <c r="L92" t="s"/>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>493</v>
+      </c>
+      <c r="O92" t="s">
+        <v>216</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2</v>
+      </c>
+      <c r="S92" t="n">
+        <v>3</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>3</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>514</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>515</v>
+      </c>
+      <c r="J93" t="s">
+        <v>516</v>
+      </c>
+      <c r="K93" t="s">
+        <v>517</v>
+      </c>
+      <c r="L93" t="s">
+        <v>518</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>493</v>
+      </c>
+      <c r="O93" t="s">
+        <v>59</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>519</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>520</v>
+      </c>
+      <c r="J94" t="s">
+        <v>521</v>
+      </c>
+      <c r="K94" t="s"/>
+      <c r="L94" t="s"/>
+      <c r="M94" t="n">
+        <v>3</v>
+      </c>
+      <c r="N94" t="s">
+        <v>493</v>
+      </c>
+      <c r="O94" t="s">
+        <v>59</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>3</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>3</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>522</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>523</v>
+      </c>
+      <c r="J95" t="s">
+        <v>524</v>
+      </c>
+      <c r="K95" t="s">
+        <v>525</v>
+      </c>
+      <c r="L95" t="s">
+        <v>526</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="s">
+        <v>527</v>
+      </c>
+      <c r="O95" t="s">
+        <v>59</v>
+      </c>
+      <c r="P95" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>2</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>3</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>1</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>529</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>530</v>
+      </c>
+      <c r="J96" t="s">
+        <v>531</v>
+      </c>
+      <c r="K96" t="s">
+        <v>532</v>
+      </c>
+      <c r="L96" t="s">
+        <v>533</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2</v>
+      </c>
+      <c r="N96" t="s"/>
+      <c r="O96" t="s"/>
+      <c r="P96" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>3</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>1</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>3</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>534</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>535</v>
+      </c>
+      <c r="J97" t="s">
+        <v>536</v>
+      </c>
+      <c r="K97" t="s">
+        <v>537</v>
+      </c>
+      <c r="L97" t="s">
+        <v>538</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="s"/>
+      <c r="O97" t="s"/>
+      <c r="P97" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>1</v>
+      </c>
+      <c r="R97" t="n">
+        <v>2</v>
+      </c>
+      <c r="S97" t="n">
+        <v>1</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>1</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>540</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>541</v>
+      </c>
+      <c r="J98" t="s">
+        <v>542</v>
+      </c>
+      <c r="K98" t="s">
+        <v>543</v>
+      </c>
+      <c r="L98" t="s">
+        <v>544</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="s"/>
+      <c r="O98" t="s"/>
+      <c r="P98" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>1</v>
+      </c>
+      <c r="R98" t="n">
+        <v>2</v>
+      </c>
+      <c r="S98" t="n">
+        <v>2</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>1</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>545</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>546</v>
+      </c>
+      <c r="J99" t="s">
+        <v>547</v>
+      </c>
+      <c r="K99" t="s">
+        <v>548</v>
+      </c>
+      <c r="L99" t="s">
+        <v>549</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>550</v>
+      </c>
+      <c r="O99" t="s">
+        <v>91</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>551</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>552</v>
+      </c>
+      <c r="J100" t="s">
+        <v>553</v>
+      </c>
+      <c r="K100" t="s">
+        <v>554</v>
+      </c>
+      <c r="L100" t="s">
+        <v>555</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>550</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>556</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>557</v>
+      </c>
+      <c r="J101" t="s">
+        <v>558</v>
+      </c>
+      <c r="K101" t="s">
+        <v>559</v>
+      </c>
+      <c r="L101" t="s">
+        <v>560</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>561</v>
+      </c>
+      <c r="O101" t="s">
+        <v>78</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>3</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>562</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>563</v>
+      </c>
+      <c r="J102" t="s">
+        <v>564</v>
+      </c>
+      <c r="K102" t="s">
+        <v>565</v>
+      </c>
+      <c r="L102" t="s">
+        <v>566</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s">
+        <v>567</v>
+      </c>
+      <c r="O102" t="s">
+        <v>78</v>
+      </c>
+      <c r="P102" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>4</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>4</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>568</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>569</v>
+      </c>
+      <c r="J103" t="s">
+        <v>570</v>
+      </c>
+      <c r="K103" t="s">
+        <v>571</v>
+      </c>
+      <c r="L103" t="s">
+        <v>572</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="s">
+        <v>573</v>
+      </c>
+      <c r="O103" t="s">
+        <v>91</v>
+      </c>
+      <c r="P103" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>1</v>
+      </c>
+      <c r="R103" t="n">
+        <v>1</v>
+      </c>
+      <c r="S103" t="n">
+        <v>1</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>1</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>575</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>576</v>
+      </c>
+      <c r="J104" t="s">
+        <v>577</v>
+      </c>
+      <c r="K104" t="s">
+        <v>578</v>
+      </c>
+      <c r="L104" t="s">
+        <v>579</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>580</v>
+      </c>
+      <c r="O104" t="s">
+        <v>78</v>
+      </c>
+      <c r="P104" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>4</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>581</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>582</v>
+      </c>
+      <c r="J105" t="s">
+        <v>583</v>
+      </c>
+      <c r="K105" t="s">
+        <v>584</v>
+      </c>
+      <c r="L105" t="s">
+        <v>585</v>
+      </c>
+      <c r="M105" t="n">
+        <v>2</v>
+      </c>
+      <c r="N105" t="s">
+        <v>586</v>
+      </c>
+      <c r="O105" t="s">
+        <v>91</v>
+      </c>
+      <c r="P105" t="s"/>
+      <c r="Q105" t="s"/>
+      <c r="R105" t="s"/>
+      <c r="S105" t="s"/>
+      <c r="T105" t="s"/>
+      <c r="U105" t="s"/>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>588</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>589</v>
+      </c>
+      <c r="J106" t="s">
+        <v>590</v>
+      </c>
+      <c r="K106" t="s">
+        <v>591</v>
+      </c>
+      <c r="L106" t="s">
+        <v>592</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="s"/>
+      <c r="O106" t="s"/>
+      <c r="P106" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>1</v>
+      </c>
+      <c r="R106" t="n">
+        <v>1</v>
+      </c>
+      <c r="S106" t="n">
+        <v>3</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>2</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>594</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>595</v>
+      </c>
+      <c r="J107" t="s">
+        <v>596</v>
+      </c>
+      <c r="K107" t="s">
+        <v>597</v>
+      </c>
+      <c r="L107" t="s">
+        <v>598</v>
+      </c>
+      <c r="M107" t="n">
+        <v>2</v>
+      </c>
+      <c r="N107" t="s">
+        <v>599</v>
+      </c>
+      <c r="O107" t="s">
+        <v>53</v>
+      </c>
+      <c r="P107" t="s"/>
+      <c r="Q107" t="s"/>
+      <c r="R107" t="s"/>
+      <c r="S107" t="s"/>
+      <c r="T107" t="s"/>
+      <c r="U107" t="s"/>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>601</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>602</v>
+      </c>
+      <c r="J108" t="s">
+        <v>603</v>
+      </c>
+      <c r="K108" t="s">
+        <v>604</v>
+      </c>
+      <c r="L108" t="s">
+        <v>605</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="s">
+        <v>606</v>
+      </c>
+      <c r="O108" t="s">
+        <v>91</v>
+      </c>
+      <c r="P108" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>1</v>
+      </c>
+      <c r="R108" t="n">
+        <v>1</v>
+      </c>
+      <c r="S108" t="n">
+        <v>1</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>1</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>608</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>609</v>
+      </c>
+      <c r="J109" t="s">
+        <v>610</v>
+      </c>
+      <c r="K109" t="s">
+        <v>611</v>
+      </c>
+      <c r="L109" t="s">
+        <v>612</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5</v>
+      </c>
+      <c r="N109" t="s">
+        <v>613</v>
+      </c>
+      <c r="O109" t="s">
+        <v>216</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>5</v>
+      </c>
+      <c r="R109" t="n">
+        <v>4</v>
+      </c>
+      <c r="S109" t="n">
+        <v>5</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>614</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>615</v>
+      </c>
+      <c r="J110" t="s">
+        <v>616</v>
+      </c>
+      <c r="K110" t="s">
+        <v>617</v>
+      </c>
+      <c r="L110" t="s">
+        <v>618</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="s"/>
+      <c r="O110" t="s"/>
+      <c r="P110" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>1</v>
+      </c>
+      <c r="R110" t="n">
+        <v>1</v>
+      </c>
+      <c r="S110" t="n">
+        <v>1</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>1</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s">
+        <v>619</v>
+      </c>
+      <c r="X110" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>622</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>623</v>
+      </c>
+      <c r="J111" t="s">
+        <v>624</v>
+      </c>
+      <c r="K111" t="s">
+        <v>625</v>
+      </c>
+      <c r="L111" t="s">
+        <v>626</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="s">
+        <v>627</v>
+      </c>
+      <c r="O111" t="s">
+        <v>91</v>
+      </c>
+      <c r="P111" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>1</v>
+      </c>
+      <c r="R111" t="n">
+        <v>2</v>
+      </c>
+      <c r="S111" t="n">
+        <v>1</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>1</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>10382</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>628</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>629</v>
+      </c>
+      <c r="J112" t="s">
+        <v>630</v>
+      </c>
+      <c r="K112" t="s">
+        <v>631</v>
+      </c>
+      <c r="L112" t="s">
+        <v>632</v>
+      </c>
+      <c r="M112" t="n">
+        <v>5</v>
+      </c>
+      <c r="N112" t="s"/>
+      <c r="O112" t="s"/>
+      <c r="P112" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>4</v>
+      </c>
+      <c r="R112" t="n">
+        <v>3</v>
+      </c>
+      <c r="S112" t="n">
+        <v>4</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>3</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>633</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_459.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_459.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="743">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>travelermanPhoenix</t>
+  </si>
+  <si>
     <t>07/06/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Kerry L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r537021359-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>so we wanted to book a hotel on the way home after Magic Mtn. so we Booked and prepaid Hotel.com and even got the Guaranteed stay from them. well that all ended as we arrived after midnight and went to the night window, and while waiting for a women to come to night window. some customer who was leaving told us to not get a room as they have roaches. well me and another guy look at each other and I'm thinking OK what kind of night are we looking at here! so she talks to the other customer and then helps me and I tell her we have a paid reservation and just need to get our room. she replies you need to give me a credit card for $60 for incidentals and I asked her as we prepaid and wont be using anything can we skip it, she yells at me thru the window NO!!! at this point I say wait a min and go talk to my wife in the car and we come back and she opened the door for the other guy who decides he's going elsewhere. at this point it 12:30 am and we prepaid and see no way to get a refund and tell her Ok. she replies that she cancelled our room and will issue a refund to Hotels.com and I say Really? and she replies I don't want your business and...so we wanted to book a hotel on the way home after Magic Mtn. so we Booked and prepaid Hotel.com and even got the Guaranteed stay from them. well that all ended as we arrived after midnight and went to the night window, and while waiting for a women to come to night window. some customer who was leaving told us to not get a room as they have roaches. well me and another guy look at each other and I'm thinking OK what kind of night are we looking at here! so she talks to the other customer and then helps me and I tell her we have a paid reservation and just need to get our room. she replies you need to give me a credit card for $60 for incidentals and I asked her as we prepaid and wont be using anything can we skip it, she yells at me thru the window NO!!! at this point I say wait a min and go talk to my wife in the car and we come back and she opened the door for the other guy who decides he's going elsewhere. at this point it 12:30 am and we prepaid and see no way to get a refund and tell her Ok. she replies that she cancelled our room and will issue a refund to Hotels.com and I say Really? and she replies I don't want your business and we leave after I tell her she is a piece of work! Run very fast away from any reservation at this HOTEL!!!!More</t>
   </si>
   <si>
+    <t>1931marki</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r536674944-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t>pros. the bed was comfortable, the room was passably clean, also they had a laminate floor for the room much cleaner than the usual carpeting. Cons 60$ deposit for our therapy dog even-though we have stayed there before, there was 1 bath towel no face cloths, and there was a used cloth hanging from the shower curtain. the "free" breakfast was basically non existent</t>
   </si>
   <si>
+    <t>swildercmt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r485359936-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -234,6 +246,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>195496terry</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r469103865-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -255,6 +270,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Guillaume D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r466362380-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -273,6 +291,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>Victor G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r438383417-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -312,6 +333,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>Clarence T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r413282873-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -330,6 +354,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>irmalu96</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r373462866-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -348,6 +375,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>tourmethis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r367911487-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -366,6 +396,9 @@
     <t>DO NOT stay at this hotel!  Complete rip off!  We were in Palmdale to take care of the affairs of the death of a family member.  We asked that we did not get maid service as we had important papers and other items in the room.  The maid came anyway.  Nothing was taken but I don't like that she could have gone through the confidential papers and rummaged through the belongings.  Then, due to an emergency medical issue, we had to leave a day early.  They said they couldn't refund us for leaving a day early.  We asked to speak to the manager but she wasn't in the office.  My sister has been calling for 2 weeks and the manager is never in the office and has yet to return her phone call.  Don't waste your time or money!More</t>
   </si>
   <si>
+    <t>Tisha M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r351730485-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -384,6 +417,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Sucanas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r327734999-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -405,6 +441,9 @@
     <t>My husband and I stayed 1 nite to break up our drive to Vegas so this was a good halfway point. After getting it on Priceline Express deal for $35, I told my husband that if it's really bad we'll just go to the other side of the freeway to the Ramada or the John Jay Inn. Because we were staying at an upscale resort in Vegas we wanted to keep it cheap in Palmdale. We only needed a bed, TV and shower. We arrived at 7 pm mid week. Front desk clerk was friendly, surroundings were pleasant, average. Room was painted ugly green on one wall. Room was dated, very average. Bathroom was fine, perfectly acceptable. seeing other quests, I would guess they were traveling on business. No sight of riff raff or questionable types. Quite. If it had been really awful or felt dangerous, I would have left. But it fit our needs for a short stay. I would not hesitate to stay here again as it would be silly to pay $90 and up just to sleep, watch some tv and shower and leave the very next morning. Other people leave alarming reviews but really, nothing dramatic here, just inexpensive , average lodging. 3 stars for average.More</t>
   </si>
   <si>
+    <t>Rob N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r326114373-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -423,6 +462,9 @@
     <t>I read some negative reviews, so I wasn't expecting much. It was much better than I expected. It is a fairly big place, and I think they put me away from other occupied rooms, so it was very quiet. The carpet was pretty old, but other than that, the room seamed very clean. It had a flat screen television that worked good. The water ran hot, and there was good water pressure in the shower. The Wifi worked fine. Quick check in and they charged me a $50 cash deposit, since I paid by cash. I got the deposit back the next morning, no problem. I would stay there again.More</t>
   </si>
   <si>
+    <t>David B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r321018070-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -441,6 +483,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Ingmar69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r302697054-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -459,6 +504,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>KSep86</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r299288334-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -477,6 +525,9 @@
     <t>Firstly understand that Palmdale is not a destination location: people don't come here for vacation, they come here for business or to see family. (We were out to see family). Some of the reviewers said this was a "bad part of town" or called it "sketchy", and while I could see that if you have never traveled anywhere, I don't think it's a fair label here. Not once did I feel unsafe. This part of town this is right off a highway, and its in an older section of town. But that doesn't make it a bad area. There is a Starbucks just a couple doors down, which we really enjoyed being the caffeine addicts we are. It is also close to a gas station, a grocery store and a discount store, which we also found useful, since we were traveling with kids and had to replace a couple lost/forgotten items. As for the rooms themselves, it is obviously an old building, out of date and not well decorated. In terms of functionality, its not bad! The beds were comfortable, the a/c was powerful, there was a microwave and a mini fridge in the rooms, and it was clean. The only 2 things that I would do if I were the owner, is to put the sheer curtain in on the windows also (they only have the room darkening ones, which most people like, but I like natural light AND...Firstly understand that Palmdale is not a destination location: people don't come here for vacation, they come here for business or to see family. (We were out to see family). Some of the reviewers said this was a "bad part of town" or called it "sketchy", and while I could see that if you have never traveled anywhere, I don't think it's a fair label here. Not once did I feel unsafe. This part of town this is right off a highway, and its in an older section of town. But that doesn't make it a bad area. There is a Starbucks just a couple doors down, which we really enjoyed being the caffeine addicts we are. It is also close to a gas station, a grocery store and a discount store, which we also found useful, since we were traveling with kids and had to replace a couple lost/forgotten items. As for the rooms themselves, it is obviously an old building, out of date and not well decorated. In terms of functionality, its not bad! The beds were comfortable, the a/c was powerful, there was a microwave and a mini fridge in the rooms, and it was clean. The only 2 things that I would do if I were the owner, is to put the sheer curtain in on the windows also (they only have the room darkening ones, which most people like, but I like natural light AND privacy at the same time) and I would have the carpets shampooed. They don't look super old, just stained and a bit tacky in some spots. Overall, you can't beat $40 a night, (but you also can't update much, as an owner, with those rates either). You get what you pay for, guys.More</t>
   </si>
   <si>
+    <t>Paulette TooBle... V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r291649541-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -495,6 +546,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>gmarkprice</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r268392766-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -511,6 +565,9 @@
   </si>
   <si>
     <t>April 2015</t>
+  </si>
+  <si>
+    <t>Maria V</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r264946436-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
@@ -538,6 +595,9 @@
 We did not have high hopes for our stay, but at a minimum, expected that for $55.00 a night we would receive a clean room with an operable toilet where we could have a good night's sleep prior to getting our tire replaced and heading home.  After all, we were in Palmdale, which is not exactly a premiere luxury destination and doesn't command inflated hotel room rates.  Both my fiance and I...We were forced to stay at this "hotel" after getting 2 flat tires on the way home from Las Vegas.  The second flat happened while we were eating dinner at the Pizza Hut one door down from this "hotel".  When we walked out to our car, we saw that the tire that had just been changed was completely flat.  My fiancé moved the car to the Meineke's in back of Pizza Hut and we walked to this "hotel", about 50 yards away.First of all, the reason I put the word "hotel" in quotation marks when referring to this dump is because there is no way they should be charging people to spend the night in their establishment.  What this place is is extended stay housing for homeless, drug addicts and prostitutes.  We were approached by a drug dealer outside of our room who asked my fiancé if we did lines or wanted to blaze.  When he responded, "No, I'm clean...", he then asked, "What about your lady?!" We did not have high hopes for our stay, but at a minimum, expected that for $55.00 a night we would receive a clean room with an operable toilet where we could have a good night's sleep prior to getting our tire replaced and heading home.  After all, we were in Palmdale, which is not exactly a premiere luxury destination and doesn't command inflated hotel room rates.  Both my fiance and I were exhausted after enduring the "Get Out Of Vegas" traffic all afternoon and having 2 flat tires to boot.  All we wanted was to fall asleep so we could get up the next morning and go home.The first thing that happened is my fiancé tried to use the toilet and found it wouldn't flush.  We then attempted to call the front desk, but the phone didn't work.  We then decided to walk to the lobby and notify the desk clerk.  As we stepped outside, a group of 8 people, all in various stages of inebriation, were sitting on the stairs leading up to the 2nd floor, hanging out, drinking beer, smoking and laughing loudly.  We knew we would not be able to get any sleep with them right outside our room, so when we spoke to the desk clerk, we asked to be moved to a quieter part of the hotel. (This first room we were given was Room #116, which is directly under the stairs leading up to the 2nd floor).Desk clerk was extremely skeptical of our story and said she would accompany us back to the room to verify what we were telling her.  She walked back to the room with us and by the time we got there, the group of partiers had swelled even more.  She did not say a word to them, but once we were in the room, she tried the toilet, saw it wouldn't flush, then tried the phone and saw it didn't work.  At that point I noticed that one of the chairs that was pushed under the table had a big knife slash in it.  The clerk noticed me looking at it and said she would move us to another room.We then were moved to room 138.  This room was in the back of the hotel and at first glance, seemed cleaner than Room 116.  We put down our bags, lay on the bed, started going through our phones (by now it was close to midnight) and then I went to use the toilet.Upon flushing the toilet, all of the water in the bowl overflowed and got all over the floor.  I began screaming for my fiancé to get me towels and he brought me all the towels in the room.  I threw them down on the floor and they were so threadbare and thin that they would not soak up all the water.  We then called the front desk on my cellphone (since the room phone also did not work) and said that the toilet overflowed.  The desk clerk (apparently shifts had changed and now a male was on duty) said in a very rude voice, "We can't be moving you from room to room all night!"I asked him, "You can't move us out of a room that has a nonoperational toilet?!!" and he said, "I'll send 'security' to your room to go check it out.Twenty minutes later, we heard a knock on the door.  A handyman who was not dressed in any type of uniform stated that he was there to look at the toilet.  I let him in and he went into the bathroom.  He came back out and said, "I'll be back.  I need to get a plunger."  I said, 'Can you bring us back some more towels too?  I had to use the ones we had to try to clean up the mess."  He said very sarcastically, "I saw that." and left.He came back awhile later (about 10-15 minutes) with a plunger and 3 towels.  No mop, no bucket, nothing to clean up the unsanitary mess.  He put the towels down on top of the microwave and went into the restroom.  We heard him plunge the toilet for a total of about 15 seconds.  He then came out, said, "It's fixed" and left. I went into the restroom, put down the towels he had left behind, and tried to sop up the rest of the water.  I could not believe that they would not move us to another room or clean up the mess from the overflowed toilet with dirty water.  I had to disinfect my hands and feet and then went and laid down, exhausted.During the night both my fiancé and I got up to use the restroom.  We observed that the toilet was still not fixed - although it did not overflow, the water in the bowl did not drain all the way and so the bowl stayed full of urine.The next morning, when my fiancé went to get out of bed, he put his feet down on the carpet between the bed and the bathroom wall.  He was appalled to find that the carpet was soaking wet.  Apparently, the disgusting dirty toilet water that had flooded the bathroom had seeped through the wall and gotten the carpet wet!  TOTALLY GROSS AND COMPLETELY UNSANITARY!!!My fiance then went to Meineke's to talk to them about the tire, and on his way back to the room, stopped at the front office and had a conversation with the infamous "Anna" (see other reviews).  I don't even know how to begin describing this lady.  She is like the poster child for Poor Customer Service Workers.  It's not even like she doesn't have a clue about how to provide anything approaching a minimal amount of customer service.  It's like she has made it her life's mission to be mentioned on every single negative review for her horrible customer service skills.During my first visit to the office, she deflected my complaints by stating she was not the person I needed to talk to - that the Hotel Manager (Bindu) would be in at 10:00 am and she was the person I needed to talk to.At 10:00 I went back to the office to speak to Bindu.  Anna kept me waiting 10 minutes.  When Bindu came out, she immediately stated that she could not speak to me because I was not a "registered guest".  I asked her, "What do you mean I'm not a registered guest?  My fiancé and I checked in last night!"  She said, "Well, the room was not paid for by you, it was paid for by a MAN.  For all I know, he just picked you up on the street.  You are not authorized to talk to us about this room."Furious, I told her, "I'm going to get my fiancé so he can come in here and talk to you.  We want a refund! You guys have some kind of plumbing problem here and the toilets don't work!" She waved her hand dismissively at me and I went out the door.  My fiancé was still at Meinecke's waiting for them to put on the tire, and I asked him to come back to the hotel lobby with me.  He came back and said that the room was unacceptable.  Bindu told him that the best she could do was offer him a discount on a future night's stay!!My fiancé told her, "I guarantee you we will NEVER stay at this hotel again!  In fact, we will be going out of our way to avoid Palmdale in the future because this hotel is nothing more than a drug den!"We started walking out the door and as we did so, an elderly Filipino gentlemen was walking in.  I am Filipino myself and I immediately started wondering whether I should warn him about what type of hotel it was.  My conscience wouldn't allow me to keep on walking, so I turned around and went back into the lobby.  I told him that I would stay at any other hotel in Palmdale before this one.  I told him that the toilets didn't work, the phones didn't work, there were drug addicts partying outside of their rooms all night long...I would have gone on, but Bindu and Anna both began screaming at me.  They told me to get out!!  I said, "This is a free country and I can express my honest opinion..." and then Anna picked up the phone and dialed 911.  She told the dispatcher that they wanted me arrested for trespassing!!  I asked her, "How are you gonna arrest me for trespassing when we paid to stay here and you're not giving us a refund?  Give me the money back and I'll leave!!"  They both went absolutely nuts yelling at me. When the elderly Filipino man refused to listen to me and checked in anyway, I decided to leave so I wouldn't have to spend another moment in Anna and Bindu's company.  I was walking towards Meinecke's and saw a sheriff's patrol vehicle parked in front of the In-&amp;-Out next door.  Thinking he might have been responding to the call from the hotel, I approached him and talked to him.  I mentioned the drug dealing and prostitution, and he stated that they were "very much aware" of what was going on at that hotel, and it was just our "bad luck" that we happened to break down in that area of town.  If you are even considering staying at this dump, RUN... do not walk.... AWAY!!  I would rather sleep in my car than ever come back to this place again.  Bindu and Anna are the rudest, shiftiest people you could imagine, and they do not deserve anyone's business.I have filed complaints with the City of Palmdale Building &amp; Safety Division as well as the L.A. County Department of Public Health - Institutions and Dwellings Division. This place needs to be shut down!!More</t>
   </si>
   <si>
+    <t>Marx H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r253106430-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -556,6 +616,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>ReviewitSandi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r238766039-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -571,6 +634,9 @@
     <t>Bed bug infestation. Carpets and room filthy. Mold in the bathroom and obvious roof leaks with mold. Came here for travel team tournament from northern ca at midnight to immediately have to find another place. Totally should not stay here with the bugs and filth</t>
   </si>
   <si>
+    <t>William T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r233699475-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -589,6 +655,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>Roger C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r232977298-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -601,6 +670,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Jeff B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r229527405-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -610,6 +682,9 @@
     <t>09/17/2014</t>
   </si>
   <si>
+    <t>Steven L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r229305571-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -625,6 +700,9 @@
     <t xml:space="preserve">Nice motel. Right off highway. Clean room and comfortable bed. Great pool.  Bad reviews are without merit.If you want, better go pay 100 bucks or more a night at holiday inn and see if they treat you any better!  </t>
   </si>
   <si>
+    <t>Kenya W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r228212567-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -634,6 +712,9 @@
     <t>09/10/2014</t>
   </si>
   <si>
+    <t>David V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r226761015-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -646,6 +727,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Chris T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r226180863-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -655,6 +739,9 @@
     <t>09/01/2014</t>
   </si>
   <si>
+    <t>Fuerte R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r224905248-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -676,6 +763,9 @@
     <t>The entire experience was bad. I originally booked a group of thirteen and requested to be together, but none where. Everyone was scattered all over the place, granted I plan this trip months ahead so the hotel had plenty of time to make the appropriate accommodations. Second. once we checked in, the staff was rude. I had booked a room separate from the rest of the rooms, and once I checked in they desk clerk told me all they had was smoking rooms. The room was nasty, it was very smelly and I had to go buy spray to try to mask the smell. The beds where uncomfortable, and squeaky. To top it all off, an alarm kept me up all night. The entire experience was awfully. The group was part of a softball tournament, therefore we had many girls that were attempting to have some fun after a long day of playing, instead they were reprimanded for running and being loud. We attempted to have a snack on the table provided, but failed miserably since the table had a broken leg. Never again will I stay in a Days Inn.More</t>
   </si>
   <si>
+    <t>Larry T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r218792693-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -688,6 +778,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t xml:space="preserve">Sjbangels </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r217518984-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -703,6 +796,9 @@
     <t>My granddaughter and her softball team traveled all the way from Washington state to Palmdale, California for softball tournament. When they arrived, they had put them into smoking rooms when they we had requested and triple checked the reservation as a non-smoking room. They had to fight for their money back and find a different hotel. The front desk person was terrible and the employees need serious training customer service</t>
   </si>
   <si>
+    <t>Carmen Or John M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r211013266-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -724,6 +820,9 @@
     <t>This review covers two seperate chances in June 2014.   Booked very late all they had was a dual queen at the very back of the lot.  The bed linnens were clean.  Bathroom was clean.  Walls had stains on the wallpaper and carpet was worn.   The door jamb looked like it had been kicked in.  It was repaired with screws and painted.  The door didnot feel secure.  Desperate for sleep I stayed the night.Wyndham usually has nice properties so I decided to try it again with a early reservation.  I reserved a NS King room.   Showed up a little before 8pm.   They acknowledged the reservation but failed to set the room aside.   All they could do was a queen in the back.   I wasn't doing that mistake again.More</t>
   </si>
   <si>
+    <t>Robert O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r210648335-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -736,6 +835,9 @@
     <t>great price, but just a room, comfortable, very affordable, however continental breakfast was very, very limited.</t>
   </si>
   <si>
+    <t>Weary T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r210604982-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -748,6 +850,9 @@
     <t>Door had been kicked in so many times that when you engaged the dead bolt there was a misalignement between the door and the frame letting light and wind through. Door ratteled all night in the wind and coupled with the poor air conditioning the room never fully cooled off. And the remote for the 19" tube television which looked like it had been dropped, didn't work.</t>
   </si>
   <si>
+    <t>Hernandez M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r209673511-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -757,6 +862,9 @@
     <t>06/09/2014</t>
   </si>
   <si>
+    <t>Rachel S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r207573985-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -769,6 +877,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Han Wen T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r206787628-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -778,6 +889,9 @@
     <t>05/23/2014</t>
   </si>
   <si>
+    <t>Ashanti B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r206614992-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -787,6 +901,9 @@
     <t>05/22/2014</t>
   </si>
   <si>
+    <t>Jose U</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r203391989-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -799,6 +916,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Vince M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r203370738-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -811,6 +931,9 @@
     <t>Would not stay here again!  I signed up for non smoking and was given a smoking room  Room floor was nasty.  I went to local 99 cent store and purchased various sprays.</t>
   </si>
   <si>
+    <t>Lori M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r201600451-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -820,6 +943,9 @@
     <t>04/17/2014</t>
   </si>
   <si>
+    <t>Christina S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r197079620-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -832,6 +958,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Robert R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r196896962-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -841,6 +970,9 @@
     <t>03/10/2014</t>
   </si>
   <si>
+    <t>Andrew C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r196685245-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -856,6 +988,9 @@
     <t>Some guests in other rooms were loud. People standing in the halls 2- 3AM. Not sure why. No facial tissue in rooms. Otherwise OK. I like the free continental breakfast.</t>
   </si>
   <si>
+    <t>Screen N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r195395332-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -868,6 +1003,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>Adriana L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r190671604-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -886,6 +1024,9 @@
     <t>Responded January 15, 2014</t>
   </si>
   <si>
+    <t>Cary M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r188464640-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -901,6 +1042,9 @@
     <t>Responded January 12, 2014</t>
   </si>
   <si>
+    <t>Cathy D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r186078503-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -913,6 +1057,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>kudoos55</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r185251913-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -931,6 +1078,9 @@
     <t>I booked a room for two nights at this hotel. The person behind the counter was nice when we checked in, but when we arrived at the room, I was shocked at what I saw. The room was on the lower floor. The floor looked as if it had just been put down, it was a wood laminant, the best part of the room. There was no baseboards, the trash can had no liner, and the bathtub was so moldy, I would not allow my dog to take a bath in it. There was no telephone in the room, and the bedspread looked as if it was very old, and in need of a good burning. There was a carwash nearby, and the noise from it was almost like be extremely close to the freeway. The remote control to the television had some nasy sticky tape holding the battery in place. I was afraid to even shower in that tub. This place desperately needs to be updated. We had our own blankets, so we just threw the spread on the floor in the corner. I would not stay there againMore</t>
   </si>
   <si>
+    <t>Joao A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r184361176-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -940,6 +1090,9 @@
     <t>11/11/2013</t>
   </si>
   <si>
+    <t>Sharon M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r183835035-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -949,6 +1102,9 @@
     <t>11/06/2013</t>
   </si>
   <si>
+    <t>Peggy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r183678551-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -958,12 +1114,18 @@
     <t>11/05/2013</t>
   </si>
   <si>
+    <t>Karla N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r183669957-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
     <t>183669957</t>
   </si>
   <si>
+    <t>Tom W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r181253051-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -985,6 +1147,9 @@
     <t>In their defense the lobby was under construction so the initial impression was poor. Had to go out for breakfast as the choices were not good.More</t>
   </si>
   <si>
+    <t>Mauri P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r181097048-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1006,6 +1171,9 @@
     <t>After a less than hospitable check-in (BTW, don't even think about asking for a late check out, the lady behind the counter rolled her eyes and answered "NO, NO late checkouts, 12 pm is late enough"... also pre-book through TripAdvisor for the discounted rate... I didn't, as I wanted to take a look at the property before committing as some parts of Palmdale are seriously sketchy). Checked out the room, it was clean and comfortable looking. Left for the day and returned later that night to find that the door keycard no longer worked, dragged my stuff to the front desk and was lectured "NO, DO NOT put the key card in your wallet as your credit cards and wallet were demagnetizing the strip!"... Received a new card, walked back what seemed like 100 yards pulling suitcase to my room, all the while holding the keycard IN MY HAND, door opened, placed bag in room, went back to the car for more luggage and my Tommy's burger and fries for dinner, all the while holding the keycard IN MY HAND, once again the door would not unlock. Dragged luggage and food back to front desk, now asked for two keycards, the extra one as a backup. Clerk was pretty much indifferent, thought I'd try my luck asking how much additional would a late check out cost (the reason that I kept asking was that I had a meeting in LA...After a less than hospitable check-in (BTW, don't even think about asking for a late check out, the lady behind the counter rolled her eyes and answered "NO, NO late checkouts, 12 pm is late enough"... also pre-book through TripAdvisor for the discounted rate... I didn't, as I wanted to take a look at the property before committing as some parts of Palmdale are seriously sketchy). Checked out the room, it was clean and comfortable looking. Left for the day and returned later that night to find that the door keycard no longer worked, dragged my stuff to the front desk and was lectured "NO, DO NOT put the key card in your wallet as your credit cards and wallet were demagnetizing the strip!"... Received a new card, walked back what seemed like 100 yards pulling suitcase to my room, all the while holding the keycard IN MY HAND, door opened, placed bag in room, went back to the car for more luggage and my Tommy's burger and fries for dinner, all the while holding the keycard IN MY HAND, once again the door would not unlock. Dragged luggage and food back to front desk, now asked for two keycards, the extra one as a backup. Clerk was pretty much indifferent, thought I'd try my luck asking how much additional would a late check out cost (the reason that I kept asking was that I had a meeting in LA at around 4 pm next day and thought I'd just kick it by the pool). Oh no, no, no, NO sir, we cannot allow late check-outs. Alrightey then. Dragged my luggage and dinner back to my room and luckily the door opened, stayed put for the rest of the night and made a couple of Skype calls using their free in room WiFi. Next morning tried calling out via Skype and the motel's WiFi connection was now working intermittently when trying to make a call to LA (310 area code). Figured I'd then try the in-room old school landline phone, followed the instructions on the phone, couldn't get through, called the front desk and it was the same lady from the day before when I originally checked in, she said "NO, NO, NO... we DO NOT allow long distance calls!" I said I didn't think calling Palmdale to Los Angeles was long distance... oh well. Was able to get an email sent out via WiFi to tell the person I was trying to call what room I was in and to call me back. Five minutes later he emails me and says some rude woman said there's no one there by your name checked into that room and then hung up on him, even after him spelling my last name for her. I called the front desk again, and she said someone had called asking for "'Lori,' I said well, my name is 'Mauri,' which I'll admit could sound like Lori to someone, but since I had just spoken to you a little while ago about trying to call out, that you might of been able to put two and two together that there was someone in room 113 trying to reach someone by phone... maybe you just don't hear very well?" She said that she hears VERY well. Then I said I'm pretty much not at all impressed with you guys (actually I wanted to say something else, but...). She said "That is perfectly fine." Anyway, to make a long story short, housekeeping deserves a 5 as they do a great job considering the age of the property (also, no bugs or homeless panhandlers there, like in some of the other Palmdale properties reviewed here). However, the duo in the front office deserve a double zero, but since 1 is the lowest possible rating... my stay averages out to a 3.More</t>
   </si>
   <si>
+    <t>Michael W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r180258801-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1015,6 +1183,9 @@
     <t>10/08/2013</t>
   </si>
   <si>
+    <t>Drema P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r179453638-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1024,6 +1195,9 @@
     <t>10/02/2013</t>
   </si>
   <si>
+    <t>Melissa W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r179276746-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1033,6 +1207,9 @@
     <t>09/30/2013</t>
   </si>
   <si>
+    <t>Marisol H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r176820737-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1045,6 +1222,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Rahale W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r172581343-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1060,6 +1240,9 @@
     <t>Responded August 17, 2013</t>
   </si>
   <si>
+    <t>Gregory B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r172456310-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1069,6 +1252,9 @@
     <t>08/15/2013</t>
   </si>
   <si>
+    <t>Kingmason</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r172292409-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1093,6 +1279,9 @@
     <t>Hotel has decent prices, but you get what you pay for. Property is run down especially pool area. Our room (108) had an awful curry smell to it. The lady at the front desk was extremely rude and not helpful at all when it came to checking in or out, if it weren't for the 10 hour drive I would of gone somewhere else. I highly recommend not staying at this hotel.More</t>
   </si>
   <si>
+    <t>Michelle W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r170066629-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1120,12 +1309,18 @@
     <t>This property is simply run down.  Our room had broken chairs, old tv with poor reception.  Loud A/C and squeaky beds.  Even the hair dryer did not work.  It was not thoroughly cleaned as the drawers had hair and crumbs and the carpet was also questionable.  This place scared my kids.  The pool area had many broken chairs as well and a gate that would not open with key.  I could go on and on.More</t>
   </si>
   <si>
+    <t>Ann P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r170064901-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
     <t>170064901</t>
   </si>
   <si>
+    <t>ladylodger</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r169056608-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1150,6 +1345,9 @@
     <t>I reserved a queen, nonsmoking room. The first room I was was offered had a strong smell of cleaning spray, so I requested a change. Next I was put in a nice room with a wooden floor, so there wasn't much odor. Unfortunately, the AC didn't work. Then I was offered a third room similar to the first. I asked if there were any other rooms with wooden floors, but none were available. The receptionist offered to give me a refund, but I know that cleaning spray is used in most motel rooms, so I just kept the third room. Later, I discovered that the remote for the TV didn't work, but I could change channels and volume by using the buttons on the TV. The room itself was spacious and clean. The breakfast was an OK continental one. My key didn't open the gate to the pool. A couple young men who were staying at the motel and also trying to get in climbed over the gate and opened it from inside.More</t>
   </si>
   <si>
+    <t>Danelle T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r166992807-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1174,6 +1372,9 @@
     <t>Unfortunately, I had to experience two nights at the days Inn in Palmdale, California.  I knew I was not going to be happy because the reviews were horrible but I had no other options, so I bit the bullet and made the reservations. We all know this is not a 4-5 star hotel but you do expect the accommodations to be OK. The linen on the bed was clean, the rugs need cleaning, the bathtub had a nasty mat in it so i put a towel on it and took my shower. A little paint would have help, the window was locked but it had a gaping hole in it so anything could have crawled into the room.  the best thing about this hotel is that it had a lot of tv channels to choose from to distract from all the ugliness of the room.  Never again.  I might add the manager is a great guy, Mike is his name.More</t>
   </si>
   <si>
+    <t>Robin W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r166835581-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1195,6 +1396,9 @@
     <t>First off lady at the front desk, very rude !!  Breakfast area, what a joke, right there at the check in area.  Nice pool, but very run down &amp; disgusting patio furniture.  Pool towels, forget about it. Looked like subsidized housing right next door, very shady people looking over at the motel. Strange characters walking around the motel looking in room windows.  We were afraid to go outside or leave valuables in the room. Also worried our cars would be vandalized in this very open/easy access motel parking lot.  A picture fell off the wall while we were sleeping and hit my husband in the face. The picture had profanities written all over the back of it. My kids were afraid to sleep by the window in the room. The Room also had an odd smell.  Restaurant in the parking lot was closed and deserted, run down.  We will never stay there ever again and will spend more for a better hotel in a better part of town.  We weren't expecting a five star hotel, but we weren't expecting this horrible experience either.More</t>
   </si>
   <si>
+    <t>Eddie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r166083362-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1213,6 +1417,9 @@
     <t>Responded July 3, 2013</t>
   </si>
   <si>
+    <t>nunyabusiness_12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r165372360-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1228,6 +1435,9 @@
     <t>Responded July 2, 2013</t>
   </si>
   <si>
+    <t>mary0107</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r164075912-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1255,6 +1465,9 @@
     <t>I consider this hotel my as my home away from home because the room that I had was spacious enough for all my stuff and I needed to stay there for a month.  The staff was very nice and accommodating to my needs.  I felt I got what I exactly paid for. :-)More</t>
   </si>
   <si>
+    <t>Oney C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r162863847-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1270,6 +1483,9 @@
     <t>Responded June 4, 2013</t>
   </si>
   <si>
+    <t>TineTom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r160015842-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1294,6 +1510,9 @@
     <t>Very very nice staff, pointed us to a wonderful dinner place. The hotel is showing it's age, but our room was nice and great value for the money. The only hickup was the door handle, which needed some trickery to get open. It's no five star hotel but I would definitely go back!More</t>
   </si>
   <si>
+    <t>Domenick C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r158810396-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1315,6 +1534,9 @@
     <t>Very friendly, helpful staff. An older hotel that is showing it's age. Management doing it's best to update. Bottom line, not a 5 star hotel, but GREAT value for you money. This was my 4th stay in the last 6 months.  I will go back.More</t>
   </si>
   <si>
+    <t>Carol47Aptos</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r158287781-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1333,6 +1555,9 @@
     <t>Responded April 22, 2013</t>
   </si>
   <si>
+    <t>Anthony C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r157263606-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1357,6 +1582,9 @@
     <t>Location was good, but the hotel room said it was non smoking but clearly they where wrong. No smoke detectors and it was dirty! One of the outlets looked like blood was splattered all over it! I took a picture!Bad rating!Sorry!More</t>
   </si>
   <si>
+    <t>GRAHAM B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r157240799-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1372,6 +1600,9 @@
     <t>I stay here whenever my my business travels bring me nearby this hotel.The management,Bin and her staff have always been so friendly and helpful and the price is very reasonable.It is an older hotel but it is kept clean and is in a great location....walking distance to lots of stores and restaurants.I will keep coming backMore</t>
   </si>
   <si>
+    <t>Mark J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r156545232-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1387,6 +1618,9 @@
     <t>Responded April 5, 2013</t>
   </si>
   <si>
+    <t>Nosocks V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r153897532-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1402,6 +1636,9 @@
     <t>Responded March 8, 2013</t>
   </si>
   <si>
+    <t>Richard D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r153315075-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1420,6 +1657,9 @@
     <t>Responded March 1, 2013</t>
   </si>
   <si>
+    <t>Daniel W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r151542228-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1444,6 +1684,9 @@
     <t>It is a small modest room.  It was generally clean but the bed, pillows, towels, and general condition were just not of the quality of nicer hotels.  I mean, the ceiling actually leaked during a light rain storm.  Unfortunately, the hotel made the decision to charge an outrageous rate (more than double the regular rate) because of high demand over this particular weekend (youth soccer tournament).  With such a rate, expectations were higher than the Inn could deliver.  Perhaps the hotel should factor in the bad experiences of the guests and the future loss of business when tempted to extort such exorbitant rates for a mediocre stay. More</t>
   </si>
   <si>
+    <t>Bethknits</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r149454680-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1465,6 +1708,9 @@
     <t>Multiple rooms on a business trip. Dirty sheets. Toilet not working. Filthy everything. Showers with only cold water. Showers with no water at all. Did not risk our lives with breakfast. Escaped unharmed after one night.More</t>
   </si>
   <si>
+    <t>AB829</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r147035388-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1474,6 +1720,9 @@
     <t>12/08/2012</t>
   </si>
   <si>
+    <t>CLARA W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r146454214-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1492,6 +1741,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>JOLEEN R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r145085691-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1504,6 +1756,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>mykobar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r144922030-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1519,6 +1774,9 @@
     <t>Comfortable and fully-equipped room.  Microwave and refrigerator.  Well furnished.  Clean.  Lower rate than most Days Inn.  Friendly and informative folks at front desk.  I had stayed here before, over the past couple of years, but they seem to have made a sincere effort to improve the quality - especially the Wi-Fi reception.</t>
   </si>
   <si>
+    <t>GLENN T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r144799397-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1528,6 +1786,9 @@
     <t>11/06/2012</t>
   </si>
   <si>
+    <t>KELLIE G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r144237040-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1537,6 +1798,9 @@
     <t>11/01/2012</t>
   </si>
   <si>
+    <t>RONALD O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r144110838-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1546,6 +1810,9 @@
     <t>10/30/2012</t>
   </si>
   <si>
+    <t>DEMITRIS B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r143603393-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1555,6 +1822,9 @@
     <t>10/24/2012</t>
   </si>
   <si>
+    <t>GABRIEL D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r142739863-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1564,6 +1834,9 @@
     <t>10/13/2012</t>
   </si>
   <si>
+    <t>JAMES L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r142662203-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1579,6 +1852,9 @@
     <t>service was good i have no complants i done remember seeing pool and i didnt need to use a business room.</t>
   </si>
   <si>
+    <t>A Wyndham traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r142484956-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1609,6 +1885,9 @@
     <t>I made reservations online for about $168.28 including tax and called multiple times to confirm this price and reservation for me and my kids. When I got there, they tried to cancel my online reservation and charge me $300, obviously because they were full and trying to make extra money. Only after causing a scene did they finally drop the price but still charged me an extra $40 above the online rate. This location is obviously a franchise owned by foreigners who don't value or respect the American dream. I understand that to them this might just be business but to me and my family this is supposed to be a summer vacation to get away from the normal day to day stress of life. Shame on these people!More</t>
   </si>
   <si>
+    <t>Bee4brittany</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r133794099-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1624,6 +1903,9 @@
     <t>First off the room was pretty dirty. The lights worked intermittently. The first night I stayed I was watching tv on my iPad and a cockroach literally crawled right by my face. I called the front desk and it was like no big deal. The owner didn't care at all. Didn't offer me money back even though I deserved it! The pool area is pretty run down, the patio chairs are all broken and pretty much unuseable. Wouldn't ever stay here again!!!!</t>
   </si>
   <si>
+    <t>rynno</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r131940201-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1642,6 +1924,9 @@
     <t>Showed up and the guy gave us the wrong room . Ok no problem but I was in the middle of a shower ,that didn't drain, when he called to ask us to move asked for a few minutes and in 5 minutes there was a guy rushing me out of the room hadn't even got a chance to get all my stuff together . I get to my new room and find hair all over the pillows and , untucked, sheets. Then I put my drinks in the fridge and find a rotten half gallon of milk in it... Worst hotel I have ever stayed at ... Rude serves terrible rooms  bad side of town . Keep driving don't stop here More</t>
   </si>
   <si>
+    <t>karma31</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r127436248-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1657,6 +1942,9 @@
     <t>I stayed there was horrible, bed bugs, dirty romms with stains, kids crying so much. no one told me where the room was and I was looking everywhere for it.  would not stay here ever again.</t>
   </si>
   <si>
+    <t>prak_shah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r121682240-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1675,6 +1963,9 @@
     <t>November 2011</t>
   </si>
   <si>
+    <t>susieinthesky</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r121329798-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1690,6 +1981,9 @@
     <t>We were travelling from Death Valley to Los Angeles and needed somewhere for an overnight stay within an hours drive of LAX.  We chose Days Inn Palmdale and I'm so glad we did - very polite and friendly staff, clean and comfortable room, good WiFi, simple but adequate breakfast all at a great price.  We spent the afternoon relaxing at the attractive pool area. The location was good and was just a short drive to a large shopping mall.  Many fast food restaurants within walking distance.</t>
   </si>
   <si>
+    <t>Zakan_11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r115153742-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1708,6 +2002,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>BigF_77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r103711661-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1726,6 +2023,9 @@
     <t>November 2010</t>
   </si>
   <si>
+    <t>sillyfrufru</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r95246052-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1747,6 +2047,9 @@
     <t>The manager/ owner is completely unprofessional.  He charged me an extra night of stay when I did not actually stay in the hotel.  Every time I call to correct the issue he either yells and hangs up, or ignores my calls.  Yes this place is cheap to stay, but BE PREPARED TO PAY DOUBLE THE RATE WHEN YOU ARRIVE due to the staff being thieves.  Seriously, I am pretty darn sure the only way this place gets business is by deceiving people into staying with a low rate and then billing for extra nights stays.  I am not the only person this has happened to as you can see from the other reviews.About the room...ghetto, dirty, unsafe, and the breakfast is a joke (stale packaged bear claws from the minimart). Take this as a warning...DO NOT STAY HERE!..  Days Inn if you are reading this, please take your corporate affiliation away from this place because after this experience I will never stay at another Days Inn again.More</t>
   </si>
   <si>
+    <t>nllytle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r42955356-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1765,6 +2068,9 @@
     <t>September 2009</t>
   </si>
   <si>
+    <t>rkiOregon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r36932025-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1786,6 +2092,9 @@
     <t>Hotel has been cleaned up. Pool nice. Jacuzzi was nasty. So was the manager. He hung up on me after yelling that he did not have to talk to me about moving my reservation up one day. He would have not lost any money and would have gained an extra days stay if he had been dec ent. Breakfast kind of skimpy. Will never stay there again if it is the same manager. There are lots of complaints about him on various sites. Lots of signs in office mis-spelled. Each sign is a threat of how you will be charged terrific sums of money if you don't follow the rules.More</t>
   </si>
   <si>
+    <t>nearlywild</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r32647985-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1804,6 +2113,9 @@
     <t>We came to the Days Inn for the Western Regional Soccer Tournament. When we arrived and checked in the young lady at the front desk was nice and helpful. when we arrived to our room I immediately went to the store I saw down the street and bought lysol. I completely sprayed the whole room down. The walls are very thin. but the housekeepers/maintainance man very nice. However I am appalled that Days Inn keeps "Paul" the general manager still on. He is the most unprofessional rude disgusting clerk I have ever encountered.  the other issue I have is that Paul knew that he had a couple of soccer teams staying.  the hotel was booked. with all that business I would think he would have been more accommadating for those teams that did not win and were leaving early.  Now I was forced to pay for the entire week.  the  tournament starts early on a monday morning. If your team makes it to the quarter finals it is a must win to advance.  our team made it to quarterfinals, when I asked paul about a late check out friday for just in case they lost, I was told that I HAD to let him know by 4 pm the day before that we were leaving.. I HAVE NEVER HEARD OF THAT.  I would also like to say that the breakfast is a joke.  good thing the store was close.  ps...We came to the Days Inn for the Western Regional Soccer Tournament. When we arrived and checked in the young lady at the front desk was nice and helpful. when we arrived to our room I immediately went to the store I saw down the street and bought lysol. I completely sprayed the whole room down. The walls are very thin. but the housekeepers/maintainance man very nice. However I am appalled that Days Inn keeps "Paul" the general manager still on. He is the most unprofessional rude disgusting clerk I have ever encountered.  the other issue I have is that Paul knew that he had a couple of soccer teams staying.  the hotel was booked. with all that business I would think he would have been more accommadating for those teams that did not win and were leaving early.  Now I was forced to pay for the entire week.  the  tournament starts early on a monday morning. If your team makes it to the quarter finals it is a must win to advance.  our team made it to quarterfinals, when I asked paul about a late check out friday for just in case they lost, I was told that I HAD to let him know by 4 pm the day before that we were leaving.. I HAVE NEVER HEARD OF THAT.  I would also like to say that the breakfast is a joke.  good thing the store was close.  ps days inn up date your web page.. there is no japanese resturant on site.  and please get rid of Paul.. I am sure there are many folks out there far more qualified then him.More</t>
   </si>
   <si>
+    <t>Toobusy2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r29552798-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1825,6 +2137,9 @@
     <t>We try to avoid Day's Inn because they are like one step up from Motel 6.  This Day's Inn proved us right again.  We were there for an event at LACR.We got there about 9:30 pm.  A Security Guard directed us to park.  He then escorted us to our room.  This of course made us a little nervous.   Then...it got worse!  He went into the room and looked around...checked the bathroom and put our luggage on the luggage rack!!!  WHAT???  What is he looking for???   He noticed a picture was off the wall and lying on the bed so he took that with him and said "Have a nice stay".    The room was old and tired.  The beds were sunken.  The carpet had a dirty film on it and looked like it could have been vacuumed better.   Towels were thin and rough.  It was just run down.  You get what you pay for though.  Used to be a room for over 80 a night was a luxury room...not these days!    I don't think we'll return to this hotel.  It was really creepy to have the parking security guard come into our room and look around like that.  Doesn't make for restful sleep.More</t>
   </si>
   <si>
+    <t>Giraffe055</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r25205627-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1846,6 +2161,9 @@
     <t>My husband and I tried to check in early and the front desk receptionist said that our room wasn't ready. When looking around the parking lot I saw about four cars parked. Then I wondered why the room wasn't ready. We decided to leave and come back later. When we checked in the staff did not disclose that the hot water was not working. We did not find out until I tried to wash my hands and let the water run and hot water did not return. I called the front desk to have the clerk say she didn't know when the water will be fixed, but that it will be fixed tonight. I told her your assuming it is going to be fixed, but how could she be 100% since it had already been out most of the day. I had an interview to go to so we decided to request for a refund and book another hotel. The latter of the two happened. Do you know the money hungry, greedy manager would only refund half our money because we checked in an hour early. We checked in early to leave our bags there. We had only been in the room 30 minutes before we discovered the hot water was out. This place is a dump, dirty, dark, and not a place to rest and relax. I will never stay at a Days Inn again. Oh, did I mention...My husband and I tried to check in early and the front desk receptionist said that our room wasn't ready. When looking around the parking lot I saw about four cars parked. Then I wondered why the room wasn't ready. We decided to leave and come back later. When we checked in the staff did not disclose that the hot water was not working. We did not find out until I tried to wash my hands and let the water run and hot water did not return. I called the front desk to have the clerk say she didn't know when the water will be fixed, but that it will be fixed tonight. I told her your assuming it is going to be fixed, but how could she be 100% since it had already been out most of the day. I had an interview to go to so we decided to request for a refund and book another hotel. The latter of the two happened. Do you know the money hungry, greedy manager would only refund half our money because we checked in an hour early. We checked in early to leave our bags there. We had only been in the room 30 minutes before we discovered the hot water was out. This place is a dump, dirty, dark, and not a place to rest and relax. I will never stay at a Days Inn again. Oh, did I mention the breakfast bar is located at the front desk where everything is dirty and nasty. Some people just don't care about cleanliness. This place should be closed down for sure!!More</t>
   </si>
   <si>
+    <t>ejamartin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r21856952-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1864,6 +2182,9 @@
     <t>November 2008</t>
   </si>
   <si>
+    <t>softballmom1122</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r17826201-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1888,6 +2209,9 @@
     <t>Found bedbugs on bed owner states we brought them! Condom found  by child in spa we placed their! Very bad experince never will recommend days inn.More</t>
   </si>
   <si>
+    <t>andthensometravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r15665676-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
   </si>
   <si>
@@ -1904,6 +2228,9 @@
   </si>
   <si>
     <t>May 2008</t>
+  </si>
+  <si>
+    <t>SDRowdies</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79130-r7935310-Knights_Inn_Palmdale_Lancaster_Area-Palmdale_California.html</t>
@@ -2426,43 +2753,47 @@
       <c r="A2" t="n">
         <v>10382</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2476,50 +2807,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>10382</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -2539,50 +2874,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>10382</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -2600,50 +2939,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>10382</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2663,50 +3006,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>10382</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2720,50 +3067,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>10382</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -2781,50 +3132,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>10382</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -2844,50 +3199,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>10382</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -2907,50 +3266,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>10382</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2964,50 +3327,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>10382</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -3027,50 +3394,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>10382</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K12" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="O12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3088,50 +3459,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>10382</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="O13" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3145,50 +3520,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>10382</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="J14" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="K14" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3202,50 +3581,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>10382</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>141</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="K15" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="L15" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="O15" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -3265,50 +3648,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>10382</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>148</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="J16" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="K16" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="L16" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="O16" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3328,50 +3715,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>10382</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>155</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="J17" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="K17" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="L17" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="O17" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3389,50 +3780,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>10382</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>162</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="J18" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="K18" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="L18" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="O18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -3452,50 +3847,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>10382</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>169</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="J19" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="K19" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="L19" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="O19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -3515,50 +3914,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>10382</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>176</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="J20" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="K20" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="L20" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="O20" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3572,50 +3975,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>10382</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>183</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="J21" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K21" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="L21" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -3635,50 +4042,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>10382</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>191</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="J22" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="K22" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="L22" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="O22" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -3696,41 +4107,45 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>10382</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>198</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="J23" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="K23" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="L23" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
@@ -3759,48 +4174,52 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>10382</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>204</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="J24" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="K24" t="s"/>
       <c r="L24" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="O24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -3824,35 +4243,39 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>10382</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>211</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="J25" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="K25" t="s"/>
       <c r="L25" t="s"/>
@@ -3860,10 +4283,10 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="O25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
@@ -3884,36 +4307,37 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
-      <c r="Y25" t="s"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>10382</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>216</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="J26" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="K26" t="s"/>
       <c r="L26" t="s"/>
@@ -3921,10 +4345,10 @@
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="O26" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -3945,51 +4369,52 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
-      <c r="Y26" t="s"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>10382</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>220</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="J27" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="K27" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="L27" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="O27" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -4013,35 +4438,39 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>10382</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>226</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="J28" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="K28" t="s"/>
       <c r="L28" t="s"/>
@@ -4049,10 +4478,10 @@
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="O28" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -4073,36 +4502,37 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
-      <c r="Y28" t="s"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>10382</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>230</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="J29" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="K29" t="s"/>
       <c r="L29" t="s"/>
@@ -4110,10 +4540,10 @@
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="O29" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -4134,36 +4564,37 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
-      <c r="Y29" t="s"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>10382</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>235</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="J30" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="K30" t="s"/>
       <c r="L30" t="s"/>
@@ -4171,10 +4602,10 @@
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="O30" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -4195,51 +4626,52 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
-      <c r="Y30" t="s"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>10382</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>239</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="J31" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="K31" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="L31" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="O31" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="P31" t="n">
         <v>3</v>
@@ -4263,35 +4695,39 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>10382</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>247</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="J32" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="K32" t="s"/>
       <c r="L32" t="s"/>
@@ -4299,10 +4735,10 @@
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="O32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -4323,42 +4759,43 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
-      <c r="Y32" t="s"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>10382</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>252</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="J33" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="K33" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="L33" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
@@ -4387,50 +4824,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>10382</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>258</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="J34" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="K34" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="L34" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="O34" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P34" t="n">
         <v>2</v>
@@ -4454,50 +4895,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>10382</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>266</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="J35" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="K35" t="s">
         <v>12</v>
       </c>
       <c r="L35" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="O35" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4521,50 +4966,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>10382</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>271</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="J36" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="K36" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="L36" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="M36" t="n">
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="O36" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -4588,35 +5037,39 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>10382</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>276</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="J37" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="K37" t="s"/>
       <c r="L37" t="s"/>
@@ -4624,10 +5077,10 @@
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="O37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
@@ -4648,36 +5101,37 @@
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
-      <c r="Y37" t="s"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>10382</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>280</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="J38" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="K38" t="s"/>
       <c r="L38" t="s"/>
@@ -4685,10 +5139,10 @@
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="O38" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -4709,36 +5163,37 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
-      <c r="Y38" t="s"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>10382</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>285</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="J39" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s"/>
@@ -4746,10 +5201,10 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -4770,36 +5225,37 @@
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
-      <c r="Y39" t="s"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>10382</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>289</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="J40" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s"/>
@@ -4807,10 +5263,10 @@
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="O40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -4831,36 +5287,37 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
-      <c r="Y40" t="s"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>10382</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>293</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="J41" t="s">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="K41" t="s"/>
       <c r="L41" t="s"/>
@@ -4868,10 +5325,10 @@
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="O41" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P41" t="n">
         <v>2</v>
@@ -4892,51 +5349,52 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
-      <c r="Y41" t="s"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>10382</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>298</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="J42" t="s">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="K42" t="s">
-        <v>261</v>
+        <v>301</v>
       </c>
       <c r="L42" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="O42" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -4960,35 +5418,39 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>10382</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>303</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="J43" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s"/>
@@ -4996,10 +5458,10 @@
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="O43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -5020,36 +5482,37 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
-      <c r="Y43" t="s"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>10382</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>307</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="J44" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="K44" t="s"/>
       <c r="L44" t="s"/>
@@ -5057,10 +5520,10 @@
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -5081,36 +5544,37 @@
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
-      <c r="Y44" t="s"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>10382</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>312</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>270</v>
+        <v>313</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>271</v>
+        <v>314</v>
       </c>
       <c r="J45" t="s">
-        <v>272</v>
+        <v>315</v>
       </c>
       <c r="K45" t="s"/>
       <c r="L45" t="s"/>
@@ -5118,10 +5582,10 @@
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="O45" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -5142,51 +5606,52 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
-      <c r="Y45" t="s"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>10382</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>316</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>273</v>
+        <v>317</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>274</v>
+        <v>318</v>
       </c>
       <c r="J46" t="s">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="K46" t="s">
-        <v>276</v>
+        <v>320</v>
       </c>
       <c r="L46" t="s">
-        <v>277</v>
+        <v>321</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="O46" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5210,35 +5675,39 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>277</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>10382</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>322</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>278</v>
+        <v>323</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>279</v>
+        <v>324</v>
       </c>
       <c r="J47" t="s">
-        <v>280</v>
+        <v>325</v>
       </c>
       <c r="K47" t="s"/>
       <c r="L47" t="s"/>
@@ -5246,10 +5715,10 @@
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>281</v>
+        <v>326</v>
       </c>
       <c r="O47" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P47" t="n">
         <v>3</v>
@@ -5270,49 +5739,50 @@
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
-      <c r="Y47" t="s"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>10382</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>327</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>282</v>
+        <v>328</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>283</v>
+        <v>329</v>
       </c>
       <c r="J48" t="s">
-        <v>284</v>
+        <v>330</v>
       </c>
       <c r="K48" t="s"/>
       <c r="L48" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>285</v>
+        <v>331</v>
       </c>
       <c r="O48" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5334,54 +5804,58 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>286</v>
+        <v>332</v>
       </c>
       <c r="X48" t="s">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="Y48" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>10382</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>334</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>288</v>
+        <v>335</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>289</v>
+        <v>336</v>
       </c>
       <c r="J49" t="s">
-        <v>290</v>
+        <v>337</v>
       </c>
       <c r="K49" t="s"/>
       <c r="L49" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="M49" t="n">
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>285</v>
+        <v>331</v>
       </c>
       <c r="O49" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -5403,54 +5877,58 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="X49" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="Y49" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>10382</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>340</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="J50" t="s">
-        <v>295</v>
+        <v>343</v>
       </c>
       <c r="K50" t="s"/>
       <c r="L50" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>3</v>
@@ -5472,56 +5950,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="X50" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="Y50" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>10382</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>345</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>297</v>
+        <v>346</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>298</v>
+        <v>347</v>
       </c>
       <c r="J51" t="s">
-        <v>299</v>
+        <v>348</v>
       </c>
       <c r="K51" t="s">
-        <v>300</v>
+        <v>349</v>
       </c>
       <c r="L51" t="s">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="O51" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -5543,54 +6025,58 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="X51" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="Y51" t="s">
-        <v>302</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>10382</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>352</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>303</v>
+        <v>353</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>304</v>
+        <v>354</v>
       </c>
       <c r="J52" t="s">
-        <v>305</v>
+        <v>355</v>
       </c>
       <c r="K52" t="s"/>
       <c r="L52" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="O52" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5612,54 +6098,58 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="X52" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="Y52" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>10382</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>356</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>306</v>
+        <v>357</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>307</v>
+        <v>358</v>
       </c>
       <c r="J53" t="s">
-        <v>308</v>
+        <v>359</v>
       </c>
       <c r="K53" t="s"/>
       <c r="L53" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="M53" t="n">
         <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -5681,54 +6171,58 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="X53" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="Y53" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>10382</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>360</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>309</v>
+        <v>361</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>310</v>
+        <v>362</v>
       </c>
       <c r="J54" t="s">
-        <v>311</v>
+        <v>363</v>
       </c>
       <c r="K54" t="s"/>
       <c r="L54" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="O54" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="P54" t="n">
         <v>3</v>
@@ -5750,54 +6244,58 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="X54" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="Y54" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>10382</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>364</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>312</v>
+        <v>365</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>313</v>
+        <v>366</v>
       </c>
       <c r="J55" t="s">
-        <v>311</v>
+        <v>363</v>
       </c>
       <c r="K55" t="s"/>
       <c r="L55" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="O55" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -5819,56 +6317,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="X55" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="Y55" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>10382</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>367</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>314</v>
+        <v>368</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>315</v>
+        <v>369</v>
       </c>
       <c r="J56" t="s">
-        <v>316</v>
+        <v>370</v>
       </c>
       <c r="K56" t="s">
-        <v>317</v>
+        <v>371</v>
       </c>
       <c r="L56" t="s">
-        <v>318</v>
+        <v>372</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>319</v>
+        <v>373</v>
       </c>
       <c r="O56" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
@@ -5890,56 +6392,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="X56" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="Y56" t="s">
-        <v>320</v>
+        <v>374</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>10382</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>375</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>321</v>
+        <v>376</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>322</v>
+        <v>377</v>
       </c>
       <c r="J57" t="s">
-        <v>323</v>
+        <v>378</v>
       </c>
       <c r="K57" t="s">
-        <v>324</v>
+        <v>379</v>
       </c>
       <c r="L57" t="s">
-        <v>325</v>
+        <v>380</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>326</v>
+        <v>381</v>
       </c>
       <c r="O57" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -5961,54 +6467,58 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="X57" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="Y57" t="s">
-        <v>327</v>
+        <v>382</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>10382</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>383</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>328</v>
+        <v>384</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>329</v>
+        <v>385</v>
       </c>
       <c r="J58" t="s">
-        <v>330</v>
+        <v>386</v>
       </c>
       <c r="K58" t="s"/>
       <c r="L58" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="M58" t="n">
         <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>319</v>
+        <v>373</v>
       </c>
       <c r="O58" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -6030,54 +6540,58 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="X58" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="Y58" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>10382</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>387</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>331</v>
+        <v>388</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>332</v>
+        <v>389</v>
       </c>
       <c r="J59" t="s">
-        <v>333</v>
+        <v>390</v>
       </c>
       <c r="K59" t="s"/>
       <c r="L59" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>326</v>
+        <v>381</v>
       </c>
       <c r="O59" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P59" t="n">
         <v>3</v>
@@ -6099,41 +6613,45 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="X59" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="Y59" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>10382</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>391</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>334</v>
+        <v>392</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>335</v>
+        <v>393</v>
       </c>
       <c r="J60" t="s">
-        <v>336</v>
+        <v>394</v>
       </c>
       <c r="K60" t="s"/>
       <c r="L60" t="s"/>
@@ -6141,10 +6659,10 @@
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>326</v>
+        <v>381</v>
       </c>
       <c r="O60" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P60" t="n">
         <v>2</v>
@@ -6165,36 +6683,37 @@
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
-      <c r="Y60" t="s"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>10382</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>395</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>337</v>
+        <v>396</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>338</v>
+        <v>397</v>
       </c>
       <c r="J61" t="s">
-        <v>339</v>
+        <v>398</v>
       </c>
       <c r="K61" t="s"/>
       <c r="L61" t="s"/>
@@ -6202,10 +6721,10 @@
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>340</v>
+        <v>399</v>
       </c>
       <c r="O61" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -6226,49 +6745,50 @@
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
-      <c r="Y61" t="s"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>10382</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>400</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>342</v>
+        <v>402</v>
       </c>
       <c r="J62" t="s">
-        <v>343</v>
+        <v>403</v>
       </c>
       <c r="K62" t="s"/>
       <c r="L62" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>340</v>
+        <v>399</v>
       </c>
       <c r="O62" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P62" t="n">
         <v>3</v>
@@ -6290,41 +6810,45 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>344</v>
+        <v>404</v>
       </c>
       <c r="X62" t="s">
-        <v>345</v>
+        <v>405</v>
       </c>
       <c r="Y62" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>10382</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>406</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>346</v>
+        <v>407</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>347</v>
+        <v>408</v>
       </c>
       <c r="J63" t="s">
-        <v>348</v>
+        <v>409</v>
       </c>
       <c r="K63" t="s"/>
       <c r="L63" t="s"/>
@@ -6332,10 +6856,10 @@
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>340</v>
+        <v>399</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6356,42 +6880,43 @@
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
-      <c r="Y63" t="s"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>10382</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>410</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>349</v>
+        <v>411</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>350</v>
+        <v>412</v>
       </c>
       <c r="J64" t="s">
-        <v>351</v>
+        <v>413</v>
       </c>
       <c r="K64" t="s">
-        <v>352</v>
+        <v>414</v>
       </c>
       <c r="L64" t="s">
-        <v>353</v>
+        <v>415</v>
       </c>
       <c r="M64" t="n">
         <v>1</v>
@@ -6418,56 +6943,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>354</v>
+        <v>416</v>
       </c>
       <c r="X64" t="s">
-        <v>355</v>
+        <v>417</v>
       </c>
       <c r="Y64" t="s">
-        <v>356</v>
+        <v>418</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>10382</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>419</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>357</v>
+        <v>420</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>358</v>
+        <v>421</v>
       </c>
       <c r="J65" t="s">
-        <v>359</v>
+        <v>422</v>
       </c>
       <c r="K65" t="s">
-        <v>360</v>
+        <v>423</v>
       </c>
       <c r="L65" t="s">
-        <v>361</v>
+        <v>424</v>
       </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
       <c r="N65" t="s">
-        <v>362</v>
+        <v>425</v>
       </c>
       <c r="O65" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P65" t="n">
         <v>3</v>
@@ -6489,54 +7018,58 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>363</v>
+        <v>426</v>
       </c>
       <c r="X65" t="s">
-        <v>364</v>
+        <v>427</v>
       </c>
       <c r="Y65" t="s">
-        <v>365</v>
+        <v>428</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>10382</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>429</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>366</v>
+        <v>430</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>367</v>
+        <v>431</v>
       </c>
       <c r="J66" t="s">
-        <v>359</v>
+        <v>422</v>
       </c>
       <c r="K66" t="s"/>
       <c r="L66" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>362</v>
+        <v>425</v>
       </c>
       <c r="O66" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6558,56 +7091,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>363</v>
+        <v>426</v>
       </c>
       <c r="X66" t="s">
-        <v>364</v>
+        <v>427</v>
       </c>
       <c r="Y66" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>10382</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>432</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>368</v>
+        <v>433</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>369</v>
+        <v>434</v>
       </c>
       <c r="J67" t="s">
-        <v>370</v>
+        <v>435</v>
       </c>
       <c r="K67" t="s">
-        <v>371</v>
+        <v>436</v>
       </c>
       <c r="L67" t="s">
-        <v>372</v>
+        <v>437</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>362</v>
+        <v>425</v>
       </c>
       <c r="O67" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -6629,56 +7166,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>373</v>
+        <v>438</v>
       </c>
       <c r="X67" t="s">
-        <v>374</v>
+        <v>439</v>
       </c>
       <c r="Y67" t="s">
-        <v>375</v>
+        <v>440</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>10382</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>441</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>376</v>
+        <v>442</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>377</v>
+        <v>443</v>
       </c>
       <c r="J68" t="s">
-        <v>378</v>
+        <v>444</v>
       </c>
       <c r="K68" t="s">
-        <v>379</v>
+        <v>445</v>
       </c>
       <c r="L68" t="s">
-        <v>380</v>
+        <v>446</v>
       </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
       <c r="N68" t="s">
-        <v>362</v>
+        <v>425</v>
       </c>
       <c r="O68" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="P68" t="n">
         <v>1</v>
@@ -6700,56 +7241,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>381</v>
+        <v>447</v>
       </c>
       <c r="X68" t="s">
-        <v>382</v>
+        <v>448</v>
       </c>
       <c r="Y68" t="s">
-        <v>383</v>
+        <v>449</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>10382</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>450</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>384</v>
+        <v>451</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>385</v>
+        <v>452</v>
       </c>
       <c r="J69" t="s">
-        <v>386</v>
+        <v>453</v>
       </c>
       <c r="K69" t="s">
-        <v>387</v>
+        <v>454</v>
       </c>
       <c r="L69" t="s">
-        <v>388</v>
+        <v>455</v>
       </c>
       <c r="M69" t="n">
         <v>2</v>
       </c>
       <c r="N69" t="s">
-        <v>362</v>
+        <v>425</v>
       </c>
       <c r="O69" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="P69" t="n">
         <v>2</v>
@@ -6771,54 +7316,58 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>389</v>
+        <v>456</v>
       </c>
       <c r="X69" t="s">
-        <v>382</v>
+        <v>448</v>
       </c>
       <c r="Y69" t="s">
-        <v>390</v>
+        <v>457</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>10382</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>458</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>391</v>
+        <v>459</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>392</v>
+        <v>460</v>
       </c>
       <c r="J70" t="s">
-        <v>393</v>
+        <v>461</v>
       </c>
       <c r="K70" t="s"/>
       <c r="L70" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="M70" t="n">
         <v>2</v>
       </c>
       <c r="N70" t="s">
-        <v>394</v>
+        <v>462</v>
       </c>
       <c r="O70" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P70" t="n">
         <v>3</v>
@@ -6840,54 +7389,58 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>395</v>
+        <v>463</v>
       </c>
       <c r="X70" t="s">
-        <v>396</v>
+        <v>464</v>
       </c>
       <c r="Y70" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>10382</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>465</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>397</v>
+        <v>466</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>398</v>
+        <v>467</v>
       </c>
       <c r="J71" t="s">
-        <v>399</v>
+        <v>468</v>
       </c>
       <c r="K71" t="s"/>
       <c r="L71" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>394</v>
+        <v>462</v>
       </c>
       <c r="O71" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P71" t="n">
         <v>4</v>
@@ -6909,56 +7462,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>400</v>
+        <v>469</v>
       </c>
       <c r="X71" t="s">
-        <v>401</v>
+        <v>470</v>
       </c>
       <c r="Y71" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>10382</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>471</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>402</v>
+        <v>472</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>403</v>
+        <v>473</v>
       </c>
       <c r="J72" t="s">
-        <v>404</v>
+        <v>474</v>
       </c>
       <c r="K72" t="s">
-        <v>405</v>
+        <v>475</v>
       </c>
       <c r="L72" t="s">
-        <v>406</v>
+        <v>476</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>407</v>
+        <v>477</v>
       </c>
       <c r="O72" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P72" t="n">
         <v>3</v>
@@ -6980,54 +7537,58 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>408</v>
+        <v>478</v>
       </c>
       <c r="X72" t="s">
-        <v>409</v>
+        <v>479</v>
       </c>
       <c r="Y72" t="s">
-        <v>410</v>
+        <v>480</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>10382</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>481</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>411</v>
+        <v>482</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>412</v>
+        <v>483</v>
       </c>
       <c r="J73" t="s">
-        <v>413</v>
+        <v>484</v>
       </c>
       <c r="K73" t="s"/>
       <c r="L73" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
       <c r="N73" t="s">
-        <v>407</v>
+        <v>477</v>
       </c>
       <c r="O73" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P73" t="n">
         <v>1</v>
@@ -7049,56 +7610,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>414</v>
+        <v>485</v>
       </c>
       <c r="X73" t="s">
-        <v>415</v>
+        <v>486</v>
       </c>
       <c r="Y73" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>10382</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>487</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>416</v>
+        <v>488</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>417</v>
+        <v>489</v>
       </c>
       <c r="J74" t="s">
-        <v>418</v>
+        <v>490</v>
       </c>
       <c r="K74" t="s">
-        <v>419</v>
+        <v>491</v>
       </c>
       <c r="L74" t="s">
-        <v>420</v>
+        <v>492</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>407</v>
+        <v>477</v>
       </c>
       <c r="O74" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7120,56 +7685,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>421</v>
+        <v>493</v>
       </c>
       <c r="X74" t="s">
-        <v>422</v>
+        <v>494</v>
       </c>
       <c r="Y74" t="s">
-        <v>423</v>
+        <v>495</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>10382</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>496</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>424</v>
+        <v>497</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>425</v>
+        <v>498</v>
       </c>
       <c r="J75" t="s">
-        <v>426</v>
+        <v>499</v>
       </c>
       <c r="K75" t="s">
-        <v>427</v>
+        <v>500</v>
       </c>
       <c r="L75" t="s">
-        <v>428</v>
+        <v>501</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>429</v>
+        <v>502</v>
       </c>
       <c r="O75" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7191,54 +7760,58 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>421</v>
+        <v>493</v>
       </c>
       <c r="X75" t="s">
-        <v>422</v>
+        <v>494</v>
       </c>
       <c r="Y75" t="s">
-        <v>430</v>
+        <v>503</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>10382</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>504</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>431</v>
+        <v>505</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>432</v>
+        <v>506</v>
       </c>
       <c r="J76" t="s">
-        <v>433</v>
+        <v>507</v>
       </c>
       <c r="K76" t="s"/>
       <c r="L76" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>434</v>
+        <v>508</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -7260,56 +7833,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>435</v>
+        <v>509</v>
       </c>
       <c r="X76" t="s">
-        <v>436</v>
+        <v>510</v>
       </c>
       <c r="Y76" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>10382</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>511</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>437</v>
+        <v>512</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
       <c r="J77" t="s">
-        <v>439</v>
+        <v>514</v>
       </c>
       <c r="K77" t="s">
-        <v>440</v>
+        <v>515</v>
       </c>
       <c r="L77" t="s">
-        <v>441</v>
+        <v>516</v>
       </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>429</v>
+        <v>502</v>
       </c>
       <c r="O77" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P77" t="n">
         <v>1</v>
@@ -7329,56 +7906,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>442</v>
+        <v>517</v>
       </c>
       <c r="X77" t="s">
-        <v>443</v>
+        <v>518</v>
       </c>
       <c r="Y77" t="s">
-        <v>444</v>
+        <v>519</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>10382</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>520</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>445</v>
+        <v>521</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>446</v>
+        <v>522</v>
       </c>
       <c r="J78" t="s">
-        <v>439</v>
+        <v>514</v>
       </c>
       <c r="K78" t="s">
-        <v>447</v>
+        <v>523</v>
       </c>
       <c r="L78" t="s">
-        <v>448</v>
+        <v>524</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>434</v>
+        <v>508</v>
       </c>
       <c r="O78" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7400,54 +7981,58 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>442</v>
+        <v>517</v>
       </c>
       <c r="X78" t="s">
-        <v>443</v>
+        <v>518</v>
       </c>
       <c r="Y78" t="s">
-        <v>449</v>
+        <v>525</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>10382</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>526</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>450</v>
+        <v>527</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>451</v>
+        <v>528</v>
       </c>
       <c r="J79" t="s">
-        <v>452</v>
+        <v>529</v>
       </c>
       <c r="K79" t="s"/>
       <c r="L79" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>434</v>
+        <v>508</v>
       </c>
       <c r="O79" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7469,54 +8054,58 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>453</v>
+        <v>530</v>
       </c>
       <c r="X79" t="s">
-        <v>454</v>
+        <v>531</v>
       </c>
       <c r="Y79" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>10382</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>532</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>455</v>
+        <v>533</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>456</v>
+        <v>534</v>
       </c>
       <c r="J80" t="s">
-        <v>457</v>
+        <v>535</v>
       </c>
       <c r="K80" t="s"/>
       <c r="L80" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="M80" t="n">
         <v>3</v>
       </c>
       <c r="N80" t="s">
-        <v>434</v>
+        <v>508</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7538,54 +8127,58 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>458</v>
+        <v>536</v>
       </c>
       <c r="X80" t="s">
-        <v>459</v>
+        <v>537</v>
       </c>
       <c r="Y80" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>10382</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>538</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>460</v>
+        <v>539</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>461</v>
+        <v>540</v>
       </c>
       <c r="J81" t="s">
-        <v>462</v>
+        <v>541</v>
       </c>
       <c r="K81" t="s"/>
       <c r="L81" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="M81" t="n">
         <v>2</v>
       </c>
       <c r="N81" t="s">
-        <v>463</v>
+        <v>542</v>
       </c>
       <c r="O81" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P81" t="n">
         <v>3</v>
@@ -7607,56 +8200,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>464</v>
+        <v>543</v>
       </c>
       <c r="X81" t="s">
-        <v>465</v>
+        <v>544</v>
       </c>
       <c r="Y81" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>10382</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>545</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>466</v>
+        <v>546</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>467</v>
+        <v>547</v>
       </c>
       <c r="J82" t="s">
-        <v>468</v>
+        <v>548</v>
       </c>
       <c r="K82" t="s">
-        <v>469</v>
+        <v>549</v>
       </c>
       <c r="L82" t="s">
-        <v>470</v>
+        <v>550</v>
       </c>
       <c r="M82" t="n">
         <v>2</v>
       </c>
       <c r="N82" t="s">
-        <v>463</v>
+        <v>542</v>
       </c>
       <c r="O82" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P82" t="n">
         <v>1</v>
@@ -7678,56 +8275,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>471</v>
+        <v>551</v>
       </c>
       <c r="X82" t="s">
-        <v>472</v>
+        <v>552</v>
       </c>
       <c r="Y82" t="s">
-        <v>473</v>
+        <v>553</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>10382</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>554</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>474</v>
+        <v>555</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>475</v>
+        <v>556</v>
       </c>
       <c r="J83" t="s">
-        <v>476</v>
+        <v>557</v>
       </c>
       <c r="K83" t="s">
-        <v>477</v>
+        <v>558</v>
       </c>
       <c r="L83" t="s">
-        <v>478</v>
+        <v>559</v>
       </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
       <c r="N83" t="s">
-        <v>479</v>
+        <v>560</v>
       </c>
       <c r="O83" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P83" t="n">
         <v>1</v>
@@ -7749,54 +8350,58 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>471</v>
+        <v>551</v>
       </c>
       <c r="X83" t="s">
-        <v>472</v>
+        <v>552</v>
       </c>
       <c r="Y83" t="s">
-        <v>480</v>
+        <v>561</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>10382</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>562</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>481</v>
+        <v>563</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>482</v>
+        <v>564</v>
       </c>
       <c r="J84" t="s">
-        <v>483</v>
+        <v>565</v>
       </c>
       <c r="K84" t="s"/>
       <c r="L84" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
       <c r="N84" t="s">
-        <v>479</v>
+        <v>560</v>
       </c>
       <c r="O84" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P84" t="n">
         <v>1</v>
@@ -7820,50 +8425,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>10382</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>566</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>484</v>
+        <v>567</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>485</v>
+        <v>568</v>
       </c>
       <c r="J85" t="s">
-        <v>486</v>
+        <v>569</v>
       </c>
       <c r="K85" t="s">
-        <v>487</v>
+        <v>570</v>
       </c>
       <c r="L85" t="s">
-        <v>488</v>
+        <v>571</v>
       </c>
       <c r="M85" t="n">
         <v>3</v>
       </c>
       <c r="N85" t="s">
-        <v>489</v>
+        <v>572</v>
       </c>
       <c r="O85" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P85" t="s"/>
       <c r="Q85" t="n">
@@ -7885,35 +8494,39 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>488</v>
+        <v>571</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>10382</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>573</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>490</v>
+        <v>574</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>491</v>
+        <v>575</v>
       </c>
       <c r="J86" t="s">
-        <v>492</v>
+        <v>576</v>
       </c>
       <c r="K86" t="s"/>
       <c r="L86" t="s"/>
@@ -7921,10 +8534,10 @@
         <v>3</v>
       </c>
       <c r="N86" t="s">
-        <v>493</v>
+        <v>577</v>
       </c>
       <c r="O86" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P86" t="n">
         <v>4</v>
@@ -7945,51 +8558,52 @@
       <c r="V86" t="n">
         <v>0</v>
       </c>
-      <c r="W86" t="s"/>
-      <c r="X86" t="s"/>
-      <c r="Y86" t="s"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>10382</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>578</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>494</v>
+        <v>579</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>495</v>
+        <v>580</v>
       </c>
       <c r="J87" t="s">
-        <v>496</v>
+        <v>581</v>
       </c>
       <c r="K87" t="s">
-        <v>497</v>
+        <v>582</v>
       </c>
       <c r="L87" t="s">
-        <v>498</v>
+        <v>583</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>489</v>
+        <v>572</v>
       </c>
       <c r="O87" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8013,35 +8627,39 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>498</v>
+        <v>583</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>10382</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>584</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>499</v>
+        <v>585</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>500</v>
+        <v>586</v>
       </c>
       <c r="J88" t="s">
-        <v>501</v>
+        <v>587</v>
       </c>
       <c r="K88" t="s"/>
       <c r="L88" t="s"/>
@@ -8049,10 +8667,10 @@
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>489</v>
+        <v>572</v>
       </c>
       <c r="O88" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
@@ -8073,49 +8691,50 @@
       <c r="V88" t="n">
         <v>0</v>
       </c>
-      <c r="W88" t="s"/>
-      <c r="X88" t="s"/>
-      <c r="Y88" t="s"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>10382</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>588</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>502</v>
+        <v>589</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>503</v>
+        <v>590</v>
       </c>
       <c r="J89" t="s">
-        <v>504</v>
+        <v>591</v>
       </c>
       <c r="K89" t="s"/>
       <c r="L89" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
       <c r="N89" t="s">
-        <v>493</v>
+        <v>577</v>
       </c>
       <c r="O89" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P89" t="n">
         <v>1</v>
@@ -8139,35 +8758,39 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>10382</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>592</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>505</v>
+        <v>593</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>506</v>
+        <v>594</v>
       </c>
       <c r="J90" t="s">
-        <v>507</v>
+        <v>595</v>
       </c>
       <c r="K90" t="s"/>
       <c r="L90" t="s"/>
@@ -8175,10 +8798,10 @@
         <v>3</v>
       </c>
       <c r="N90" t="s">
-        <v>493</v>
+        <v>577</v>
       </c>
       <c r="O90" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -8199,36 +8822,37 @@
       <c r="V90" t="n">
         <v>0</v>
       </c>
-      <c r="W90" t="s"/>
-      <c r="X90" t="s"/>
-      <c r="Y90" t="s"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>10382</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>596</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>508</v>
+        <v>597</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>509</v>
+        <v>598</v>
       </c>
       <c r="J91" t="s">
-        <v>510</v>
+        <v>599</v>
       </c>
       <c r="K91" t="s"/>
       <c r="L91" t="s"/>
@@ -8236,10 +8860,10 @@
         <v>2</v>
       </c>
       <c r="N91" t="s">
-        <v>493</v>
+        <v>577</v>
       </c>
       <c r="O91" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P91" t="n">
         <v>2</v>
@@ -8260,36 +8884,37 @@
       <c r="V91" t="n">
         <v>0</v>
       </c>
-      <c r="W91" t="s"/>
-      <c r="X91" t="s"/>
-      <c r="Y91" t="s"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>10382</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>600</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>511</v>
+        <v>601</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>512</v>
+        <v>602</v>
       </c>
       <c r="J92" t="s">
-        <v>513</v>
+        <v>603</v>
       </c>
       <c r="K92" t="s"/>
       <c r="L92" t="s"/>
@@ -8297,10 +8922,10 @@
         <v>3</v>
       </c>
       <c r="N92" t="s">
-        <v>493</v>
+        <v>577</v>
       </c>
       <c r="O92" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -8321,51 +8946,52 @@
       <c r="V92" t="n">
         <v>0</v>
       </c>
-      <c r="W92" t="s"/>
-      <c r="X92" t="s"/>
-      <c r="Y92" t="s"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>10382</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>604</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>514</v>
+        <v>605</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>515</v>
+        <v>606</v>
       </c>
       <c r="J93" t="s">
-        <v>516</v>
+        <v>607</v>
       </c>
       <c r="K93" t="s">
-        <v>517</v>
+        <v>608</v>
       </c>
       <c r="L93" t="s">
-        <v>518</v>
+        <v>609</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>493</v>
+        <v>577</v>
       </c>
       <c r="O93" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P93" t="n">
         <v>4</v>
@@ -8389,35 +9015,39 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>518</v>
+        <v>609</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>10382</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>610</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>519</v>
+        <v>611</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>520</v>
+        <v>612</v>
       </c>
       <c r="J94" t="s">
-        <v>521</v>
+        <v>613</v>
       </c>
       <c r="K94" t="s"/>
       <c r="L94" t="s"/>
@@ -8425,10 +9055,10 @@
         <v>3</v>
       </c>
       <c r="N94" t="s">
-        <v>493</v>
+        <v>577</v>
       </c>
       <c r="O94" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -8449,51 +9079,52 @@
       <c r="V94" t="n">
         <v>0</v>
       </c>
-      <c r="W94" t="s"/>
-      <c r="X94" t="s"/>
-      <c r="Y94" t="s"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>10382</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>383</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>522</v>
+        <v>614</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>523</v>
+        <v>615</v>
       </c>
       <c r="J95" t="s">
-        <v>524</v>
+        <v>616</v>
       </c>
       <c r="K95" t="s">
-        <v>525</v>
+        <v>617</v>
       </c>
       <c r="L95" t="s">
-        <v>526</v>
+        <v>618</v>
       </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
       <c r="N95" t="s">
-        <v>527</v>
+        <v>619</v>
       </c>
       <c r="O95" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P95" t="n">
         <v>2</v>
@@ -8517,41 +9148,45 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>528</v>
+        <v>620</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>10382</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>621</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>529</v>
+        <v>622</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>530</v>
+        <v>623</v>
       </c>
       <c r="J96" t="s">
-        <v>531</v>
+        <v>624</v>
       </c>
       <c r="K96" t="s">
-        <v>532</v>
+        <v>625</v>
       </c>
       <c r="L96" t="s">
-        <v>533</v>
+        <v>626</v>
       </c>
       <c r="M96" t="n">
         <v>2</v>
@@ -8580,41 +9215,45 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>533</v>
+        <v>626</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>10382</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>627</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>534</v>
+        <v>628</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>535</v>
+        <v>629</v>
       </c>
       <c r="J97" t="s">
-        <v>536</v>
+        <v>630</v>
       </c>
       <c r="K97" t="s">
-        <v>537</v>
+        <v>631</v>
       </c>
       <c r="L97" t="s">
-        <v>538</v>
+        <v>632</v>
       </c>
       <c r="M97" t="n">
         <v>1</v>
@@ -8643,41 +9282,45 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>539</v>
+        <v>633</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>10382</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>634</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>540</v>
+        <v>635</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>541</v>
+        <v>636</v>
       </c>
       <c r="J98" t="s">
-        <v>542</v>
+        <v>637</v>
       </c>
       <c r="K98" t="s">
-        <v>543</v>
+        <v>638</v>
       </c>
       <c r="L98" t="s">
-        <v>544</v>
+        <v>639</v>
       </c>
       <c r="M98" t="n">
         <v>1</v>
@@ -8706,50 +9349,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>544</v>
+        <v>639</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>10382</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>640</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>545</v>
+        <v>641</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>546</v>
+        <v>642</v>
       </c>
       <c r="J99" t="s">
-        <v>547</v>
+        <v>643</v>
       </c>
       <c r="K99" t="s">
-        <v>548</v>
+        <v>644</v>
       </c>
       <c r="L99" t="s">
-        <v>549</v>
+        <v>645</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>550</v>
+        <v>646</v>
       </c>
       <c r="O99" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -8773,50 +9420,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>549</v>
+        <v>645</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>10382</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>647</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>551</v>
+        <v>648</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>552</v>
+        <v>649</v>
       </c>
       <c r="J100" t="s">
-        <v>553</v>
+        <v>650</v>
       </c>
       <c r="K100" t="s">
-        <v>554</v>
+        <v>651</v>
       </c>
       <c r="L100" t="s">
-        <v>555</v>
+        <v>652</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>550</v>
+        <v>646</v>
       </c>
       <c r="O100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -8840,50 +9491,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>555</v>
+        <v>652</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>10382</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>653</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>556</v>
+        <v>654</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>557</v>
+        <v>655</v>
       </c>
       <c r="J101" t="s">
-        <v>558</v>
+        <v>656</v>
       </c>
       <c r="K101" t="s">
-        <v>559</v>
+        <v>657</v>
       </c>
       <c r="L101" t="s">
-        <v>560</v>
+        <v>658</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>561</v>
+        <v>659</v>
       </c>
       <c r="O101" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -8903,50 +9558,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>560</v>
+        <v>658</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>10382</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>660</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>562</v>
+        <v>661</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>563</v>
+        <v>662</v>
       </c>
       <c r="J102" t="s">
-        <v>564</v>
+        <v>663</v>
       </c>
       <c r="K102" t="s">
-        <v>565</v>
+        <v>664</v>
       </c>
       <c r="L102" t="s">
-        <v>566</v>
+        <v>665</v>
       </c>
       <c r="M102" t="n">
         <v>4</v>
       </c>
       <c r="N102" t="s">
-        <v>567</v>
+        <v>666</v>
       </c>
       <c r="O102" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P102" t="n">
         <v>4</v>
@@ -8970,50 +9629,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>566</v>
+        <v>665</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>10382</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>667</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>568</v>
+        <v>668</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>569</v>
+        <v>669</v>
       </c>
       <c r="J103" t="s">
-        <v>570</v>
+        <v>670</v>
       </c>
       <c r="K103" t="s">
-        <v>571</v>
+        <v>671</v>
       </c>
       <c r="L103" t="s">
-        <v>572</v>
+        <v>672</v>
       </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
       <c r="N103" t="s">
-        <v>573</v>
+        <v>673</v>
       </c>
       <c r="O103" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P103" t="n">
         <v>1</v>
@@ -9037,50 +9700,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>574</v>
+        <v>674</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>10382</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>675</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>575</v>
+        <v>676</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>576</v>
+        <v>677</v>
       </c>
       <c r="J104" t="s">
-        <v>577</v>
+        <v>678</v>
       </c>
       <c r="K104" t="s">
-        <v>578</v>
+        <v>679</v>
       </c>
       <c r="L104" t="s">
-        <v>579</v>
+        <v>680</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>580</v>
+        <v>681</v>
       </c>
       <c r="O104" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P104" t="n">
         <v>4</v>
@@ -9104,50 +9771,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>579</v>
+        <v>680</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>10382</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>682</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>581</v>
+        <v>683</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>582</v>
+        <v>684</v>
       </c>
       <c r="J105" t="s">
-        <v>583</v>
+        <v>685</v>
       </c>
       <c r="K105" t="s">
-        <v>584</v>
+        <v>686</v>
       </c>
       <c r="L105" t="s">
-        <v>585</v>
+        <v>687</v>
       </c>
       <c r="M105" t="n">
         <v>2</v>
       </c>
       <c r="N105" t="s">
-        <v>586</v>
+        <v>688</v>
       </c>
       <c r="O105" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P105" t="s"/>
       <c r="Q105" t="s"/>
@@ -9161,41 +9832,45 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>587</v>
+        <v>689</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>10382</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>690</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>588</v>
+        <v>691</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>589</v>
+        <v>692</v>
       </c>
       <c r="J106" t="s">
-        <v>590</v>
+        <v>693</v>
       </c>
       <c r="K106" t="s">
-        <v>591</v>
+        <v>694</v>
       </c>
       <c r="L106" t="s">
-        <v>592</v>
+        <v>695</v>
       </c>
       <c r="M106" t="n">
         <v>1</v>
@@ -9224,50 +9899,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>593</v>
+        <v>696</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>10382</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>697</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>594</v>
+        <v>698</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>595</v>
+        <v>699</v>
       </c>
       <c r="J107" t="s">
-        <v>596</v>
+        <v>700</v>
       </c>
       <c r="K107" t="s">
-        <v>597</v>
+        <v>701</v>
       </c>
       <c r="L107" t="s">
-        <v>598</v>
+        <v>702</v>
       </c>
       <c r="M107" t="n">
         <v>2</v>
       </c>
       <c r="N107" t="s">
-        <v>599</v>
+        <v>703</v>
       </c>
       <c r="O107" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P107" t="s"/>
       <c r="Q107" t="s"/>
@@ -9281,50 +9960,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>600</v>
+        <v>704</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>10382</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>705</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>601</v>
+        <v>706</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>602</v>
+        <v>707</v>
       </c>
       <c r="J108" t="s">
-        <v>603</v>
+        <v>708</v>
       </c>
       <c r="K108" t="s">
-        <v>604</v>
+        <v>709</v>
       </c>
       <c r="L108" t="s">
-        <v>605</v>
+        <v>710</v>
       </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
       <c r="N108" t="s">
-        <v>606</v>
+        <v>711</v>
       </c>
       <c r="O108" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P108" t="n">
         <v>1</v>
@@ -9348,50 +10031,54 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>607</v>
+        <v>712</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>10382</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>713</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>608</v>
+        <v>714</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>609</v>
+        <v>715</v>
       </c>
       <c r="J109" t="s">
-        <v>610</v>
+        <v>716</v>
       </c>
       <c r="K109" t="s">
-        <v>611</v>
+        <v>717</v>
       </c>
       <c r="L109" t="s">
-        <v>612</v>
+        <v>718</v>
       </c>
       <c r="M109" t="n">
         <v>5</v>
       </c>
       <c r="N109" t="s">
-        <v>613</v>
+        <v>719</v>
       </c>
       <c r="O109" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="P109" t="n">
         <v>5</v>
@@ -9415,41 +10102,45 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>612</v>
+        <v>718</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>10382</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>720</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>614</v>
+        <v>721</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>615</v>
+        <v>722</v>
       </c>
       <c r="J110" t="s">
-        <v>616</v>
+        <v>723</v>
       </c>
       <c r="K110" t="s">
-        <v>617</v>
+        <v>724</v>
       </c>
       <c r="L110" t="s">
-        <v>618</v>
+        <v>725</v>
       </c>
       <c r="M110" t="n">
         <v>1</v>
@@ -9476,56 +10167,60 @@
         <v>0</v>
       </c>
       <c r="W110" t="s">
-        <v>619</v>
+        <v>726</v>
       </c>
       <c r="X110" t="s">
-        <v>620</v>
+        <v>727</v>
       </c>
       <c r="Y110" t="s">
-        <v>621</v>
+        <v>728</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>10382</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>729</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>622</v>
+        <v>730</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>623</v>
+        <v>731</v>
       </c>
       <c r="J111" t="s">
-        <v>624</v>
+        <v>732</v>
       </c>
       <c r="K111" t="s">
-        <v>625</v>
+        <v>733</v>
       </c>
       <c r="L111" t="s">
-        <v>626</v>
+        <v>734</v>
       </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
       <c r="N111" t="s">
-        <v>627</v>
+        <v>735</v>
       </c>
       <c r="O111" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P111" t="n">
         <v>1</v>
@@ -9549,41 +10244,45 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>626</v>
+        <v>734</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>10382</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>736</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>628</v>
+        <v>737</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>629</v>
+        <v>738</v>
       </c>
       <c r="J112" t="s">
-        <v>630</v>
+        <v>739</v>
       </c>
       <c r="K112" t="s">
-        <v>631</v>
+        <v>740</v>
       </c>
       <c r="L112" t="s">
-        <v>632</v>
+        <v>741</v>
       </c>
       <c r="M112" t="n">
         <v>5</v>
@@ -9612,7 +10311,7 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>633</v>
+        <v>742</v>
       </c>
     </row>
   </sheetData>
